--- a/Experiments_with_locally_deployed_LLMs.xlsx
+++ b/Experiments_with_locally_deployed_LLMs.xlsx
@@ -3263,7 +3263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3414,10 +3414,7 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3516,8 +3513,14 @@
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -19227,22 +19230,22 @@
       <c r="H8" s="48"/>
       <c r="I8" s="51"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="23" t="s">
@@ -19266,13 +19269,13 @@
       <c r="G9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>1485.0</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>52</v>
       </c>
       <c r="K9" s="4"/>
@@ -19292,14 +19295,14 @@
       <c r="F10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <v>712.0</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="58" t="s">
         <v>56</v>
       </c>
       <c r="K10" s="35"/>
@@ -19310,25 +19313,25 @@
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="60">
+      <c r="D11" s="59">
         <v>51.0</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="62">
         <v>764.0</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="64" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="35"/>
@@ -19357,13 +19360,13 @@
       <c r="G12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="53">
         <v>1224.0</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="35"/>
@@ -19383,16 +19386,16 @@
       <c r="F13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="57">
         <v>438.0</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="58" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="35"/>
@@ -19412,16 +19415,16 @@
       <c r="F14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <v>802.0</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="71" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="35"/>
@@ -19450,13 +19453,13 @@
       <c r="G15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="53">
         <v>754.0</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="55" t="s">
         <v>73</v>
       </c>
     </row>
@@ -19476,13 +19479,13 @@
       <c r="G16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="57">
         <v>724.0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -19499,48 +19502,48 @@
       <c r="F17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="71" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="27.75" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="76">
         <v>201.0</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <v>1190.0</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="82" t="s">
+      <c r="J18" s="81" t="s">
         <v>84</v>
       </c>
       <c r="K18" s="4"/>
@@ -19558,14 +19561,14 @@
       <c r="F19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <v>2096.0</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="58" t="s">
         <v>88</v>
       </c>
       <c r="K19" s="4"/>
@@ -19583,49 +19586,49 @@
       <c r="F20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="71" t="s">
         <v>81</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="76">
         <v>201.0</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <v>222.0</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="81" t="s">
         <v>95</v>
       </c>
       <c r="K21" s="4"/>
@@ -19645,16 +19648,16 @@
       <c r="F22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="58" t="s">
         <v>79</v>
       </c>
       <c r="K22" s="4"/>
@@ -19674,14 +19677,14 @@
       <c r="F23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="69" t="s">
         <v>79</v>
       </c>
       <c r="I23" s="31"/>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="64" t="s">
         <v>81</v>
       </c>
       <c r="K23" s="4"/>
@@ -19689,13 +19692,13 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="24">
@@ -19710,13 +19713,13 @@
       <c r="G24" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <v>396.0</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="55" t="s">
         <v>106</v>
       </c>
       <c r="K24" s="4"/>
@@ -19736,14 +19739,14 @@
       <c r="F25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="57">
         <v>464.0</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="58" t="s">
         <v>109</v>
       </c>
       <c r="K25" s="4"/>
@@ -19763,14 +19766,14 @@
       <c r="F26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="69">
         <v>477.0</v>
       </c>
       <c r="I26" s="31"/>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="71" t="s">
         <v>112</v>
       </c>
       <c r="K26" s="35"/>
@@ -19778,32 +19781,34 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="76">
         <v>201.0</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="81" t="s">
+      <c r="H27" s="85">
+        <v>687.0</v>
+      </c>
+      <c r="I27" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="J27" s="81" t="s">
         <v>116</v>
       </c>
       <c r="K27" s="35"/>
@@ -19823,14 +19828,14 @@
       <c r="F28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="57">
         <v>1166.0</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="58" t="s">
         <v>119</v>
       </c>
       <c r="K28" s="35"/>
@@ -19841,21 +19846,23 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>51.0</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="59" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="60"/>
+      <c r="H29" s="87">
+        <v>691.0</v>
+      </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="64" t="s">
         <v>121</v>
       </c>
       <c r="K29" s="35"/>
@@ -19884,13 +19891,13 @@
       <c r="G30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <v>319.0</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="55" t="s">
         <v>125</v>
       </c>
       <c r="K30" s="35"/>
@@ -19910,14 +19917,14 @@
       <c r="F31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="57">
         <v>464.0</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="59" t="s">
+      <c r="J31" s="58" t="s">
         <v>128</v>
       </c>
       <c r="K31" s="35"/>
@@ -19937,14 +19944,14 @@
       <c r="F32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="69">
         <v>453.0</v>
       </c>
       <c r="I32" s="31"/>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>131</v>
       </c>
       <c r="K32" s="35"/>
@@ -19964,22 +19971,22 @@
       <c r="H33" s="48"/>
       <c r="I33" s="51"/>
       <c r="J33" s="50"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
@@ -20003,13 +20010,13 @@
       <c r="G34" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="53">
         <v>690.0</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="55" t="s">
         <v>136</v>
       </c>
       <c r="K34" s="35"/>
@@ -20029,14 +20036,14 @@
       <c r="F35" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="G35" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="57">
         <v>628.0</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="59" t="s">
+      <c r="J35" s="58" t="s">
         <v>79</v>
       </c>
       <c r="K35" s="35"/>
@@ -20047,23 +20054,23 @@
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <v>51.0</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="62">
         <v>1384.0</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="65" t="s">
+      <c r="J36" s="64" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="35"/>
@@ -20092,13 +20099,13 @@
       <c r="G37" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="H37" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="J37" s="55" t="s">
         <v>136</v>
       </c>
       <c r="K37" s="35"/>
@@ -20118,16 +20125,16 @@
       <c r="F38" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="67" t="s">
+      <c r="G38" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I38" s="89" t="s">
+      <c r="I38" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="58" t="s">
         <v>145</v>
       </c>
       <c r="K38" s="35"/>
@@ -20147,14 +20154,14 @@
       <c r="F39" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="69" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="31"/>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="71" t="s">
         <v>147</v>
       </c>
       <c r="K39" s="35"/>
@@ -20162,34 +20169,34 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="77">
+      <c r="D40" s="76">
         <v>201.0</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="83" t="s">
+      <c r="G40" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="79">
         <v>1441.0</v>
       </c>
-      <c r="I40" s="81" t="s">
+      <c r="I40" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="82" t="s">
+      <c r="J40" s="81" t="s">
         <v>151</v>
       </c>
       <c r="K40" s="35"/>
@@ -20209,14 +20216,14 @@
       <c r="F41" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="67" t="s">
+      <c r="G41" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="58">
+      <c r="H41" s="57">
         <v>1344.0</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="59" t="s">
+      <c r="J41" s="58" t="s">
         <v>79</v>
       </c>
       <c r="K41" s="35"/>
@@ -20227,25 +20234,25 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="60">
+      <c r="D42" s="59">
         <v>51.0</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="59" t="s">
         <v>24</v>
       </c>
       <c r="G42" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="89" t="s">
+      <c r="I42" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="J42" s="65" t="s">
+      <c r="J42" s="64" t="s">
         <v>139</v>
       </c>
       <c r="K42" s="35"/>
@@ -20274,13 +20281,13 @@
       <c r="G43" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="53">
         <v>1409.0</v>
       </c>
-      <c r="I43" s="55" t="s">
+      <c r="I43" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="J43" s="56" t="s">
+      <c r="J43" s="55" t="s">
         <v>157</v>
       </c>
       <c r="K43" s="35"/>
@@ -20300,14 +20307,14 @@
       <c r="F44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="67" t="s">
+      <c r="G44" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="58">
+      <c r="H44" s="57">
         <v>600.0</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="58" t="s">
         <v>145</v>
       </c>
       <c r="K44" s="35"/>
@@ -20327,16 +20334,16 @@
       <c r="F45" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="90" t="s">
+      <c r="I45" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="71" t="s">
         <v>147</v>
       </c>
       <c r="K45" s="35"/>
@@ -20344,34 +20351,34 @@
       <c r="M45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="77">
+      <c r="D46" s="76">
         <v>201.0</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="83" t="s">
+      <c r="G46" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="80">
+      <c r="H46" s="79">
         <v>211.0</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="J46" s="82" t="s">
+      <c r="J46" s="81" t="s">
         <v>151</v>
       </c>
       <c r="K46" s="35"/>
@@ -20391,16 +20398,16 @@
       <c r="F47" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="57">
         <v>489.0</v>
       </c>
-      <c r="I47" s="68" t="s">
+      <c r="I47" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="J47" s="59" t="s">
+      <c r="J47" s="58" t="s">
         <v>166</v>
       </c>
       <c r="K47" s="35"/>
@@ -20420,16 +20427,16 @@
       <c r="F48" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="70" t="s">
+      <c r="H48" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="90" t="s">
+      <c r="I48" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>170</v>
       </c>
       <c r="K48" s="35"/>
@@ -20445,7 +20452,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="91"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="3"/>
       <c r="K49" s="35"/>
       <c r="L49" s="3"/>
@@ -20460,47 +20467,47 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="92"/>
       <c r="J50" s="3"/>
       <c r="K50" s="35"/>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="92"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
     </row>
     <row r="52">
-      <c r="A52" s="92"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
     </row>
     <row r="53">
-      <c r="A53" s="92"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -20511,7 +20518,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="91"/>
+      <c r="I54" s="92"/>
       <c r="J54" s="3"/>
       <c r="K54" s="35"/>
       <c r="L54" s="3"/>
@@ -20526,7 +20533,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="91"/>
+      <c r="I55" s="92"/>
       <c r="J55" s="3"/>
       <c r="K55" s="35"/>
       <c r="L55" s="3"/>
@@ -20541,7 +20548,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="91"/>
+      <c r="I56" s="92"/>
       <c r="J56" s="3"/>
       <c r="K56" s="35"/>
       <c r="L56" s="3"/>
@@ -20556,7 +20563,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="91"/>
+      <c r="I57" s="92"/>
       <c r="J57" s="3"/>
       <c r="K57" s="35"/>
       <c r="L57" s="3"/>
@@ -20571,7 +20578,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="91"/>
+      <c r="I58" s="92"/>
       <c r="J58" s="3"/>
       <c r="K58" s="35"/>
       <c r="L58" s="3"/>
@@ -20586,7 +20593,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="91"/>
+      <c r="I59" s="92"/>
       <c r="J59" s="3"/>
       <c r="K59" s="35"/>
       <c r="L59" s="3"/>
@@ -20601,7 +20608,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="91"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="3"/>
       <c r="K60" s="35"/>
       <c r="L60" s="3"/>
@@ -20616,7 +20623,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="91"/>
+      <c r="I61" s="92"/>
       <c r="J61" s="3"/>
       <c r="K61" s="35"/>
       <c r="L61" s="3"/>
@@ -20631,7 +20638,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="91"/>
+      <c r="I62" s="92"/>
       <c r="J62" s="3"/>
       <c r="K62" s="35"/>
       <c r="L62" s="3"/>
@@ -20646,7 +20653,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="91"/>
+      <c r="I63" s="92"/>
       <c r="J63" s="3"/>
       <c r="K63" s="35"/>
       <c r="L63" s="3"/>
@@ -20661,7 +20668,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="91"/>
+      <c r="I64" s="92"/>
       <c r="J64" s="3"/>
       <c r="K64" s="35"/>
       <c r="L64" s="3"/>
@@ -20676,7 +20683,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="91"/>
+      <c r="I65" s="92"/>
       <c r="J65" s="3"/>
       <c r="K65" s="35"/>
       <c r="L65" s="3"/>
@@ -20691,7 +20698,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="91"/>
+      <c r="I66" s="92"/>
       <c r="J66" s="3"/>
       <c r="K66" s="35"/>
       <c r="L66" s="3"/>
@@ -20706,7 +20713,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="91"/>
+      <c r="I67" s="92"/>
       <c r="J67" s="3"/>
       <c r="K67" s="35"/>
       <c r="L67" s="3"/>
@@ -20721,7 +20728,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="91"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="3"/>
       <c r="K68" s="35"/>
       <c r="L68" s="3"/>
@@ -20736,7 +20743,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="91"/>
+      <c r="I69" s="92"/>
       <c r="J69" s="3"/>
       <c r="K69" s="35"/>
       <c r="L69" s="3"/>
@@ -20751,7 +20758,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="91"/>
+      <c r="I70" s="92"/>
       <c r="J70" s="3"/>
       <c r="K70" s="35"/>
       <c r="L70" s="3"/>
@@ -20766,7 +20773,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="91"/>
+      <c r="I71" s="92"/>
       <c r="J71" s="3"/>
       <c r="K71" s="35"/>
       <c r="L71" s="3"/>
@@ -20781,7 +20788,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="91"/>
+      <c r="I72" s="92"/>
       <c r="J72" s="3"/>
       <c r="K72" s="35"/>
       <c r="L72" s="3"/>
@@ -20796,7 +20803,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="91"/>
+      <c r="I73" s="92"/>
       <c r="J73" s="3"/>
       <c r="K73" s="35"/>
       <c r="L73" s="3"/>
@@ -20811,7 +20818,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="91"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="3"/>
       <c r="K74" s="35"/>
       <c r="L74" s="3"/>
@@ -20826,7 +20833,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="91"/>
+      <c r="I75" s="92"/>
       <c r="J75" s="3"/>
       <c r="K75" s="35"/>
       <c r="L75" s="3"/>
@@ -20841,7 +20848,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="91"/>
+      <c r="I76" s="92"/>
       <c r="J76" s="3"/>
       <c r="K76" s="35"/>
       <c r="L76" s="3"/>
@@ -20856,7 +20863,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="91"/>
+      <c r="I77" s="92"/>
       <c r="J77" s="3"/>
       <c r="K77" s="35"/>
       <c r="L77" s="3"/>
@@ -20871,7 +20878,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="91"/>
+      <c r="I78" s="92"/>
       <c r="J78" s="3"/>
       <c r="K78" s="35"/>
       <c r="L78" s="3"/>
@@ -20886,7 +20893,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="91"/>
+      <c r="I79" s="92"/>
       <c r="J79" s="3"/>
       <c r="K79" s="35"/>
       <c r="L79" s="3"/>
@@ -20901,7 +20908,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="91"/>
+      <c r="I80" s="92"/>
       <c r="J80" s="3"/>
       <c r="K80" s="35"/>
       <c r="L80" s="3"/>
@@ -20916,7 +20923,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="91"/>
+      <c r="I81" s="92"/>
       <c r="J81" s="3"/>
       <c r="K81" s="35"/>
       <c r="L81" s="3"/>
@@ -20931,7 +20938,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="91"/>
+      <c r="I82" s="92"/>
       <c r="J82" s="3"/>
       <c r="K82" s="35"/>
       <c r="L82" s="3"/>
@@ -20946,7 +20953,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="91"/>
+      <c r="I83" s="92"/>
       <c r="J83" s="3"/>
       <c r="K83" s="35"/>
       <c r="L83" s="3"/>
@@ -20961,7 +20968,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="91"/>
+      <c r="I84" s="92"/>
       <c r="J84" s="3"/>
       <c r="K84" s="35"/>
       <c r="L84" s="3"/>
@@ -20976,7 +20983,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="91"/>
+      <c r="I85" s="92"/>
       <c r="J85" s="3"/>
       <c r="K85" s="35"/>
       <c r="L85" s="3"/>
@@ -20991,7 +20998,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="91"/>
+      <c r="I86" s="92"/>
       <c r="J86" s="3"/>
       <c r="K86" s="35"/>
       <c r="L86" s="3"/>
@@ -21006,7 +21013,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="91"/>
+      <c r="I87" s="92"/>
       <c r="J87" s="3"/>
       <c r="K87" s="35"/>
       <c r="L87" s="3"/>
@@ -21021,7 +21028,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="91"/>
+      <c r="I88" s="92"/>
       <c r="J88" s="3"/>
       <c r="K88" s="35"/>
       <c r="L88" s="3"/>
@@ -21036,7 +21043,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="91"/>
+      <c r="I89" s="92"/>
       <c r="J89" s="3"/>
       <c r="K89" s="35"/>
       <c r="L89" s="3"/>
@@ -21051,7 +21058,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="91"/>
+      <c r="I90" s="92"/>
       <c r="J90" s="3"/>
       <c r="K90" s="35"/>
       <c r="L90" s="3"/>
@@ -21066,7 +21073,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="91"/>
+      <c r="I91" s="92"/>
       <c r="J91" s="3"/>
       <c r="K91" s="35"/>
       <c r="L91" s="3"/>
@@ -21081,7 +21088,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="91"/>
+      <c r="I92" s="92"/>
       <c r="J92" s="3"/>
       <c r="K92" s="35"/>
       <c r="L92" s="3"/>
@@ -21096,7 +21103,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="91"/>
+      <c r="I93" s="92"/>
       <c r="J93" s="3"/>
       <c r="K93" s="35"/>
       <c r="L93" s="3"/>
@@ -21111,7 +21118,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="91"/>
+      <c r="I94" s="92"/>
       <c r="J94" s="3"/>
       <c r="K94" s="35"/>
       <c r="L94" s="3"/>
@@ -21126,7 +21133,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="91"/>
+      <c r="I95" s="92"/>
       <c r="J95" s="3"/>
       <c r="K95" s="35"/>
       <c r="L95" s="3"/>
@@ -21141,7 +21148,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="91"/>
+      <c r="I96" s="92"/>
       <c r="J96" s="3"/>
       <c r="K96" s="35"/>
       <c r="L96" s="3"/>
@@ -21156,7 +21163,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="91"/>
+      <c r="I97" s="92"/>
       <c r="J97" s="3"/>
       <c r="K97" s="35"/>
       <c r="L97" s="3"/>
@@ -21171,7 +21178,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="91"/>
+      <c r="I98" s="92"/>
       <c r="J98" s="3"/>
       <c r="K98" s="35"/>
       <c r="L98" s="3"/>
@@ -21186,7 +21193,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="91"/>
+      <c r="I99" s="92"/>
       <c r="J99" s="3"/>
       <c r="K99" s="35"/>
       <c r="L99" s="3"/>
@@ -21201,7 +21208,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="91"/>
+      <c r="I100" s="92"/>
       <c r="J100" s="3"/>
       <c r="K100" s="35"/>
       <c r="L100" s="3"/>
@@ -21216,7 +21223,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="91"/>
+      <c r="I101" s="92"/>
       <c r="J101" s="3"/>
       <c r="K101" s="35"/>
       <c r="L101" s="3"/>
@@ -21231,7 +21238,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="91"/>
+      <c r="I102" s="92"/>
       <c r="J102" s="3"/>
       <c r="K102" s="35"/>
       <c r="L102" s="3"/>
@@ -21246,7 +21253,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="91"/>
+      <c r="I103" s="92"/>
       <c r="J103" s="3"/>
       <c r="K103" s="35"/>
       <c r="L103" s="3"/>
@@ -21261,7 +21268,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="91"/>
+      <c r="I104" s="92"/>
       <c r="J104" s="3"/>
       <c r="K104" s="35"/>
       <c r="L104" s="3"/>
@@ -21276,7 +21283,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="91"/>
+      <c r="I105" s="92"/>
       <c r="J105" s="3"/>
       <c r="K105" s="35"/>
       <c r="L105" s="3"/>
@@ -21291,7 +21298,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="91"/>
+      <c r="I106" s="92"/>
       <c r="J106" s="3"/>
       <c r="K106" s="35"/>
       <c r="L106" s="3"/>
@@ -21306,7 +21313,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="91"/>
+      <c r="I107" s="92"/>
       <c r="J107" s="3"/>
       <c r="K107" s="35"/>
       <c r="L107" s="3"/>
@@ -21321,7 +21328,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="91"/>
+      <c r="I108" s="92"/>
       <c r="J108" s="3"/>
       <c r="K108" s="35"/>
       <c r="L108" s="3"/>
@@ -21336,7 +21343,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="91"/>
+      <c r="I109" s="92"/>
       <c r="J109" s="3"/>
       <c r="K109" s="35"/>
       <c r="L109" s="3"/>
@@ -21351,7 +21358,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="91"/>
+      <c r="I110" s="92"/>
       <c r="J110" s="3"/>
       <c r="K110" s="35"/>
       <c r="L110" s="3"/>
@@ -21366,7 +21373,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="91"/>
+      <c r="I111" s="92"/>
       <c r="J111" s="3"/>
       <c r="K111" s="35"/>
       <c r="L111" s="3"/>
@@ -21381,7 +21388,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="91"/>
+      <c r="I112" s="92"/>
       <c r="J112" s="3"/>
       <c r="K112" s="35"/>
       <c r="L112" s="3"/>
@@ -21396,7 +21403,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="91"/>
+      <c r="I113" s="92"/>
       <c r="J113" s="3"/>
       <c r="K113" s="35"/>
       <c r="L113" s="3"/>
@@ -21411,7 +21418,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="91"/>
+      <c r="I114" s="92"/>
       <c r="J114" s="3"/>
       <c r="K114" s="35"/>
       <c r="L114" s="3"/>
@@ -21426,7 +21433,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="91"/>
+      <c r="I115" s="92"/>
       <c r="J115" s="3"/>
       <c r="K115" s="35"/>
       <c r="L115" s="3"/>
@@ -21441,7 +21448,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="91"/>
+      <c r="I116" s="92"/>
       <c r="J116" s="3"/>
       <c r="K116" s="35"/>
       <c r="L116" s="3"/>
@@ -21456,7 +21463,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="91"/>
+      <c r="I117" s="92"/>
       <c r="J117" s="3"/>
       <c r="K117" s="35"/>
       <c r="L117" s="3"/>
@@ -21471,7 +21478,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="91"/>
+      <c r="I118" s="92"/>
       <c r="J118" s="3"/>
       <c r="K118" s="35"/>
       <c r="L118" s="3"/>
@@ -21486,7 +21493,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="91"/>
+      <c r="I119" s="92"/>
       <c r="J119" s="3"/>
       <c r="K119" s="35"/>
       <c r="L119" s="3"/>
@@ -21501,7 +21508,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="91"/>
+      <c r="I120" s="92"/>
       <c r="J120" s="3"/>
       <c r="K120" s="35"/>
       <c r="L120" s="3"/>
@@ -21516,7 +21523,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="91"/>
+      <c r="I121" s="92"/>
       <c r="J121" s="3"/>
       <c r="K121" s="35"/>
       <c r="L121" s="3"/>
@@ -21531,7 +21538,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="91"/>
+      <c r="I122" s="92"/>
       <c r="J122" s="3"/>
       <c r="K122" s="35"/>
       <c r="L122" s="3"/>
@@ -21546,7 +21553,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="91"/>
+      <c r="I123" s="92"/>
       <c r="J123" s="3"/>
       <c r="K123" s="35"/>
       <c r="L123" s="3"/>
@@ -21561,7 +21568,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="91"/>
+      <c r="I124" s="92"/>
       <c r="J124" s="3"/>
       <c r="K124" s="35"/>
       <c r="L124" s="3"/>
@@ -21576,7 +21583,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="91"/>
+      <c r="I125" s="92"/>
       <c r="J125" s="3"/>
       <c r="K125" s="35"/>
       <c r="L125" s="3"/>
@@ -21591,7 +21598,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="91"/>
+      <c r="I126" s="92"/>
       <c r="J126" s="3"/>
       <c r="K126" s="35"/>
       <c r="L126" s="3"/>
@@ -21606,7 +21613,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="91"/>
+      <c r="I127" s="92"/>
       <c r="J127" s="3"/>
       <c r="K127" s="35"/>
       <c r="L127" s="3"/>
@@ -21621,7 +21628,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="91"/>
+      <c r="I128" s="92"/>
       <c r="J128" s="3"/>
       <c r="K128" s="35"/>
       <c r="L128" s="3"/>
@@ -21636,7 +21643,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="91"/>
+      <c r="I129" s="92"/>
       <c r="J129" s="3"/>
       <c r="K129" s="35"/>
       <c r="L129" s="3"/>
@@ -21651,7 +21658,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="91"/>
+      <c r="I130" s="92"/>
       <c r="J130" s="3"/>
       <c r="K130" s="35"/>
       <c r="L130" s="3"/>
@@ -21666,7 +21673,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="91"/>
+      <c r="I131" s="92"/>
       <c r="J131" s="3"/>
       <c r="K131" s="35"/>
       <c r="L131" s="3"/>
@@ -21681,7 +21688,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="91"/>
+      <c r="I132" s="92"/>
       <c r="J132" s="3"/>
       <c r="K132" s="35"/>
       <c r="L132" s="3"/>
@@ -21696,7 +21703,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="91"/>
+      <c r="I133" s="92"/>
       <c r="J133" s="3"/>
       <c r="K133" s="35"/>
       <c r="L133" s="3"/>
@@ -21711,7 +21718,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="91"/>
+      <c r="I134" s="92"/>
       <c r="J134" s="3"/>
       <c r="K134" s="35"/>
       <c r="L134" s="3"/>
@@ -21726,7 +21733,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="91"/>
+      <c r="I135" s="92"/>
       <c r="J135" s="3"/>
       <c r="K135" s="35"/>
       <c r="L135" s="3"/>
@@ -21741,7 +21748,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="91"/>
+      <c r="I136" s="92"/>
       <c r="J136" s="3"/>
       <c r="K136" s="35"/>
       <c r="L136" s="3"/>
@@ -21756,7 +21763,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="91"/>
+      <c r="I137" s="92"/>
       <c r="J137" s="3"/>
       <c r="K137" s="35"/>
       <c r="L137" s="3"/>
@@ -21771,7 +21778,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="91"/>
+      <c r="I138" s="92"/>
       <c r="J138" s="3"/>
       <c r="K138" s="35"/>
       <c r="L138" s="3"/>
@@ -21786,7 +21793,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="91"/>
+      <c r="I139" s="92"/>
       <c r="J139" s="3"/>
       <c r="K139" s="35"/>
       <c r="L139" s="3"/>
@@ -21801,7 +21808,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="91"/>
+      <c r="I140" s="92"/>
       <c r="J140" s="3"/>
       <c r="K140" s="35"/>
       <c r="L140" s="3"/>
@@ -21816,7 +21823,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="91"/>
+      <c r="I141" s="92"/>
       <c r="J141" s="3"/>
       <c r="K141" s="35"/>
       <c r="L141" s="3"/>
@@ -21831,7 +21838,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="91"/>
+      <c r="I142" s="92"/>
       <c r="J142" s="3"/>
       <c r="K142" s="35"/>
       <c r="L142" s="3"/>
@@ -21846,7 +21853,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="91"/>
+      <c r="I143" s="92"/>
       <c r="J143" s="3"/>
       <c r="K143" s="35"/>
       <c r="L143" s="3"/>
@@ -21861,7 +21868,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="91"/>
+      <c r="I144" s="92"/>
       <c r="J144" s="3"/>
       <c r="K144" s="35"/>
       <c r="L144" s="3"/>
@@ -21876,7 +21883,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="91"/>
+      <c r="I145" s="92"/>
       <c r="J145" s="3"/>
       <c r="K145" s="35"/>
       <c r="L145" s="3"/>
@@ -21891,7 +21898,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="91"/>
+      <c r="I146" s="92"/>
       <c r="J146" s="3"/>
       <c r="K146" s="35"/>
       <c r="L146" s="3"/>
@@ -21906,7 +21913,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="91"/>
+      <c r="I147" s="92"/>
       <c r="J147" s="3"/>
       <c r="K147" s="35"/>
       <c r="L147" s="3"/>
@@ -21921,7 +21928,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="91"/>
+      <c r="I148" s="92"/>
       <c r="J148" s="3"/>
       <c r="K148" s="35"/>
       <c r="L148" s="3"/>
@@ -21936,7 +21943,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="91"/>
+      <c r="I149" s="92"/>
       <c r="J149" s="3"/>
       <c r="K149" s="35"/>
       <c r="L149" s="3"/>
@@ -21951,7 +21958,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="91"/>
+      <c r="I150" s="92"/>
       <c r="J150" s="3"/>
       <c r="K150" s="35"/>
       <c r="L150" s="3"/>
@@ -21966,7 +21973,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="91"/>
+      <c r="I151" s="92"/>
       <c r="J151" s="3"/>
       <c r="K151" s="35"/>
       <c r="L151" s="3"/>
@@ -21981,7 +21988,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="91"/>
+      <c r="I152" s="92"/>
       <c r="J152" s="3"/>
       <c r="K152" s="35"/>
       <c r="L152" s="3"/>
@@ -21996,7 +22003,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="91"/>
+      <c r="I153" s="92"/>
       <c r="J153" s="3"/>
       <c r="K153" s="35"/>
       <c r="L153" s="3"/>
@@ -22011,7 +22018,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="91"/>
+      <c r="I154" s="92"/>
       <c r="J154" s="3"/>
       <c r="K154" s="35"/>
       <c r="L154" s="3"/>
@@ -22026,7 +22033,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="91"/>
+      <c r="I155" s="92"/>
       <c r="J155" s="3"/>
       <c r="K155" s="35"/>
       <c r="L155" s="3"/>
@@ -22041,7 +22048,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="91"/>
+      <c r="I156" s="92"/>
       <c r="J156" s="3"/>
       <c r="K156" s="35"/>
       <c r="L156" s="3"/>
@@ -22056,7 +22063,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="91"/>
+      <c r="I157" s="92"/>
       <c r="J157" s="3"/>
       <c r="K157" s="35"/>
       <c r="L157" s="3"/>
@@ -22071,7 +22078,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="91"/>
+      <c r="I158" s="92"/>
       <c r="J158" s="3"/>
       <c r="K158" s="35"/>
       <c r="L158" s="3"/>
@@ -22086,7 +22093,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="91"/>
+      <c r="I159" s="92"/>
       <c r="J159" s="3"/>
       <c r="K159" s="35"/>
       <c r="L159" s="3"/>
@@ -22101,7 +22108,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="91"/>
+      <c r="I160" s="92"/>
       <c r="J160" s="3"/>
       <c r="K160" s="35"/>
       <c r="L160" s="3"/>
@@ -22116,7 +22123,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="91"/>
+      <c r="I161" s="92"/>
       <c r="J161" s="3"/>
       <c r="K161" s="35"/>
       <c r="L161" s="3"/>
@@ -22131,7 +22138,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="91"/>
+      <c r="I162" s="92"/>
       <c r="J162" s="3"/>
       <c r="K162" s="35"/>
       <c r="L162" s="3"/>
@@ -22146,7 +22153,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="91"/>
+      <c r="I163" s="92"/>
       <c r="J163" s="3"/>
       <c r="K163" s="35"/>
       <c r="L163" s="3"/>
@@ -22161,7 +22168,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="91"/>
+      <c r="I164" s="92"/>
       <c r="J164" s="3"/>
       <c r="K164" s="35"/>
       <c r="L164" s="3"/>
@@ -22176,7 +22183,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="91"/>
+      <c r="I165" s="92"/>
       <c r="J165" s="3"/>
       <c r="K165" s="35"/>
       <c r="L165" s="3"/>
@@ -22191,7 +22198,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="91"/>
+      <c r="I166" s="92"/>
       <c r="J166" s="3"/>
       <c r="K166" s="35"/>
       <c r="L166" s="3"/>
@@ -22206,7 +22213,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="91"/>
+      <c r="I167" s="92"/>
       <c r="J167" s="3"/>
       <c r="K167" s="35"/>
       <c r="L167" s="3"/>
@@ -22221,7 +22228,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="91"/>
+      <c r="I168" s="92"/>
       <c r="J168" s="3"/>
       <c r="K168" s="35"/>
       <c r="L168" s="3"/>
@@ -22236,7 +22243,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="91"/>
+      <c r="I169" s="92"/>
       <c r="J169" s="3"/>
       <c r="K169" s="35"/>
       <c r="L169" s="3"/>
@@ -22251,7 +22258,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="91"/>
+      <c r="I170" s="92"/>
       <c r="J170" s="3"/>
       <c r="K170" s="35"/>
       <c r="L170" s="3"/>
@@ -22266,7 +22273,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
-      <c r="I171" s="91"/>
+      <c r="I171" s="92"/>
       <c r="J171" s="3"/>
       <c r="K171" s="35"/>
       <c r="L171" s="3"/>
@@ -22281,7 +22288,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="91"/>
+      <c r="I172" s="92"/>
       <c r="J172" s="3"/>
       <c r="K172" s="35"/>
       <c r="L172" s="3"/>
@@ -22296,7 +22303,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="91"/>
+      <c r="I173" s="92"/>
       <c r="J173" s="3"/>
       <c r="K173" s="35"/>
       <c r="L173" s="3"/>
@@ -22311,7 +22318,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="91"/>
+      <c r="I174" s="92"/>
       <c r="J174" s="3"/>
       <c r="K174" s="35"/>
       <c r="L174" s="3"/>
@@ -22326,7 +22333,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="91"/>
+      <c r="I175" s="92"/>
       <c r="J175" s="3"/>
       <c r="K175" s="35"/>
       <c r="L175" s="3"/>
@@ -22341,7 +22348,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="91"/>
+      <c r="I176" s="92"/>
       <c r="J176" s="3"/>
       <c r="K176" s="35"/>
       <c r="L176" s="3"/>
@@ -22356,7 +22363,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="91"/>
+      <c r="I177" s="92"/>
       <c r="J177" s="3"/>
       <c r="K177" s="35"/>
       <c r="L177" s="3"/>
@@ -22371,7 +22378,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="91"/>
+      <c r="I178" s="92"/>
       <c r="J178" s="3"/>
       <c r="K178" s="35"/>
       <c r="L178" s="3"/>
@@ -22386,7 +22393,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="91"/>
+      <c r="I179" s="92"/>
       <c r="J179" s="3"/>
       <c r="K179" s="35"/>
       <c r="L179" s="3"/>
@@ -22401,7 +22408,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="91"/>
+      <c r="I180" s="92"/>
       <c r="J180" s="3"/>
       <c r="K180" s="35"/>
       <c r="L180" s="3"/>
@@ -22416,7 +22423,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="91"/>
+      <c r="I181" s="92"/>
       <c r="J181" s="3"/>
       <c r="K181" s="35"/>
       <c r="L181" s="3"/>
@@ -22431,7 +22438,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="91"/>
+      <c r="I182" s="92"/>
       <c r="J182" s="3"/>
       <c r="K182" s="35"/>
       <c r="L182" s="3"/>
@@ -22446,7 +22453,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
-      <c r="I183" s="91"/>
+      <c r="I183" s="92"/>
       <c r="J183" s="3"/>
       <c r="K183" s="35"/>
       <c r="L183" s="3"/>
@@ -22461,7 +22468,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="91"/>
+      <c r="I184" s="92"/>
       <c r="J184" s="3"/>
       <c r="K184" s="35"/>
       <c r="L184" s="3"/>
@@ -22476,7 +22483,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="91"/>
+      <c r="I185" s="92"/>
       <c r="J185" s="3"/>
       <c r="K185" s="35"/>
       <c r="L185" s="3"/>
@@ -22491,7 +22498,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="91"/>
+      <c r="I186" s="92"/>
       <c r="J186" s="3"/>
       <c r="K186" s="35"/>
       <c r="L186" s="3"/>
@@ -22506,7 +22513,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="91"/>
+      <c r="I187" s="92"/>
       <c r="J187" s="3"/>
       <c r="K187" s="35"/>
       <c r="L187" s="3"/>
@@ -22521,7 +22528,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="91"/>
+      <c r="I188" s="92"/>
       <c r="J188" s="3"/>
       <c r="K188" s="35"/>
       <c r="L188" s="3"/>
@@ -22536,7 +22543,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="91"/>
+      <c r="I189" s="92"/>
       <c r="J189" s="3"/>
       <c r="K189" s="35"/>
       <c r="L189" s="3"/>
@@ -22551,7 +22558,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="91"/>
+      <c r="I190" s="92"/>
       <c r="J190" s="3"/>
       <c r="K190" s="35"/>
       <c r="L190" s="3"/>
@@ -22566,7 +22573,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
-      <c r="I191" s="91"/>
+      <c r="I191" s="92"/>
       <c r="J191" s="3"/>
       <c r="K191" s="35"/>
       <c r="L191" s="3"/>
@@ -22581,7 +22588,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="91"/>
+      <c r="I192" s="92"/>
       <c r="J192" s="3"/>
       <c r="K192" s="35"/>
       <c r="L192" s="3"/>
@@ -22596,7 +22603,7 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="91"/>
+      <c r="I193" s="92"/>
       <c r="J193" s="3"/>
       <c r="K193" s="35"/>
       <c r="L193" s="3"/>
@@ -22611,7 +22618,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="91"/>
+      <c r="I194" s="92"/>
       <c r="J194" s="3"/>
       <c r="K194" s="35"/>
       <c r="L194" s="3"/>
@@ -22626,7 +22633,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="91"/>
+      <c r="I195" s="92"/>
       <c r="J195" s="3"/>
       <c r="K195" s="35"/>
       <c r="L195" s="3"/>
@@ -22641,7 +22648,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="91"/>
+      <c r="I196" s="92"/>
       <c r="J196" s="3"/>
       <c r="K196" s="35"/>
       <c r="L196" s="3"/>
@@ -22656,7 +22663,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="91"/>
+      <c r="I197" s="92"/>
       <c r="J197" s="3"/>
       <c r="K197" s="35"/>
       <c r="L197" s="3"/>
@@ -22671,7 +22678,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="91"/>
+      <c r="I198" s="92"/>
       <c r="J198" s="3"/>
       <c r="K198" s="35"/>
       <c r="L198" s="3"/>
@@ -22686,7 +22693,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="91"/>
+      <c r="I199" s="92"/>
       <c r="J199" s="3"/>
       <c r="K199" s="35"/>
       <c r="L199" s="3"/>
@@ -22701,7 +22708,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="91"/>
+      <c r="I200" s="92"/>
       <c r="J200" s="3"/>
       <c r="K200" s="35"/>
       <c r="L200" s="3"/>
@@ -22716,7 +22723,7 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
-      <c r="I201" s="91"/>
+      <c r="I201" s="92"/>
       <c r="J201" s="3"/>
       <c r="K201" s="35"/>
       <c r="L201" s="3"/>
@@ -22731,7 +22738,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="91"/>
+      <c r="I202" s="92"/>
       <c r="J202" s="3"/>
       <c r="K202" s="35"/>
       <c r="L202" s="3"/>
@@ -22746,7 +22753,7 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
-      <c r="I203" s="91"/>
+      <c r="I203" s="92"/>
       <c r="J203" s="3"/>
       <c r="K203" s="35"/>
       <c r="L203" s="3"/>
@@ -22761,7 +22768,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="91"/>
+      <c r="I204" s="92"/>
       <c r="J204" s="3"/>
       <c r="K204" s="35"/>
       <c r="L204" s="3"/>
@@ -22776,7 +22783,7 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
-      <c r="I205" s="91"/>
+      <c r="I205" s="92"/>
       <c r="J205" s="3"/>
       <c r="K205" s="35"/>
       <c r="L205" s="3"/>
@@ -22791,7 +22798,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="91"/>
+      <c r="I206" s="92"/>
       <c r="J206" s="3"/>
       <c r="K206" s="35"/>
       <c r="L206" s="3"/>
@@ -22806,7 +22813,7 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="91"/>
+      <c r="I207" s="92"/>
       <c r="J207" s="3"/>
       <c r="K207" s="35"/>
       <c r="L207" s="3"/>
@@ -22821,7 +22828,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="91"/>
+      <c r="I208" s="92"/>
       <c r="J208" s="3"/>
       <c r="K208" s="35"/>
       <c r="L208" s="3"/>
@@ -22836,7 +22843,7 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
-      <c r="I209" s="91"/>
+      <c r="I209" s="92"/>
       <c r="J209" s="3"/>
       <c r="K209" s="35"/>
       <c r="L209" s="3"/>
@@ -22851,7 +22858,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
-      <c r="I210" s="91"/>
+      <c r="I210" s="92"/>
       <c r="J210" s="3"/>
       <c r="K210" s="35"/>
       <c r="L210" s="3"/>
@@ -22866,7 +22873,7 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
-      <c r="I211" s="91"/>
+      <c r="I211" s="92"/>
       <c r="J211" s="3"/>
       <c r="K211" s="35"/>
       <c r="L211" s="3"/>
@@ -22881,7 +22888,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="91"/>
+      <c r="I212" s="92"/>
       <c r="J212" s="3"/>
       <c r="K212" s="35"/>
       <c r="L212" s="3"/>
@@ -22896,7 +22903,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="91"/>
+      <c r="I213" s="92"/>
       <c r="J213" s="3"/>
       <c r="K213" s="35"/>
       <c r="L213" s="3"/>
@@ -22911,7 +22918,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="91"/>
+      <c r="I214" s="92"/>
       <c r="J214" s="3"/>
       <c r="K214" s="35"/>
       <c r="L214" s="3"/>
@@ -22926,7 +22933,7 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="91"/>
+      <c r="I215" s="92"/>
       <c r="J215" s="3"/>
       <c r="K215" s="35"/>
       <c r="L215" s="3"/>
@@ -22941,7 +22948,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
-      <c r="I216" s="91"/>
+      <c r="I216" s="92"/>
       <c r="J216" s="3"/>
       <c r="K216" s="35"/>
       <c r="L216" s="3"/>
@@ -22956,7 +22963,7 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
-      <c r="I217" s="91"/>
+      <c r="I217" s="92"/>
       <c r="J217" s="3"/>
       <c r="K217" s="35"/>
       <c r="L217" s="3"/>
@@ -22971,7 +22978,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
-      <c r="I218" s="91"/>
+      <c r="I218" s="92"/>
       <c r="J218" s="3"/>
       <c r="K218" s="35"/>
       <c r="L218" s="3"/>
@@ -22986,7 +22993,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
-      <c r="I219" s="91"/>
+      <c r="I219" s="92"/>
       <c r="J219" s="3"/>
       <c r="K219" s="35"/>
       <c r="L219" s="3"/>
@@ -23001,7 +23008,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
-      <c r="I220" s="91"/>
+      <c r="I220" s="92"/>
       <c r="J220" s="3"/>
       <c r="K220" s="35"/>
       <c r="L220" s="3"/>
@@ -23016,7 +23023,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
-      <c r="I221" s="91"/>
+      <c r="I221" s="92"/>
       <c r="J221" s="3"/>
       <c r="K221" s="35"/>
       <c r="L221" s="3"/>
@@ -23031,7 +23038,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
-      <c r="I222" s="91"/>
+      <c r="I222" s="92"/>
       <c r="J222" s="3"/>
       <c r="K222" s="35"/>
       <c r="L222" s="3"/>
@@ -23046,7 +23053,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
-      <c r="I223" s="91"/>
+      <c r="I223" s="92"/>
       <c r="J223" s="3"/>
       <c r="K223" s="35"/>
       <c r="L223" s="3"/>
@@ -23061,7 +23068,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
-      <c r="I224" s="91"/>
+      <c r="I224" s="92"/>
       <c r="J224" s="3"/>
       <c r="K224" s="35"/>
       <c r="L224" s="3"/>
@@ -23076,7 +23083,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
-      <c r="I225" s="91"/>
+      <c r="I225" s="92"/>
       <c r="J225" s="3"/>
       <c r="K225" s="35"/>
       <c r="L225" s="3"/>
@@ -23091,7 +23098,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="91"/>
+      <c r="I226" s="92"/>
       <c r="J226" s="3"/>
       <c r="K226" s="35"/>
       <c r="L226" s="3"/>
@@ -23106,7 +23113,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
-      <c r="I227" s="91"/>
+      <c r="I227" s="92"/>
       <c r="J227" s="3"/>
       <c r="K227" s="35"/>
       <c r="L227" s="3"/>
@@ -23121,7 +23128,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
-      <c r="I228" s="91"/>
+      <c r="I228" s="92"/>
       <c r="J228" s="3"/>
       <c r="K228" s="35"/>
       <c r="L228" s="3"/>
@@ -23136,7 +23143,7 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
-      <c r="I229" s="91"/>
+      <c r="I229" s="92"/>
       <c r="J229" s="3"/>
       <c r="K229" s="35"/>
       <c r="L229" s="3"/>
@@ -23151,7 +23158,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
-      <c r="I230" s="91"/>
+      <c r="I230" s="92"/>
       <c r="J230" s="3"/>
       <c r="K230" s="35"/>
       <c r="L230" s="3"/>
@@ -23166,7 +23173,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
-      <c r="I231" s="91"/>
+      <c r="I231" s="92"/>
       <c r="J231" s="3"/>
       <c r="K231" s="35"/>
       <c r="L231" s="3"/>
@@ -23181,7 +23188,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
-      <c r="I232" s="91"/>
+      <c r="I232" s="92"/>
       <c r="J232" s="3"/>
       <c r="K232" s="35"/>
       <c r="L232" s="3"/>
@@ -23196,7 +23203,7 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
-      <c r="I233" s="91"/>
+      <c r="I233" s="92"/>
       <c r="J233" s="3"/>
       <c r="K233" s="35"/>
       <c r="L233" s="3"/>
@@ -23211,7 +23218,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
-      <c r="I234" s="91"/>
+      <c r="I234" s="92"/>
       <c r="J234" s="3"/>
       <c r="K234" s="35"/>
       <c r="L234" s="3"/>
@@ -23226,7 +23233,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
-      <c r="I235" s="91"/>
+      <c r="I235" s="92"/>
       <c r="J235" s="3"/>
       <c r="K235" s="35"/>
       <c r="L235" s="3"/>
@@ -23241,7 +23248,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="91"/>
+      <c r="I236" s="92"/>
       <c r="J236" s="3"/>
       <c r="K236" s="35"/>
       <c r="L236" s="3"/>
@@ -23256,7 +23263,7 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
-      <c r="I237" s="91"/>
+      <c r="I237" s="92"/>
       <c r="J237" s="3"/>
       <c r="K237" s="35"/>
       <c r="L237" s="3"/>
@@ -23271,7 +23278,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
-      <c r="I238" s="91"/>
+      <c r="I238" s="92"/>
       <c r="J238" s="3"/>
       <c r="K238" s="35"/>
       <c r="L238" s="3"/>
@@ -23286,7 +23293,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
-      <c r="I239" s="91"/>
+      <c r="I239" s="92"/>
       <c r="J239" s="3"/>
       <c r="K239" s="35"/>
       <c r="L239" s="3"/>
@@ -23301,7 +23308,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
-      <c r="I240" s="91"/>
+      <c r="I240" s="92"/>
       <c r="J240" s="3"/>
       <c r="K240" s="35"/>
       <c r="L240" s="3"/>
@@ -23316,7 +23323,7 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
-      <c r="I241" s="91"/>
+      <c r="I241" s="92"/>
       <c r="J241" s="3"/>
       <c r="K241" s="35"/>
       <c r="L241" s="3"/>
@@ -23331,7 +23338,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="91"/>
+      <c r="I242" s="92"/>
       <c r="J242" s="3"/>
       <c r="K242" s="35"/>
       <c r="L242" s="3"/>
@@ -23346,7 +23353,7 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
-      <c r="I243" s="91"/>
+      <c r="I243" s="92"/>
       <c r="J243" s="3"/>
       <c r="K243" s="35"/>
       <c r="L243" s="3"/>
@@ -23361,7 +23368,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
-      <c r="I244" s="91"/>
+      <c r="I244" s="92"/>
       <c r="J244" s="3"/>
       <c r="K244" s="35"/>
       <c r="L244" s="3"/>
@@ -23376,7 +23383,7 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
-      <c r="I245" s="91"/>
+      <c r="I245" s="92"/>
       <c r="J245" s="3"/>
       <c r="K245" s="35"/>
       <c r="L245" s="3"/>
@@ -23391,7 +23398,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
-      <c r="I246" s="91"/>
+      <c r="I246" s="92"/>
       <c r="J246" s="3"/>
       <c r="K246" s="35"/>
       <c r="L246" s="3"/>
@@ -23406,7 +23413,7 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
-      <c r="I247" s="91"/>
+      <c r="I247" s="92"/>
       <c r="J247" s="3"/>
       <c r="K247" s="35"/>
       <c r="L247" s="3"/>
@@ -23421,7 +23428,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
-      <c r="I248" s="91"/>
+      <c r="I248" s="92"/>
       <c r="J248" s="3"/>
       <c r="K248" s="35"/>
       <c r="L248" s="3"/>
@@ -23436,7 +23443,7 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
-      <c r="I249" s="91"/>
+      <c r="I249" s="92"/>
       <c r="J249" s="3"/>
       <c r="K249" s="35"/>
       <c r="L249" s="3"/>
@@ -23451,7 +23458,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
-      <c r="I250" s="91"/>
+      <c r="I250" s="92"/>
       <c r="J250" s="3"/>
       <c r="K250" s="35"/>
       <c r="L250" s="3"/>
@@ -23466,7 +23473,7 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
-      <c r="I251" s="91"/>
+      <c r="I251" s="92"/>
       <c r="J251" s="3"/>
       <c r="K251" s="35"/>
       <c r="L251" s="3"/>
@@ -23481,7 +23488,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="91"/>
+      <c r="I252" s="92"/>
       <c r="J252" s="3"/>
       <c r="K252" s="35"/>
       <c r="L252" s="3"/>
@@ -23496,7 +23503,7 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
-      <c r="I253" s="91"/>
+      <c r="I253" s="92"/>
       <c r="J253" s="3"/>
       <c r="K253" s="35"/>
       <c r="L253" s="3"/>
@@ -23511,7 +23518,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
-      <c r="I254" s="91"/>
+      <c r="I254" s="92"/>
       <c r="J254" s="3"/>
       <c r="K254" s="35"/>
       <c r="L254" s="3"/>
@@ -23526,7 +23533,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
-      <c r="I255" s="91"/>
+      <c r="I255" s="92"/>
       <c r="J255" s="3"/>
       <c r="K255" s="35"/>
       <c r="L255" s="3"/>
@@ -23541,7 +23548,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
-      <c r="I256" s="91"/>
+      <c r="I256" s="92"/>
       <c r="J256" s="3"/>
       <c r="K256" s="35"/>
       <c r="L256" s="3"/>
@@ -23556,7 +23563,7 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
-      <c r="I257" s="91"/>
+      <c r="I257" s="92"/>
       <c r="J257" s="3"/>
       <c r="K257" s="35"/>
       <c r="L257" s="3"/>
@@ -23571,7 +23578,7 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
-      <c r="I258" s="91"/>
+      <c r="I258" s="92"/>
       <c r="J258" s="3"/>
       <c r="K258" s="35"/>
       <c r="L258" s="3"/>
@@ -23586,7 +23593,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
-      <c r="I259" s="91"/>
+      <c r="I259" s="92"/>
       <c r="J259" s="3"/>
       <c r="K259" s="35"/>
       <c r="L259" s="3"/>
@@ -23601,7 +23608,7 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
-      <c r="I260" s="91"/>
+      <c r="I260" s="92"/>
       <c r="J260" s="3"/>
       <c r="K260" s="35"/>
       <c r="L260" s="3"/>
@@ -23616,7 +23623,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
-      <c r="I261" s="91"/>
+      <c r="I261" s="92"/>
       <c r="J261" s="3"/>
       <c r="K261" s="35"/>
       <c r="L261" s="3"/>
@@ -23631,7 +23638,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
-      <c r="I262" s="91"/>
+      <c r="I262" s="92"/>
       <c r="J262" s="3"/>
       <c r="K262" s="35"/>
       <c r="L262" s="3"/>
@@ -23646,7 +23653,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
-      <c r="I263" s="91"/>
+      <c r="I263" s="92"/>
       <c r="J263" s="3"/>
       <c r="K263" s="35"/>
       <c r="L263" s="3"/>
@@ -23661,7 +23668,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
-      <c r="I264" s="91"/>
+      <c r="I264" s="92"/>
       <c r="J264" s="3"/>
       <c r="K264" s="35"/>
       <c r="L264" s="3"/>
@@ -23676,7 +23683,7 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
-      <c r="I265" s="91"/>
+      <c r="I265" s="92"/>
       <c r="J265" s="3"/>
       <c r="K265" s="35"/>
       <c r="L265" s="3"/>
@@ -23691,7 +23698,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
-      <c r="I266" s="91"/>
+      <c r="I266" s="92"/>
       <c r="J266" s="3"/>
       <c r="K266" s="35"/>
       <c r="L266" s="3"/>
@@ -23706,7 +23713,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
-      <c r="I267" s="91"/>
+      <c r="I267" s="92"/>
       <c r="J267" s="3"/>
       <c r="K267" s="35"/>
       <c r="L267" s="3"/>
@@ -23721,7 +23728,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
-      <c r="I268" s="91"/>
+      <c r="I268" s="92"/>
       <c r="J268" s="3"/>
       <c r="K268" s="35"/>
       <c r="L268" s="3"/>
@@ -23736,7 +23743,7 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
-      <c r="I269" s="91"/>
+      <c r="I269" s="92"/>
       <c r="J269" s="3"/>
       <c r="K269" s="35"/>
       <c r="L269" s="3"/>
@@ -23751,7 +23758,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
-      <c r="I270" s="91"/>
+      <c r="I270" s="92"/>
       <c r="J270" s="3"/>
       <c r="K270" s="35"/>
       <c r="L270" s="3"/>
@@ -23766,7 +23773,7 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
-      <c r="I271" s="91"/>
+      <c r="I271" s="92"/>
       <c r="J271" s="3"/>
       <c r="K271" s="35"/>
       <c r="L271" s="3"/>
@@ -23781,7 +23788,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
-      <c r="I272" s="91"/>
+      <c r="I272" s="92"/>
       <c r="J272" s="3"/>
       <c r="K272" s="35"/>
       <c r="L272" s="3"/>
@@ -23796,7 +23803,7 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
-      <c r="I273" s="91"/>
+      <c r="I273" s="92"/>
       <c r="J273" s="3"/>
       <c r="K273" s="35"/>
       <c r="L273" s="3"/>
@@ -23811,7 +23818,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
-      <c r="I274" s="91"/>
+      <c r="I274" s="92"/>
       <c r="J274" s="3"/>
       <c r="K274" s="35"/>
       <c r="L274" s="3"/>
@@ -23826,7 +23833,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
-      <c r="I275" s="91"/>
+      <c r="I275" s="92"/>
       <c r="J275" s="3"/>
       <c r="K275" s="35"/>
       <c r="L275" s="3"/>
@@ -23841,7 +23848,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-      <c r="I276" s="91"/>
+      <c r="I276" s="92"/>
       <c r="J276" s="3"/>
       <c r="K276" s="35"/>
       <c r="L276" s="3"/>
@@ -23856,7 +23863,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
-      <c r="I277" s="91"/>
+      <c r="I277" s="92"/>
       <c r="J277" s="3"/>
       <c r="K277" s="35"/>
       <c r="L277" s="3"/>
@@ -23871,7 +23878,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
-      <c r="I278" s="91"/>
+      <c r="I278" s="92"/>
       <c r="J278" s="3"/>
       <c r="K278" s="35"/>
       <c r="L278" s="3"/>
@@ -23886,7 +23893,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
-      <c r="I279" s="91"/>
+      <c r="I279" s="92"/>
       <c r="J279" s="3"/>
       <c r="K279" s="35"/>
       <c r="L279" s="3"/>
@@ -23901,7 +23908,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
-      <c r="I280" s="91"/>
+      <c r="I280" s="92"/>
       <c r="J280" s="3"/>
       <c r="K280" s="35"/>
       <c r="L280" s="3"/>
@@ -23916,7 +23923,7 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
-      <c r="I281" s="91"/>
+      <c r="I281" s="92"/>
       <c r="J281" s="3"/>
       <c r="K281" s="35"/>
       <c r="L281" s="3"/>
@@ -23931,7 +23938,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
-      <c r="I282" s="91"/>
+      <c r="I282" s="92"/>
       <c r="J282" s="3"/>
       <c r="K282" s="35"/>
       <c r="L282" s="3"/>
@@ -23946,7 +23953,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
-      <c r="I283" s="91"/>
+      <c r="I283" s="92"/>
       <c r="J283" s="3"/>
       <c r="K283" s="35"/>
       <c r="L283" s="3"/>
@@ -23961,7 +23968,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
-      <c r="I284" s="91"/>
+      <c r="I284" s="92"/>
       <c r="J284" s="3"/>
       <c r="K284" s="35"/>
       <c r="L284" s="3"/>
@@ -23976,7 +23983,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
-      <c r="I285" s="91"/>
+      <c r="I285" s="92"/>
       <c r="J285" s="3"/>
       <c r="K285" s="35"/>
       <c r="L285" s="3"/>
@@ -23991,7 +23998,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
-      <c r="I286" s="91"/>
+      <c r="I286" s="92"/>
       <c r="J286" s="3"/>
       <c r="K286" s="35"/>
       <c r="L286" s="3"/>
@@ -24006,7 +24013,7 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
-      <c r="I287" s="91"/>
+      <c r="I287" s="92"/>
       <c r="J287" s="3"/>
       <c r="K287" s="35"/>
       <c r="L287" s="3"/>
@@ -24021,7 +24028,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
-      <c r="I288" s="91"/>
+      <c r="I288" s="92"/>
       <c r="J288" s="3"/>
       <c r="K288" s="35"/>
       <c r="L288" s="3"/>
@@ -24036,7 +24043,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
-      <c r="I289" s="91"/>
+      <c r="I289" s="92"/>
       <c r="J289" s="3"/>
       <c r="K289" s="35"/>
       <c r="L289" s="3"/>
@@ -24051,7 +24058,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
-      <c r="I290" s="91"/>
+      <c r="I290" s="92"/>
       <c r="J290" s="3"/>
       <c r="K290" s="35"/>
       <c r="L290" s="3"/>
@@ -24066,7 +24073,7 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
-      <c r="I291" s="91"/>
+      <c r="I291" s="92"/>
       <c r="J291" s="3"/>
       <c r="K291" s="35"/>
       <c r="L291" s="3"/>
@@ -24081,7 +24088,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
-      <c r="I292" s="91"/>
+      <c r="I292" s="92"/>
       <c r="J292" s="3"/>
       <c r="K292" s="35"/>
       <c r="L292" s="3"/>
@@ -24096,7 +24103,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
-      <c r="I293" s="91"/>
+      <c r="I293" s="92"/>
       <c r="J293" s="3"/>
       <c r="K293" s="35"/>
       <c r="L293" s="3"/>
@@ -24111,7 +24118,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
-      <c r="I294" s="91"/>
+      <c r="I294" s="92"/>
       <c r="J294" s="3"/>
       <c r="K294" s="35"/>
       <c r="L294" s="3"/>
@@ -24126,7 +24133,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
-      <c r="I295" s="91"/>
+      <c r="I295" s="92"/>
       <c r="J295" s="3"/>
       <c r="K295" s="35"/>
       <c r="L295" s="3"/>
@@ -24141,7 +24148,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
-      <c r="I296" s="91"/>
+      <c r="I296" s="92"/>
       <c r="J296" s="3"/>
       <c r="K296" s="35"/>
       <c r="L296" s="3"/>
@@ -24156,7 +24163,7 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
-      <c r="I297" s="91"/>
+      <c r="I297" s="92"/>
       <c r="J297" s="3"/>
       <c r="K297" s="35"/>
       <c r="L297" s="3"/>
@@ -24171,7 +24178,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
-      <c r="I298" s="91"/>
+      <c r="I298" s="92"/>
       <c r="J298" s="3"/>
       <c r="K298" s="35"/>
       <c r="L298" s="3"/>
@@ -24186,7 +24193,7 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
-      <c r="I299" s="91"/>
+      <c r="I299" s="92"/>
       <c r="J299" s="3"/>
       <c r="K299" s="35"/>
       <c r="L299" s="3"/>
@@ -24201,7 +24208,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
-      <c r="I300" s="91"/>
+      <c r="I300" s="92"/>
       <c r="J300" s="3"/>
       <c r="K300" s="35"/>
       <c r="L300" s="3"/>
@@ -24216,7 +24223,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
-      <c r="I301" s="91"/>
+      <c r="I301" s="92"/>
       <c r="J301" s="3"/>
       <c r="K301" s="35"/>
       <c r="L301" s="3"/>
@@ -24231,7 +24238,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
-      <c r="I302" s="91"/>
+      <c r="I302" s="92"/>
       <c r="J302" s="3"/>
       <c r="K302" s="35"/>
       <c r="L302" s="3"/>
@@ -24246,7 +24253,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
-      <c r="I303" s="91"/>
+      <c r="I303" s="92"/>
       <c r="J303" s="3"/>
       <c r="K303" s="35"/>
       <c r="L303" s="3"/>
@@ -24261,7 +24268,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
-      <c r="I304" s="91"/>
+      <c r="I304" s="92"/>
       <c r="J304" s="3"/>
       <c r="K304" s="35"/>
       <c r="L304" s="3"/>
@@ -24276,7 +24283,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
-      <c r="I305" s="91"/>
+      <c r="I305" s="92"/>
       <c r="J305" s="3"/>
       <c r="K305" s="35"/>
       <c r="L305" s="3"/>
@@ -24291,7 +24298,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
-      <c r="I306" s="91"/>
+      <c r="I306" s="92"/>
       <c r="J306" s="3"/>
       <c r="K306" s="35"/>
       <c r="L306" s="3"/>
@@ -24306,7 +24313,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
-      <c r="I307" s="91"/>
+      <c r="I307" s="92"/>
       <c r="J307" s="3"/>
       <c r="K307" s="35"/>
       <c r="L307" s="3"/>
@@ -24321,7 +24328,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
-      <c r="I308" s="91"/>
+      <c r="I308" s="92"/>
       <c r="J308" s="3"/>
       <c r="K308" s="35"/>
       <c r="L308" s="3"/>
@@ -24336,7 +24343,7 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
-      <c r="I309" s="91"/>
+      <c r="I309" s="92"/>
       <c r="J309" s="3"/>
       <c r="K309" s="35"/>
       <c r="L309" s="3"/>
@@ -24351,7 +24358,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
-      <c r="I310" s="91"/>
+      <c r="I310" s="92"/>
       <c r="J310" s="3"/>
       <c r="K310" s="35"/>
       <c r="L310" s="3"/>
@@ -24366,7 +24373,7 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
-      <c r="I311" s="91"/>
+      <c r="I311" s="92"/>
       <c r="J311" s="3"/>
       <c r="K311" s="35"/>
       <c r="L311" s="3"/>
@@ -24381,7 +24388,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
-      <c r="I312" s="91"/>
+      <c r="I312" s="92"/>
       <c r="J312" s="3"/>
       <c r="K312" s="35"/>
       <c r="L312" s="3"/>
@@ -24396,7 +24403,7 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
-      <c r="I313" s="91"/>
+      <c r="I313" s="92"/>
       <c r="J313" s="3"/>
       <c r="K313" s="35"/>
       <c r="L313" s="3"/>
@@ -24411,7 +24418,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
-      <c r="I314" s="91"/>
+      <c r="I314" s="92"/>
       <c r="J314" s="3"/>
       <c r="K314" s="35"/>
       <c r="L314" s="3"/>
@@ -24426,7 +24433,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
-      <c r="I315" s="91"/>
+      <c r="I315" s="92"/>
       <c r="J315" s="3"/>
       <c r="K315" s="35"/>
       <c r="L315" s="3"/>
@@ -24441,7 +24448,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
-      <c r="I316" s="91"/>
+      <c r="I316" s="92"/>
       <c r="J316" s="3"/>
       <c r="K316" s="35"/>
       <c r="L316" s="3"/>
@@ -24456,7 +24463,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
-      <c r="I317" s="91"/>
+      <c r="I317" s="92"/>
       <c r="J317" s="3"/>
       <c r="K317" s="35"/>
       <c r="L317" s="3"/>
@@ -24471,7 +24478,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
-      <c r="I318" s="91"/>
+      <c r="I318" s="92"/>
       <c r="J318" s="3"/>
       <c r="K318" s="35"/>
       <c r="L318" s="3"/>
@@ -24486,7 +24493,7 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
-      <c r="I319" s="91"/>
+      <c r="I319" s="92"/>
       <c r="J319" s="3"/>
       <c r="K319" s="35"/>
       <c r="L319" s="3"/>
@@ -24501,7 +24508,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
-      <c r="I320" s="91"/>
+      <c r="I320" s="92"/>
       <c r="J320" s="3"/>
       <c r="K320" s="35"/>
       <c r="L320" s="3"/>
@@ -24516,7 +24523,7 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
-      <c r="I321" s="91"/>
+      <c r="I321" s="92"/>
       <c r="J321" s="3"/>
       <c r="K321" s="35"/>
       <c r="L321" s="3"/>
@@ -24531,7 +24538,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
-      <c r="I322" s="91"/>
+      <c r="I322" s="92"/>
       <c r="J322" s="3"/>
       <c r="K322" s="35"/>
       <c r="L322" s="3"/>
@@ -24546,7 +24553,7 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
-      <c r="I323" s="91"/>
+      <c r="I323" s="92"/>
       <c r="J323" s="3"/>
       <c r="K323" s="35"/>
       <c r="L323" s="3"/>
@@ -24561,7 +24568,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
-      <c r="I324" s="91"/>
+      <c r="I324" s="92"/>
       <c r="J324" s="3"/>
       <c r="K324" s="35"/>
       <c r="L324" s="3"/>
@@ -24576,7 +24583,7 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
-      <c r="I325" s="91"/>
+      <c r="I325" s="92"/>
       <c r="J325" s="3"/>
       <c r="K325" s="35"/>
       <c r="L325" s="3"/>
@@ -24591,7 +24598,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
-      <c r="I326" s="91"/>
+      <c r="I326" s="92"/>
       <c r="J326" s="3"/>
       <c r="K326" s="35"/>
       <c r="L326" s="3"/>
@@ -24606,7 +24613,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
-      <c r="I327" s="91"/>
+      <c r="I327" s="92"/>
       <c r="J327" s="3"/>
       <c r="K327" s="35"/>
       <c r="L327" s="3"/>
@@ -24621,7 +24628,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
-      <c r="I328" s="91"/>
+      <c r="I328" s="92"/>
       <c r="J328" s="3"/>
       <c r="K328" s="35"/>
       <c r="L328" s="3"/>
@@ -24636,7 +24643,7 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
-      <c r="I329" s="91"/>
+      <c r="I329" s="92"/>
       <c r="J329" s="3"/>
       <c r="K329" s="35"/>
       <c r="L329" s="3"/>
@@ -24651,7 +24658,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
-      <c r="I330" s="91"/>
+      <c r="I330" s="92"/>
       <c r="J330" s="3"/>
       <c r="K330" s="35"/>
       <c r="L330" s="3"/>
@@ -24666,7 +24673,7 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
-      <c r="I331" s="91"/>
+      <c r="I331" s="92"/>
       <c r="J331" s="3"/>
       <c r="K331" s="35"/>
       <c r="L331" s="3"/>
@@ -24681,7 +24688,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
-      <c r="I332" s="91"/>
+      <c r="I332" s="92"/>
       <c r="J332" s="3"/>
       <c r="K332" s="35"/>
       <c r="L332" s="3"/>
@@ -24696,7 +24703,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
-      <c r="I333" s="91"/>
+      <c r="I333" s="92"/>
       <c r="J333" s="3"/>
       <c r="K333" s="35"/>
       <c r="L333" s="3"/>
@@ -24711,7 +24718,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
-      <c r="I334" s="91"/>
+      <c r="I334" s="92"/>
       <c r="J334" s="3"/>
       <c r="K334" s="35"/>
       <c r="L334" s="3"/>
@@ -24726,7 +24733,7 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
-      <c r="I335" s="91"/>
+      <c r="I335" s="92"/>
       <c r="J335" s="3"/>
       <c r="K335" s="35"/>
       <c r="L335" s="3"/>
@@ -24741,7 +24748,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
-      <c r="I336" s="91"/>
+      <c r="I336" s="92"/>
       <c r="J336" s="3"/>
       <c r="K336" s="35"/>
       <c r="L336" s="3"/>
@@ -24756,7 +24763,7 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
-      <c r="I337" s="91"/>
+      <c r="I337" s="92"/>
       <c r="J337" s="3"/>
       <c r="K337" s="35"/>
       <c r="L337" s="3"/>
@@ -24771,7 +24778,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
-      <c r="I338" s="91"/>
+      <c r="I338" s="92"/>
       <c r="J338" s="3"/>
       <c r="K338" s="35"/>
       <c r="L338" s="3"/>
@@ -24786,7 +24793,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
-      <c r="I339" s="91"/>
+      <c r="I339" s="92"/>
       <c r="J339" s="3"/>
       <c r="K339" s="35"/>
       <c r="L339" s="3"/>
@@ -24801,7 +24808,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
-      <c r="I340" s="91"/>
+      <c r="I340" s="92"/>
       <c r="J340" s="3"/>
       <c r="K340" s="35"/>
       <c r="L340" s="3"/>
@@ -24816,7 +24823,7 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
-      <c r="I341" s="91"/>
+      <c r="I341" s="92"/>
       <c r="J341" s="3"/>
       <c r="K341" s="35"/>
       <c r="L341" s="3"/>
@@ -24831,7 +24838,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
-      <c r="I342" s="91"/>
+      <c r="I342" s="92"/>
       <c r="J342" s="3"/>
       <c r="K342" s="35"/>
       <c r="L342" s="3"/>
@@ -24846,7 +24853,7 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
-      <c r="I343" s="91"/>
+      <c r="I343" s="92"/>
       <c r="J343" s="3"/>
       <c r="K343" s="35"/>
       <c r="L343" s="3"/>
@@ -24861,7 +24868,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
-      <c r="I344" s="91"/>
+      <c r="I344" s="92"/>
       <c r="J344" s="3"/>
       <c r="K344" s="35"/>
       <c r="L344" s="3"/>
@@ -24876,7 +24883,7 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
-      <c r="I345" s="91"/>
+      <c r="I345" s="92"/>
       <c r="J345" s="3"/>
       <c r="K345" s="35"/>
       <c r="L345" s="3"/>
@@ -24891,7 +24898,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
-      <c r="I346" s="91"/>
+      <c r="I346" s="92"/>
       <c r="J346" s="3"/>
       <c r="K346" s="35"/>
       <c r="L346" s="3"/>
@@ -24906,7 +24913,7 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
-      <c r="I347" s="91"/>
+      <c r="I347" s="92"/>
       <c r="J347" s="3"/>
       <c r="K347" s="35"/>
       <c r="L347" s="3"/>
@@ -24921,7 +24928,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
-      <c r="I348" s="91"/>
+      <c r="I348" s="92"/>
       <c r="J348" s="3"/>
       <c r="K348" s="35"/>
       <c r="L348" s="3"/>
@@ -24936,7 +24943,7 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
-      <c r="I349" s="91"/>
+      <c r="I349" s="92"/>
       <c r="J349" s="3"/>
       <c r="K349" s="35"/>
       <c r="L349" s="3"/>
@@ -24951,7 +24958,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
-      <c r="I350" s="91"/>
+      <c r="I350" s="92"/>
       <c r="J350" s="3"/>
       <c r="K350" s="35"/>
       <c r="L350" s="3"/>
@@ -24966,7 +24973,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
-      <c r="I351" s="91"/>
+      <c r="I351" s="92"/>
       <c r="J351" s="3"/>
       <c r="K351" s="35"/>
       <c r="L351" s="3"/>
@@ -24981,7 +24988,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
-      <c r="I352" s="91"/>
+      <c r="I352" s="92"/>
       <c r="J352" s="3"/>
       <c r="K352" s="35"/>
       <c r="L352" s="3"/>
@@ -24996,7 +25003,7 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
-      <c r="I353" s="91"/>
+      <c r="I353" s="92"/>
       <c r="J353" s="3"/>
       <c r="K353" s="35"/>
       <c r="L353" s="3"/>
@@ -25011,7 +25018,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
-      <c r="I354" s="91"/>
+      <c r="I354" s="92"/>
       <c r="J354" s="3"/>
       <c r="K354" s="35"/>
       <c r="L354" s="3"/>
@@ -25026,7 +25033,7 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
-      <c r="I355" s="91"/>
+      <c r="I355" s="92"/>
       <c r="J355" s="3"/>
       <c r="K355" s="35"/>
       <c r="L355" s="3"/>
@@ -25041,7 +25048,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
-      <c r="I356" s="91"/>
+      <c r="I356" s="92"/>
       <c r="J356" s="3"/>
       <c r="K356" s="35"/>
       <c r="L356" s="3"/>
@@ -25056,7 +25063,7 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
-      <c r="I357" s="91"/>
+      <c r="I357" s="92"/>
       <c r="J357" s="3"/>
       <c r="K357" s="35"/>
       <c r="L357" s="3"/>
@@ -25071,7 +25078,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
-      <c r="I358" s="91"/>
+      <c r="I358" s="92"/>
       <c r="J358" s="3"/>
       <c r="K358" s="35"/>
       <c r="L358" s="3"/>
@@ -25086,7 +25093,7 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
-      <c r="I359" s="91"/>
+      <c r="I359" s="92"/>
       <c r="J359" s="3"/>
       <c r="K359" s="35"/>
       <c r="L359" s="3"/>
@@ -25101,7 +25108,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
-      <c r="I360" s="91"/>
+      <c r="I360" s="92"/>
       <c r="J360" s="3"/>
       <c r="K360" s="35"/>
       <c r="L360" s="3"/>
@@ -25116,7 +25123,7 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
-      <c r="I361" s="91"/>
+      <c r="I361" s="92"/>
       <c r="J361" s="3"/>
       <c r="K361" s="35"/>
       <c r="L361" s="3"/>
@@ -25131,7 +25138,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
-      <c r="I362" s="91"/>
+      <c r="I362" s="92"/>
       <c r="J362" s="3"/>
       <c r="K362" s="35"/>
       <c r="L362" s="3"/>
@@ -25146,7 +25153,7 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
-      <c r="I363" s="91"/>
+      <c r="I363" s="92"/>
       <c r="J363" s="3"/>
       <c r="K363" s="35"/>
       <c r="L363" s="3"/>
@@ -25161,7 +25168,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
-      <c r="I364" s="91"/>
+      <c r="I364" s="92"/>
       <c r="J364" s="3"/>
       <c r="K364" s="35"/>
       <c r="L364" s="3"/>
@@ -25176,7 +25183,7 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
-      <c r="I365" s="91"/>
+      <c r="I365" s="92"/>
       <c r="J365" s="3"/>
       <c r="K365" s="35"/>
       <c r="L365" s="3"/>
@@ -25191,7 +25198,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
-      <c r="I366" s="91"/>
+      <c r="I366" s="92"/>
       <c r="J366" s="3"/>
       <c r="K366" s="35"/>
       <c r="L366" s="3"/>
@@ -25206,7 +25213,7 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
-      <c r="I367" s="91"/>
+      <c r="I367" s="92"/>
       <c r="J367" s="3"/>
       <c r="K367" s="35"/>
       <c r="L367" s="3"/>
@@ -25221,7 +25228,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
-      <c r="I368" s="91"/>
+      <c r="I368" s="92"/>
       <c r="J368" s="3"/>
       <c r="K368" s="35"/>
       <c r="L368" s="3"/>
@@ -25236,7 +25243,7 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
-      <c r="I369" s="91"/>
+      <c r="I369" s="92"/>
       <c r="J369" s="3"/>
       <c r="K369" s="35"/>
       <c r="L369" s="3"/>
@@ -25251,7 +25258,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
-      <c r="I370" s="91"/>
+      <c r="I370" s="92"/>
       <c r="J370" s="3"/>
       <c r="K370" s="35"/>
       <c r="L370" s="3"/>
@@ -25266,7 +25273,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
-      <c r="I371" s="91"/>
+      <c r="I371" s="92"/>
       <c r="J371" s="3"/>
       <c r="K371" s="35"/>
       <c r="L371" s="3"/>
@@ -25281,7 +25288,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
-      <c r="I372" s="91"/>
+      <c r="I372" s="92"/>
       <c r="J372" s="3"/>
       <c r="K372" s="35"/>
       <c r="L372" s="3"/>
@@ -25296,7 +25303,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
-      <c r="I373" s="91"/>
+      <c r="I373" s="92"/>
       <c r="J373" s="3"/>
       <c r="K373" s="35"/>
       <c r="L373" s="3"/>
@@ -25311,7 +25318,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
-      <c r="I374" s="91"/>
+      <c r="I374" s="92"/>
       <c r="J374" s="3"/>
       <c r="K374" s="35"/>
       <c r="L374" s="3"/>
@@ -25326,7 +25333,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
-      <c r="I375" s="91"/>
+      <c r="I375" s="92"/>
       <c r="J375" s="3"/>
       <c r="K375" s="35"/>
       <c r="L375" s="3"/>
@@ -25341,7 +25348,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
-      <c r="I376" s="91"/>
+      <c r="I376" s="92"/>
       <c r="J376" s="3"/>
       <c r="K376" s="35"/>
       <c r="L376" s="3"/>
@@ -25356,7 +25363,7 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
-      <c r="I377" s="91"/>
+      <c r="I377" s="92"/>
       <c r="J377" s="3"/>
       <c r="K377" s="35"/>
       <c r="L377" s="3"/>
@@ -25371,7 +25378,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
-      <c r="I378" s="91"/>
+      <c r="I378" s="92"/>
       <c r="J378" s="3"/>
       <c r="K378" s="35"/>
       <c r="L378" s="3"/>
@@ -25386,7 +25393,7 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
-      <c r="I379" s="91"/>
+      <c r="I379" s="92"/>
       <c r="J379" s="3"/>
       <c r="K379" s="35"/>
       <c r="L379" s="3"/>
@@ -25401,7 +25408,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
-      <c r="I380" s="91"/>
+      <c r="I380" s="92"/>
       <c r="J380" s="3"/>
       <c r="K380" s="35"/>
       <c r="L380" s="3"/>
@@ -25416,7 +25423,7 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
-      <c r="I381" s="91"/>
+      <c r="I381" s="92"/>
       <c r="J381" s="3"/>
       <c r="K381" s="35"/>
       <c r="L381" s="3"/>
@@ -25431,7 +25438,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
-      <c r="I382" s="91"/>
+      <c r="I382" s="92"/>
       <c r="J382" s="3"/>
       <c r="K382" s="35"/>
       <c r="L382" s="3"/>
@@ -25446,7 +25453,7 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
-      <c r="I383" s="91"/>
+      <c r="I383" s="92"/>
       <c r="J383" s="3"/>
       <c r="K383" s="35"/>
       <c r="L383" s="3"/>
@@ -25461,7 +25468,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
-      <c r="I384" s="91"/>
+      <c r="I384" s="92"/>
       <c r="J384" s="3"/>
       <c r="K384" s="35"/>
       <c r="L384" s="3"/>
@@ -25476,7 +25483,7 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
-      <c r="I385" s="91"/>
+      <c r="I385" s="92"/>
       <c r="J385" s="3"/>
       <c r="K385" s="35"/>
       <c r="L385" s="3"/>
@@ -25491,7 +25498,7 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
-      <c r="I386" s="91"/>
+      <c r="I386" s="92"/>
       <c r="J386" s="3"/>
       <c r="K386" s="35"/>
       <c r="L386" s="3"/>
@@ -25506,7 +25513,7 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
-      <c r="I387" s="91"/>
+      <c r="I387" s="92"/>
       <c r="J387" s="3"/>
       <c r="K387" s="35"/>
       <c r="L387" s="3"/>
@@ -25521,7 +25528,7 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
-      <c r="I388" s="91"/>
+      <c r="I388" s="92"/>
       <c r="J388" s="3"/>
       <c r="K388" s="35"/>
       <c r="L388" s="3"/>
@@ -25536,7 +25543,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
-      <c r="I389" s="91"/>
+      <c r="I389" s="92"/>
       <c r="J389" s="3"/>
       <c r="K389" s="35"/>
       <c r="L389" s="3"/>
@@ -25551,7 +25558,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
-      <c r="I390" s="91"/>
+      <c r="I390" s="92"/>
       <c r="J390" s="3"/>
       <c r="K390" s="35"/>
       <c r="L390" s="3"/>
@@ -25566,7 +25573,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
-      <c r="I391" s="91"/>
+      <c r="I391" s="92"/>
       <c r="J391" s="3"/>
       <c r="K391" s="35"/>
       <c r="L391" s="3"/>
@@ -25581,7 +25588,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
-      <c r="I392" s="91"/>
+      <c r="I392" s="92"/>
       <c r="J392" s="3"/>
       <c r="K392" s="35"/>
       <c r="L392" s="3"/>
@@ -25596,7 +25603,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
-      <c r="I393" s="91"/>
+      <c r="I393" s="92"/>
       <c r="J393" s="3"/>
       <c r="K393" s="35"/>
       <c r="L393" s="3"/>
@@ -25611,7 +25618,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
-      <c r="I394" s="91"/>
+      <c r="I394" s="92"/>
       <c r="J394" s="3"/>
       <c r="K394" s="35"/>
       <c r="L394" s="3"/>
@@ -25626,7 +25633,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
-      <c r="I395" s="91"/>
+      <c r="I395" s="92"/>
       <c r="J395" s="3"/>
       <c r="K395" s="35"/>
       <c r="L395" s="3"/>
@@ -25641,7 +25648,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
-      <c r="I396" s="91"/>
+      <c r="I396" s="92"/>
       <c r="J396" s="3"/>
       <c r="K396" s="35"/>
       <c r="L396" s="3"/>
@@ -25656,7 +25663,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
-      <c r="I397" s="91"/>
+      <c r="I397" s="92"/>
       <c r="J397" s="3"/>
       <c r="K397" s="35"/>
       <c r="L397" s="3"/>
@@ -25671,7 +25678,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
-      <c r="I398" s="91"/>
+      <c r="I398" s="92"/>
       <c r="J398" s="3"/>
       <c r="K398" s="35"/>
       <c r="L398" s="3"/>
@@ -25686,7 +25693,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
-      <c r="I399" s="91"/>
+      <c r="I399" s="92"/>
       <c r="J399" s="3"/>
       <c r="K399" s="35"/>
       <c r="L399" s="3"/>
@@ -25701,7 +25708,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
-      <c r="I400" s="91"/>
+      <c r="I400" s="92"/>
       <c r="J400" s="3"/>
       <c r="K400" s="35"/>
       <c r="L400" s="3"/>
@@ -25716,7 +25723,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
-      <c r="I401" s="91"/>
+      <c r="I401" s="92"/>
       <c r="J401" s="3"/>
       <c r="K401" s="35"/>
       <c r="L401" s="3"/>
@@ -25731,7 +25738,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
-      <c r="I402" s="91"/>
+      <c r="I402" s="92"/>
       <c r="J402" s="3"/>
       <c r="K402" s="35"/>
       <c r="L402" s="3"/>
@@ -25746,7 +25753,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
-      <c r="I403" s="91"/>
+      <c r="I403" s="92"/>
       <c r="J403" s="3"/>
       <c r="K403" s="35"/>
       <c r="L403" s="3"/>
@@ -25761,7 +25768,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
-      <c r="I404" s="91"/>
+      <c r="I404" s="92"/>
       <c r="J404" s="3"/>
       <c r="K404" s="35"/>
       <c r="L404" s="3"/>
@@ -25776,7 +25783,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
-      <c r="I405" s="91"/>
+      <c r="I405" s="92"/>
       <c r="J405" s="3"/>
       <c r="K405" s="35"/>
       <c r="L405" s="3"/>
@@ -25791,7 +25798,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
-      <c r="I406" s="91"/>
+      <c r="I406" s="92"/>
       <c r="J406" s="3"/>
       <c r="K406" s="35"/>
       <c r="L406" s="3"/>
@@ -25806,7 +25813,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
-      <c r="I407" s="91"/>
+      <c r="I407" s="92"/>
       <c r="J407" s="3"/>
       <c r="K407" s="35"/>
       <c r="L407" s="3"/>
@@ -25821,7 +25828,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
-      <c r="I408" s="91"/>
+      <c r="I408" s="92"/>
       <c r="J408" s="3"/>
       <c r="K408" s="35"/>
       <c r="L408" s="3"/>
@@ -25836,7 +25843,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
-      <c r="I409" s="91"/>
+      <c r="I409" s="92"/>
       <c r="J409" s="3"/>
       <c r="K409" s="35"/>
       <c r="L409" s="3"/>
@@ -25851,7 +25858,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
-      <c r="I410" s="91"/>
+      <c r="I410" s="92"/>
       <c r="J410" s="3"/>
       <c r="K410" s="35"/>
       <c r="L410" s="3"/>
@@ -25866,7 +25873,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
-      <c r="I411" s="91"/>
+      <c r="I411" s="92"/>
       <c r="J411" s="3"/>
       <c r="K411" s="35"/>
       <c r="L411" s="3"/>
@@ -25881,7 +25888,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
-      <c r="I412" s="91"/>
+      <c r="I412" s="92"/>
       <c r="J412" s="3"/>
       <c r="K412" s="35"/>
       <c r="L412" s="3"/>
@@ -25896,7 +25903,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
-      <c r="I413" s="91"/>
+      <c r="I413" s="92"/>
       <c r="J413" s="3"/>
       <c r="K413" s="35"/>
       <c r="L413" s="3"/>
@@ -25911,7 +25918,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
-      <c r="I414" s="91"/>
+      <c r="I414" s="92"/>
       <c r="J414" s="3"/>
       <c r="K414" s="35"/>
       <c r="L414" s="3"/>
@@ -25926,7 +25933,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
-      <c r="I415" s="91"/>
+      <c r="I415" s="92"/>
       <c r="J415" s="3"/>
       <c r="K415" s="35"/>
       <c r="L415" s="3"/>
@@ -25941,7 +25948,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
-      <c r="I416" s="91"/>
+      <c r="I416" s="92"/>
       <c r="J416" s="3"/>
       <c r="K416" s="35"/>
       <c r="L416" s="3"/>
@@ -25956,7 +25963,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
-      <c r="I417" s="91"/>
+      <c r="I417" s="92"/>
       <c r="J417" s="3"/>
       <c r="K417" s="35"/>
       <c r="L417" s="3"/>
@@ -25971,7 +25978,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
-      <c r="I418" s="91"/>
+      <c r="I418" s="92"/>
       <c r="J418" s="3"/>
       <c r="K418" s="35"/>
       <c r="L418" s="3"/>
@@ -25986,7 +25993,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
-      <c r="I419" s="91"/>
+      <c r="I419" s="92"/>
       <c r="J419" s="3"/>
       <c r="K419" s="35"/>
       <c r="L419" s="3"/>
@@ -26001,7 +26008,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
-      <c r="I420" s="91"/>
+      <c r="I420" s="92"/>
       <c r="J420" s="3"/>
       <c r="K420" s="35"/>
       <c r="L420" s="3"/>
@@ -26016,7 +26023,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
-      <c r="I421" s="91"/>
+      <c r="I421" s="92"/>
       <c r="J421" s="3"/>
       <c r="K421" s="35"/>
       <c r="L421" s="3"/>
@@ -26031,7 +26038,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
-      <c r="I422" s="91"/>
+      <c r="I422" s="92"/>
       <c r="J422" s="3"/>
       <c r="K422" s="35"/>
       <c r="L422" s="3"/>
@@ -26046,7 +26053,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
-      <c r="I423" s="91"/>
+      <c r="I423" s="92"/>
       <c r="J423" s="3"/>
       <c r="K423" s="35"/>
       <c r="L423" s="3"/>
@@ -26061,7 +26068,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
-      <c r="I424" s="91"/>
+      <c r="I424" s="92"/>
       <c r="J424" s="3"/>
       <c r="K424" s="35"/>
       <c r="L424" s="3"/>
@@ -26076,7 +26083,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
-      <c r="I425" s="91"/>
+      <c r="I425" s="92"/>
       <c r="J425" s="3"/>
       <c r="K425" s="35"/>
       <c r="L425" s="3"/>
@@ -26091,7 +26098,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
-      <c r="I426" s="91"/>
+      <c r="I426" s="92"/>
       <c r="J426" s="3"/>
       <c r="K426" s="35"/>
       <c r="L426" s="3"/>
@@ -26106,7 +26113,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
-      <c r="I427" s="91"/>
+      <c r="I427" s="92"/>
       <c r="J427" s="3"/>
       <c r="K427" s="35"/>
       <c r="L427" s="3"/>
@@ -26121,7 +26128,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
-      <c r="I428" s="91"/>
+      <c r="I428" s="92"/>
       <c r="J428" s="3"/>
       <c r="K428" s="35"/>
       <c r="L428" s="3"/>
@@ -26136,7 +26143,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
-      <c r="I429" s="91"/>
+      <c r="I429" s="92"/>
       <c r="J429" s="3"/>
       <c r="K429" s="35"/>
       <c r="L429" s="3"/>
@@ -26151,7 +26158,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
-      <c r="I430" s="91"/>
+      <c r="I430" s="92"/>
       <c r="J430" s="3"/>
       <c r="K430" s="35"/>
       <c r="L430" s="3"/>
@@ -26166,7 +26173,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
-      <c r="I431" s="91"/>
+      <c r="I431" s="92"/>
       <c r="J431" s="3"/>
       <c r="K431" s="35"/>
       <c r="L431" s="3"/>
@@ -26181,7 +26188,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
-      <c r="I432" s="91"/>
+      <c r="I432" s="92"/>
       <c r="J432" s="3"/>
       <c r="K432" s="35"/>
       <c r="L432" s="3"/>
@@ -26196,7 +26203,7 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
-      <c r="I433" s="91"/>
+      <c r="I433" s="92"/>
       <c r="J433" s="3"/>
       <c r="K433" s="35"/>
       <c r="L433" s="3"/>
@@ -26211,7 +26218,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
-      <c r="I434" s="91"/>
+      <c r="I434" s="92"/>
       <c r="J434" s="3"/>
       <c r="K434" s="35"/>
       <c r="L434" s="3"/>
@@ -26226,7 +26233,7 @@
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
-      <c r="I435" s="91"/>
+      <c r="I435" s="92"/>
       <c r="J435" s="3"/>
       <c r="K435" s="35"/>
       <c r="L435" s="3"/>
@@ -26241,7 +26248,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="91"/>
+      <c r="I436" s="92"/>
       <c r="J436" s="3"/>
       <c r="K436" s="35"/>
       <c r="L436" s="3"/>
@@ -26256,7 +26263,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
-      <c r="I437" s="91"/>
+      <c r="I437" s="92"/>
       <c r="J437" s="3"/>
       <c r="K437" s="35"/>
       <c r="L437" s="3"/>
@@ -26271,7 +26278,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
-      <c r="I438" s="91"/>
+      <c r="I438" s="92"/>
       <c r="J438" s="3"/>
       <c r="K438" s="35"/>
       <c r="L438" s="3"/>
@@ -26286,7 +26293,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
-      <c r="I439" s="91"/>
+      <c r="I439" s="92"/>
       <c r="J439" s="3"/>
       <c r="K439" s="35"/>
       <c r="L439" s="3"/>
@@ -26301,7 +26308,7 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
-      <c r="I440" s="91"/>
+      <c r="I440" s="92"/>
       <c r="J440" s="3"/>
       <c r="K440" s="35"/>
       <c r="L440" s="3"/>
@@ -26316,7 +26323,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
-      <c r="I441" s="91"/>
+      <c r="I441" s="92"/>
       <c r="J441" s="3"/>
       <c r="K441" s="35"/>
       <c r="L441" s="3"/>
@@ -26331,7 +26338,7 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
-      <c r="I442" s="91"/>
+      <c r="I442" s="92"/>
       <c r="J442" s="3"/>
       <c r="K442" s="35"/>
       <c r="L442" s="3"/>
@@ -26346,7 +26353,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
-      <c r="I443" s="91"/>
+      <c r="I443" s="92"/>
       <c r="J443" s="3"/>
       <c r="K443" s="35"/>
       <c r="L443" s="3"/>
@@ -26361,7 +26368,7 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
-      <c r="I444" s="91"/>
+      <c r="I444" s="92"/>
       <c r="J444" s="3"/>
       <c r="K444" s="35"/>
       <c r="L444" s="3"/>
@@ -26376,7 +26383,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
-      <c r="I445" s="91"/>
+      <c r="I445" s="92"/>
       <c r="J445" s="3"/>
       <c r="K445" s="35"/>
       <c r="L445" s="3"/>
@@ -26391,7 +26398,7 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
-      <c r="I446" s="91"/>
+      <c r="I446" s="92"/>
       <c r="J446" s="3"/>
       <c r="K446" s="35"/>
       <c r="L446" s="3"/>
@@ -26406,7 +26413,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
-      <c r="I447" s="91"/>
+      <c r="I447" s="92"/>
       <c r="J447" s="3"/>
       <c r="K447" s="35"/>
       <c r="L447" s="3"/>
@@ -26421,7 +26428,7 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
-      <c r="I448" s="91"/>
+      <c r="I448" s="92"/>
       <c r="J448" s="3"/>
       <c r="K448" s="35"/>
       <c r="L448" s="3"/>
@@ -26436,7 +26443,7 @@
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
-      <c r="I449" s="91"/>
+      <c r="I449" s="92"/>
       <c r="J449" s="3"/>
       <c r="K449" s="35"/>
       <c r="L449" s="3"/>
@@ -26451,7 +26458,7 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
-      <c r="I450" s="91"/>
+      <c r="I450" s="92"/>
       <c r="J450" s="3"/>
       <c r="K450" s="35"/>
       <c r="L450" s="3"/>
@@ -26466,7 +26473,7 @@
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
-      <c r="I451" s="91"/>
+      <c r="I451" s="92"/>
       <c r="J451" s="3"/>
       <c r="K451" s="35"/>
       <c r="L451" s="3"/>
@@ -26481,7 +26488,7 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
-      <c r="I452" s="91"/>
+      <c r="I452" s="92"/>
       <c r="J452" s="3"/>
       <c r="K452" s="35"/>
       <c r="L452" s="3"/>
@@ -26496,7 +26503,7 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
-      <c r="I453" s="91"/>
+      <c r="I453" s="92"/>
       <c r="J453" s="3"/>
       <c r="K453" s="35"/>
       <c r="L453" s="3"/>
@@ -26511,7 +26518,7 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
-      <c r="I454" s="91"/>
+      <c r="I454" s="92"/>
       <c r="J454" s="3"/>
       <c r="K454" s="35"/>
       <c r="L454" s="3"/>
@@ -26526,7 +26533,7 @@
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
-      <c r="I455" s="91"/>
+      <c r="I455" s="92"/>
       <c r="J455" s="3"/>
       <c r="K455" s="35"/>
       <c r="L455" s="3"/>
@@ -26541,7 +26548,7 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
-      <c r="I456" s="91"/>
+      <c r="I456" s="92"/>
       <c r="J456" s="3"/>
       <c r="K456" s="35"/>
       <c r="L456" s="3"/>
@@ -26556,7 +26563,7 @@
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
-      <c r="I457" s="91"/>
+      <c r="I457" s="92"/>
       <c r="J457" s="3"/>
       <c r="K457" s="35"/>
       <c r="L457" s="3"/>
@@ -26571,7 +26578,7 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
-      <c r="I458" s="91"/>
+      <c r="I458" s="92"/>
       <c r="J458" s="3"/>
       <c r="K458" s="35"/>
       <c r="L458" s="3"/>
@@ -26586,7 +26593,7 @@
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
-      <c r="I459" s="91"/>
+      <c r="I459" s="92"/>
       <c r="J459" s="3"/>
       <c r="K459" s="35"/>
       <c r="L459" s="3"/>
@@ -26601,7 +26608,7 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
-      <c r="I460" s="91"/>
+      <c r="I460" s="92"/>
       <c r="J460" s="3"/>
       <c r="K460" s="35"/>
       <c r="L460" s="3"/>
@@ -26616,7 +26623,7 @@
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
-      <c r="I461" s="91"/>
+      <c r="I461" s="92"/>
       <c r="J461" s="3"/>
       <c r="K461" s="35"/>
       <c r="L461" s="3"/>
@@ -26631,7 +26638,7 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
-      <c r="I462" s="91"/>
+      <c r="I462" s="92"/>
       <c r="J462" s="3"/>
       <c r="K462" s="35"/>
       <c r="L462" s="3"/>
@@ -26646,7 +26653,7 @@
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
-      <c r="I463" s="91"/>
+      <c r="I463" s="92"/>
       <c r="J463" s="3"/>
       <c r="K463" s="35"/>
       <c r="L463" s="3"/>
@@ -26661,7 +26668,7 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
-      <c r="I464" s="91"/>
+      <c r="I464" s="92"/>
       <c r="J464" s="3"/>
       <c r="K464" s="35"/>
       <c r="L464" s="3"/>
@@ -26676,7 +26683,7 @@
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
-      <c r="I465" s="91"/>
+      <c r="I465" s="92"/>
       <c r="J465" s="3"/>
       <c r="K465" s="35"/>
       <c r="L465" s="3"/>
@@ -26691,7 +26698,7 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
-      <c r="I466" s="91"/>
+      <c r="I466" s="92"/>
       <c r="J466" s="3"/>
       <c r="K466" s="35"/>
       <c r="L466" s="3"/>
@@ -26706,7 +26713,7 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
-      <c r="I467" s="91"/>
+      <c r="I467" s="92"/>
       <c r="J467" s="3"/>
       <c r="K467" s="35"/>
       <c r="L467" s="3"/>
@@ -26721,7 +26728,7 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
-      <c r="I468" s="91"/>
+      <c r="I468" s="92"/>
       <c r="J468" s="3"/>
       <c r="K468" s="35"/>
       <c r="L468" s="3"/>
@@ -26736,7 +26743,7 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
-      <c r="I469" s="91"/>
+      <c r="I469" s="92"/>
       <c r="J469" s="3"/>
       <c r="K469" s="35"/>
       <c r="L469" s="3"/>
@@ -26751,7 +26758,7 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
-      <c r="I470" s="91"/>
+      <c r="I470" s="92"/>
       <c r="J470" s="3"/>
       <c r="K470" s="35"/>
       <c r="L470" s="3"/>
@@ -26766,7 +26773,7 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
-      <c r="I471" s="91"/>
+      <c r="I471" s="92"/>
       <c r="J471" s="3"/>
       <c r="K471" s="35"/>
       <c r="L471" s="3"/>
@@ -26781,7 +26788,7 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
-      <c r="I472" s="91"/>
+      <c r="I472" s="92"/>
       <c r="J472" s="3"/>
       <c r="K472" s="35"/>
       <c r="L472" s="3"/>
@@ -26796,7 +26803,7 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
-      <c r="I473" s="91"/>
+      <c r="I473" s="92"/>
       <c r="J473" s="3"/>
       <c r="K473" s="35"/>
       <c r="L473" s="3"/>
@@ -26811,7 +26818,7 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
-      <c r="I474" s="91"/>
+      <c r="I474" s="92"/>
       <c r="J474" s="3"/>
       <c r="K474" s="35"/>
       <c r="L474" s="3"/>
@@ -26826,7 +26833,7 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
-      <c r="I475" s="91"/>
+      <c r="I475" s="92"/>
       <c r="J475" s="3"/>
       <c r="K475" s="35"/>
       <c r="L475" s="3"/>
@@ -26841,7 +26848,7 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
-      <c r="I476" s="91"/>
+      <c r="I476" s="92"/>
       <c r="J476" s="3"/>
       <c r="K476" s="35"/>
       <c r="L476" s="3"/>
@@ -26856,7 +26863,7 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
-      <c r="I477" s="91"/>
+      <c r="I477" s="92"/>
       <c r="J477" s="3"/>
       <c r="K477" s="35"/>
       <c r="L477" s="3"/>
@@ -26871,7 +26878,7 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
-      <c r="I478" s="91"/>
+      <c r="I478" s="92"/>
       <c r="J478" s="3"/>
       <c r="K478" s="35"/>
       <c r="L478" s="3"/>
@@ -26886,7 +26893,7 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
-      <c r="I479" s="91"/>
+      <c r="I479" s="92"/>
       <c r="J479" s="3"/>
       <c r="K479" s="35"/>
       <c r="L479" s="3"/>
@@ -26901,7 +26908,7 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
-      <c r="I480" s="91"/>
+      <c r="I480" s="92"/>
       <c r="J480" s="3"/>
       <c r="K480" s="35"/>
       <c r="L480" s="3"/>
@@ -26916,7 +26923,7 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
-      <c r="I481" s="91"/>
+      <c r="I481" s="92"/>
       <c r="J481" s="3"/>
       <c r="K481" s="35"/>
       <c r="L481" s="3"/>
@@ -26931,7 +26938,7 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
-      <c r="I482" s="91"/>
+      <c r="I482" s="92"/>
       <c r="J482" s="3"/>
       <c r="K482" s="35"/>
       <c r="L482" s="3"/>
@@ -26946,7 +26953,7 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
-      <c r="I483" s="91"/>
+      <c r="I483" s="92"/>
       <c r="J483" s="3"/>
       <c r="K483" s="35"/>
       <c r="L483" s="3"/>
@@ -26961,7 +26968,7 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
-      <c r="I484" s="91"/>
+      <c r="I484" s="92"/>
       <c r="J484" s="3"/>
       <c r="K484" s="35"/>
       <c r="L484" s="3"/>
@@ -26976,7 +26983,7 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
-      <c r="I485" s="91"/>
+      <c r="I485" s="92"/>
       <c r="J485" s="3"/>
       <c r="K485" s="35"/>
       <c r="L485" s="3"/>
@@ -26991,7 +26998,7 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
-      <c r="I486" s="91"/>
+      <c r="I486" s="92"/>
       <c r="J486" s="3"/>
       <c r="K486" s="35"/>
       <c r="L486" s="3"/>
@@ -27006,7 +27013,7 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
-      <c r="I487" s="91"/>
+      <c r="I487" s="92"/>
       <c r="J487" s="3"/>
       <c r="K487" s="35"/>
       <c r="L487" s="3"/>
@@ -27021,7 +27028,7 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
-      <c r="I488" s="91"/>
+      <c r="I488" s="92"/>
       <c r="J488" s="3"/>
       <c r="K488" s="35"/>
       <c r="L488" s="3"/>
@@ -27036,7 +27043,7 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
-      <c r="I489" s="91"/>
+      <c r="I489" s="92"/>
       <c r="J489" s="3"/>
       <c r="K489" s="35"/>
       <c r="L489" s="3"/>
@@ -27051,7 +27058,7 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
-      <c r="I490" s="91"/>
+      <c r="I490" s="92"/>
       <c r="J490" s="3"/>
       <c r="K490" s="35"/>
       <c r="L490" s="3"/>
@@ -27066,7 +27073,7 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
-      <c r="I491" s="91"/>
+      <c r="I491" s="92"/>
       <c r="J491" s="3"/>
       <c r="K491" s="35"/>
       <c r="L491" s="3"/>
@@ -27081,7 +27088,7 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
-      <c r="I492" s="91"/>
+      <c r="I492" s="92"/>
       <c r="J492" s="3"/>
       <c r="K492" s="35"/>
       <c r="L492" s="3"/>
@@ -27096,7 +27103,7 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
-      <c r="I493" s="91"/>
+      <c r="I493" s="92"/>
       <c r="J493" s="3"/>
       <c r="K493" s="35"/>
       <c r="L493" s="3"/>
@@ -27111,7 +27118,7 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
-      <c r="I494" s="91"/>
+      <c r="I494" s="92"/>
       <c r="J494" s="3"/>
       <c r="K494" s="35"/>
       <c r="L494" s="3"/>
@@ -27126,7 +27133,7 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
-      <c r="I495" s="91"/>
+      <c r="I495" s="92"/>
       <c r="J495" s="3"/>
       <c r="K495" s="35"/>
       <c r="L495" s="3"/>
@@ -27141,7 +27148,7 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
-      <c r="I496" s="91"/>
+      <c r="I496" s="92"/>
       <c r="J496" s="3"/>
       <c r="K496" s="35"/>
       <c r="L496" s="3"/>
@@ -27156,7 +27163,7 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
-      <c r="I497" s="91"/>
+      <c r="I497" s="92"/>
       <c r="J497" s="3"/>
       <c r="K497" s="35"/>
       <c r="L497" s="3"/>
@@ -27171,7 +27178,7 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
-      <c r="I498" s="91"/>
+      <c r="I498" s="92"/>
       <c r="J498" s="3"/>
       <c r="K498" s="35"/>
       <c r="L498" s="3"/>
@@ -27186,7 +27193,7 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
-      <c r="I499" s="91"/>
+      <c r="I499" s="92"/>
       <c r="J499" s="3"/>
       <c r="K499" s="35"/>
       <c r="L499" s="3"/>
@@ -27201,7 +27208,7 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
-      <c r="I500" s="91"/>
+      <c r="I500" s="92"/>
       <c r="J500" s="3"/>
       <c r="K500" s="35"/>
       <c r="L500" s="3"/>
@@ -27216,7 +27223,7 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
-      <c r="I501" s="91"/>
+      <c r="I501" s="92"/>
       <c r="J501" s="3"/>
       <c r="K501" s="35"/>
       <c r="L501" s="3"/>
@@ -27231,7 +27238,7 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
-      <c r="I502" s="91"/>
+      <c r="I502" s="92"/>
       <c r="J502" s="3"/>
       <c r="K502" s="35"/>
       <c r="L502" s="3"/>
@@ -27246,7 +27253,7 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
-      <c r="I503" s="91"/>
+      <c r="I503" s="92"/>
       <c r="J503" s="3"/>
       <c r="K503" s="35"/>
       <c r="L503" s="3"/>
@@ -27261,7 +27268,7 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
-      <c r="I504" s="91"/>
+      <c r="I504" s="92"/>
       <c r="J504" s="3"/>
       <c r="K504" s="35"/>
       <c r="L504" s="3"/>
@@ -27276,7 +27283,7 @@
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
-      <c r="I505" s="91"/>
+      <c r="I505" s="92"/>
       <c r="J505" s="3"/>
       <c r="K505" s="35"/>
       <c r="L505" s="3"/>
@@ -27291,7 +27298,7 @@
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
-      <c r="I506" s="91"/>
+      <c r="I506" s="92"/>
       <c r="J506" s="3"/>
       <c r="K506" s="35"/>
       <c r="L506" s="3"/>
@@ -27306,7 +27313,7 @@
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
-      <c r="I507" s="91"/>
+      <c r="I507" s="92"/>
       <c r="J507" s="3"/>
       <c r="K507" s="35"/>
       <c r="L507" s="3"/>
@@ -27321,7 +27328,7 @@
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
-      <c r="I508" s="91"/>
+      <c r="I508" s="92"/>
       <c r="J508" s="3"/>
       <c r="K508" s="35"/>
       <c r="L508" s="3"/>
@@ -27336,7 +27343,7 @@
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
-      <c r="I509" s="91"/>
+      <c r="I509" s="92"/>
       <c r="J509" s="3"/>
       <c r="K509" s="35"/>
       <c r="L509" s="3"/>
@@ -27351,7 +27358,7 @@
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
-      <c r="I510" s="91"/>
+      <c r="I510" s="92"/>
       <c r="J510" s="3"/>
       <c r="K510" s="35"/>
       <c r="L510" s="3"/>
@@ -27366,7 +27373,7 @@
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
-      <c r="I511" s="91"/>
+      <c r="I511" s="92"/>
       <c r="J511" s="3"/>
       <c r="K511" s="35"/>
       <c r="L511" s="3"/>
@@ -27381,7 +27388,7 @@
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
-      <c r="I512" s="91"/>
+      <c r="I512" s="92"/>
       <c r="J512" s="3"/>
       <c r="K512" s="35"/>
       <c r="L512" s="3"/>
@@ -27396,7 +27403,7 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
-      <c r="I513" s="91"/>
+      <c r="I513" s="92"/>
       <c r="J513" s="3"/>
       <c r="K513" s="35"/>
       <c r="L513" s="3"/>
@@ -27411,7 +27418,7 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
-      <c r="I514" s="91"/>
+      <c r="I514" s="92"/>
       <c r="J514" s="3"/>
       <c r="K514" s="35"/>
       <c r="L514" s="3"/>
@@ -27426,7 +27433,7 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
-      <c r="I515" s="91"/>
+      <c r="I515" s="92"/>
       <c r="J515" s="3"/>
       <c r="K515" s="35"/>
       <c r="L515" s="3"/>
@@ -27441,7 +27448,7 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
-      <c r="I516" s="91"/>
+      <c r="I516" s="92"/>
       <c r="J516" s="3"/>
       <c r="K516" s="35"/>
       <c r="L516" s="3"/>
@@ -27456,7 +27463,7 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
-      <c r="I517" s="91"/>
+      <c r="I517" s="92"/>
       <c r="J517" s="3"/>
       <c r="K517" s="35"/>
       <c r="L517" s="3"/>
@@ -27471,7 +27478,7 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
-      <c r="I518" s="91"/>
+      <c r="I518" s="92"/>
       <c r="J518" s="3"/>
       <c r="K518" s="35"/>
       <c r="L518" s="3"/>
@@ -27486,7 +27493,7 @@
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
-      <c r="I519" s="91"/>
+      <c r="I519" s="92"/>
       <c r="J519" s="3"/>
       <c r="K519" s="35"/>
       <c r="L519" s="3"/>
@@ -27501,7 +27508,7 @@
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
-      <c r="I520" s="91"/>
+      <c r="I520" s="92"/>
       <c r="J520" s="3"/>
       <c r="K520" s="35"/>
       <c r="L520" s="3"/>
@@ -27516,7 +27523,7 @@
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
-      <c r="I521" s="91"/>
+      <c r="I521" s="92"/>
       <c r="J521" s="3"/>
       <c r="K521" s="35"/>
       <c r="L521" s="3"/>
@@ -27531,7 +27538,7 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
-      <c r="I522" s="91"/>
+      <c r="I522" s="92"/>
       <c r="J522" s="3"/>
       <c r="K522" s="35"/>
       <c r="L522" s="3"/>
@@ -27546,7 +27553,7 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
-      <c r="I523" s="91"/>
+      <c r="I523" s="92"/>
       <c r="J523" s="3"/>
       <c r="K523" s="35"/>
       <c r="L523" s="3"/>
@@ -27561,7 +27568,7 @@
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
-      <c r="I524" s="91"/>
+      <c r="I524" s="92"/>
       <c r="J524" s="3"/>
       <c r="K524" s="35"/>
       <c r="L524" s="3"/>
@@ -27576,7 +27583,7 @@
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
-      <c r="I525" s="91"/>
+      <c r="I525" s="92"/>
       <c r="J525" s="3"/>
       <c r="K525" s="35"/>
       <c r="L525" s="3"/>
@@ -27591,7 +27598,7 @@
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
-      <c r="I526" s="91"/>
+      <c r="I526" s="92"/>
       <c r="J526" s="3"/>
       <c r="K526" s="35"/>
       <c r="L526" s="3"/>
@@ -27606,7 +27613,7 @@
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
-      <c r="I527" s="91"/>
+      <c r="I527" s="92"/>
       <c r="J527" s="3"/>
       <c r="K527" s="35"/>
       <c r="L527" s="3"/>
@@ -27621,7 +27628,7 @@
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
-      <c r="I528" s="91"/>
+      <c r="I528" s="92"/>
       <c r="J528" s="3"/>
       <c r="K528" s="35"/>
       <c r="L528" s="3"/>
@@ -27636,7 +27643,7 @@
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
-      <c r="I529" s="91"/>
+      <c r="I529" s="92"/>
       <c r="J529" s="3"/>
       <c r="K529" s="35"/>
       <c r="L529" s="3"/>
@@ -27651,7 +27658,7 @@
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
-      <c r="I530" s="91"/>
+      <c r="I530" s="92"/>
       <c r="J530" s="3"/>
       <c r="K530" s="35"/>
       <c r="L530" s="3"/>
@@ -27666,7 +27673,7 @@
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
-      <c r="I531" s="91"/>
+      <c r="I531" s="92"/>
       <c r="J531" s="3"/>
       <c r="K531" s="35"/>
       <c r="L531" s="3"/>
@@ -27681,7 +27688,7 @@
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
-      <c r="I532" s="91"/>
+      <c r="I532" s="92"/>
       <c r="J532" s="3"/>
       <c r="K532" s="35"/>
       <c r="L532" s="3"/>
@@ -27696,7 +27703,7 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
-      <c r="I533" s="91"/>
+      <c r="I533" s="92"/>
       <c r="J533" s="3"/>
       <c r="K533" s="35"/>
       <c r="L533" s="3"/>
@@ -27711,7 +27718,7 @@
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
-      <c r="I534" s="91"/>
+      <c r="I534" s="92"/>
       <c r="J534" s="3"/>
       <c r="K534" s="35"/>
       <c r="L534" s="3"/>
@@ -27726,7 +27733,7 @@
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
-      <c r="I535" s="91"/>
+      <c r="I535" s="92"/>
       <c r="J535" s="3"/>
       <c r="K535" s="35"/>
       <c r="L535" s="3"/>
@@ -27741,7 +27748,7 @@
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
-      <c r="I536" s="91"/>
+      <c r="I536" s="92"/>
       <c r="J536" s="3"/>
       <c r="K536" s="35"/>
       <c r="L536" s="3"/>
@@ -27756,7 +27763,7 @@
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
-      <c r="I537" s="91"/>
+      <c r="I537" s="92"/>
       <c r="J537" s="3"/>
       <c r="K537" s="35"/>
       <c r="L537" s="3"/>
@@ -27771,7 +27778,7 @@
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
-      <c r="I538" s="91"/>
+      <c r="I538" s="92"/>
       <c r="J538" s="3"/>
       <c r="K538" s="35"/>
       <c r="L538" s="3"/>
@@ -27786,7 +27793,7 @@
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
-      <c r="I539" s="91"/>
+      <c r="I539" s="92"/>
       <c r="J539" s="3"/>
       <c r="K539" s="35"/>
       <c r="L539" s="3"/>
@@ -27801,7 +27808,7 @@
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
-      <c r="I540" s="91"/>
+      <c r="I540" s="92"/>
       <c r="J540" s="3"/>
       <c r="K540" s="35"/>
       <c r="L540" s="3"/>
@@ -27816,7 +27823,7 @@
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
-      <c r="I541" s="91"/>
+      <c r="I541" s="92"/>
       <c r="J541" s="3"/>
       <c r="K541" s="35"/>
       <c r="L541" s="3"/>
@@ -27831,7 +27838,7 @@
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
-      <c r="I542" s="91"/>
+      <c r="I542" s="92"/>
       <c r="J542" s="3"/>
       <c r="K542" s="35"/>
       <c r="L542" s="3"/>
@@ -27846,7 +27853,7 @@
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
-      <c r="I543" s="91"/>
+      <c r="I543" s="92"/>
       <c r="J543" s="3"/>
       <c r="K543" s="35"/>
       <c r="L543" s="3"/>
@@ -27861,7 +27868,7 @@
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
-      <c r="I544" s="91"/>
+      <c r="I544" s="92"/>
       <c r="J544" s="3"/>
       <c r="K544" s="35"/>
       <c r="L544" s="3"/>
@@ -27876,7 +27883,7 @@
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
-      <c r="I545" s="91"/>
+      <c r="I545" s="92"/>
       <c r="J545" s="3"/>
       <c r="K545" s="35"/>
       <c r="L545" s="3"/>
@@ -27891,7 +27898,7 @@
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
-      <c r="I546" s="91"/>
+      <c r="I546" s="92"/>
       <c r="J546" s="3"/>
       <c r="K546" s="35"/>
       <c r="L546" s="3"/>
@@ -27906,7 +27913,7 @@
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
-      <c r="I547" s="91"/>
+      <c r="I547" s="92"/>
       <c r="J547" s="3"/>
       <c r="K547" s="35"/>
       <c r="L547" s="3"/>
@@ -27921,7 +27928,7 @@
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
-      <c r="I548" s="91"/>
+      <c r="I548" s="92"/>
       <c r="J548" s="3"/>
       <c r="K548" s="35"/>
       <c r="L548" s="3"/>
@@ -27936,7 +27943,7 @@
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
-      <c r="I549" s="91"/>
+      <c r="I549" s="92"/>
       <c r="J549" s="3"/>
       <c r="K549" s="35"/>
       <c r="L549" s="3"/>
@@ -27951,7 +27958,7 @@
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
-      <c r="I550" s="91"/>
+      <c r="I550" s="92"/>
       <c r="J550" s="3"/>
       <c r="K550" s="35"/>
       <c r="L550" s="3"/>
@@ -27966,7 +27973,7 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
-      <c r="I551" s="91"/>
+      <c r="I551" s="92"/>
       <c r="J551" s="3"/>
       <c r="K551" s="35"/>
       <c r="L551" s="3"/>
@@ -27981,7 +27988,7 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
-      <c r="I552" s="91"/>
+      <c r="I552" s="92"/>
       <c r="J552" s="3"/>
       <c r="K552" s="35"/>
       <c r="L552" s="3"/>
@@ -27996,7 +28003,7 @@
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
-      <c r="I553" s="91"/>
+      <c r="I553" s="92"/>
       <c r="J553" s="3"/>
       <c r="K553" s="35"/>
       <c r="L553" s="3"/>
@@ -28011,7 +28018,7 @@
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
-      <c r="I554" s="91"/>
+      <c r="I554" s="92"/>
       <c r="J554" s="3"/>
       <c r="K554" s="35"/>
       <c r="L554" s="3"/>
@@ -28026,7 +28033,7 @@
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
-      <c r="I555" s="91"/>
+      <c r="I555" s="92"/>
       <c r="J555" s="3"/>
       <c r="K555" s="35"/>
       <c r="L555" s="3"/>
@@ -28041,7 +28048,7 @@
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
-      <c r="I556" s="91"/>
+      <c r="I556" s="92"/>
       <c r="J556" s="3"/>
       <c r="K556" s="35"/>
       <c r="L556" s="3"/>
@@ -28056,7 +28063,7 @@
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
-      <c r="I557" s="91"/>
+      <c r="I557" s="92"/>
       <c r="J557" s="3"/>
       <c r="K557" s="35"/>
       <c r="L557" s="3"/>
@@ -28071,7 +28078,7 @@
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
-      <c r="I558" s="91"/>
+      <c r="I558" s="92"/>
       <c r="J558" s="3"/>
       <c r="K558" s="35"/>
       <c r="L558" s="3"/>
@@ -28086,7 +28093,7 @@
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
-      <c r="I559" s="91"/>
+      <c r="I559" s="92"/>
       <c r="J559" s="3"/>
       <c r="K559" s="35"/>
       <c r="L559" s="3"/>
@@ -28101,7 +28108,7 @@
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
-      <c r="I560" s="91"/>
+      <c r="I560" s="92"/>
       <c r="J560" s="3"/>
       <c r="K560" s="35"/>
       <c r="L560" s="3"/>
@@ -28116,7 +28123,7 @@
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
-      <c r="I561" s="91"/>
+      <c r="I561" s="92"/>
       <c r="J561" s="3"/>
       <c r="K561" s="35"/>
       <c r="L561" s="3"/>
@@ -28131,7 +28138,7 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
-      <c r="I562" s="91"/>
+      <c r="I562" s="92"/>
       <c r="J562" s="3"/>
       <c r="K562" s="35"/>
       <c r="L562" s="3"/>
@@ -28146,7 +28153,7 @@
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
-      <c r="I563" s="91"/>
+      <c r="I563" s="92"/>
       <c r="J563" s="3"/>
       <c r="K563" s="35"/>
       <c r="L563" s="3"/>
@@ -28161,7 +28168,7 @@
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
-      <c r="I564" s="91"/>
+      <c r="I564" s="92"/>
       <c r="J564" s="3"/>
       <c r="K564" s="35"/>
       <c r="L564" s="3"/>
@@ -28176,7 +28183,7 @@
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
-      <c r="I565" s="91"/>
+      <c r="I565" s="92"/>
       <c r="J565" s="3"/>
       <c r="K565" s="35"/>
       <c r="L565" s="3"/>
@@ -28191,7 +28198,7 @@
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
-      <c r="I566" s="91"/>
+      <c r="I566" s="92"/>
       <c r="J566" s="3"/>
       <c r="K566" s="35"/>
       <c r="L566" s="3"/>
@@ -28206,7 +28213,7 @@
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
-      <c r="I567" s="91"/>
+      <c r="I567" s="92"/>
       <c r="J567" s="3"/>
       <c r="K567" s="35"/>
       <c r="L567" s="3"/>
@@ -28221,7 +28228,7 @@
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
-      <c r="I568" s="91"/>
+      <c r="I568" s="92"/>
       <c r="J568" s="3"/>
       <c r="K568" s="35"/>
       <c r="L568" s="3"/>
@@ -28236,7 +28243,7 @@
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
-      <c r="I569" s="91"/>
+      <c r="I569" s="92"/>
       <c r="J569" s="3"/>
       <c r="K569" s="35"/>
       <c r="L569" s="3"/>
@@ -28251,7 +28258,7 @@
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
-      <c r="I570" s="91"/>
+      <c r="I570" s="92"/>
       <c r="J570" s="3"/>
       <c r="K570" s="35"/>
       <c r="L570" s="3"/>
@@ -28266,7 +28273,7 @@
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
-      <c r="I571" s="91"/>
+      <c r="I571" s="92"/>
       <c r="J571" s="3"/>
       <c r="K571" s="35"/>
       <c r="L571" s="3"/>
@@ -28281,7 +28288,7 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
-      <c r="I572" s="91"/>
+      <c r="I572" s="92"/>
       <c r="J572" s="3"/>
       <c r="K572" s="35"/>
       <c r="L572" s="3"/>
@@ -28296,7 +28303,7 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
-      <c r="I573" s="91"/>
+      <c r="I573" s="92"/>
       <c r="J573" s="3"/>
       <c r="K573" s="35"/>
       <c r="L573" s="3"/>
@@ -28311,7 +28318,7 @@
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
-      <c r="I574" s="91"/>
+      <c r="I574" s="92"/>
       <c r="J574" s="3"/>
       <c r="K574" s="35"/>
       <c r="L574" s="3"/>
@@ -28326,7 +28333,7 @@
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
-      <c r="I575" s="91"/>
+      <c r="I575" s="92"/>
       <c r="J575" s="3"/>
       <c r="K575" s="35"/>
       <c r="L575" s="3"/>
@@ -28341,7 +28348,7 @@
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
-      <c r="I576" s="91"/>
+      <c r="I576" s="92"/>
       <c r="J576" s="3"/>
       <c r="K576" s="35"/>
       <c r="L576" s="3"/>
@@ -28356,7 +28363,7 @@
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
-      <c r="I577" s="91"/>
+      <c r="I577" s="92"/>
       <c r="J577" s="3"/>
       <c r="K577" s="35"/>
       <c r="L577" s="3"/>
@@ -28371,7 +28378,7 @@
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
-      <c r="I578" s="91"/>
+      <c r="I578" s="92"/>
       <c r="J578" s="3"/>
       <c r="K578" s="35"/>
       <c r="L578" s="3"/>
@@ -28386,7 +28393,7 @@
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
-      <c r="I579" s="91"/>
+      <c r="I579" s="92"/>
       <c r="J579" s="3"/>
       <c r="K579" s="35"/>
       <c r="L579" s="3"/>
@@ -28401,7 +28408,7 @@
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
-      <c r="I580" s="91"/>
+      <c r="I580" s="92"/>
       <c r="J580" s="3"/>
       <c r="K580" s="35"/>
       <c r="L580" s="3"/>
@@ -28416,7 +28423,7 @@
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
-      <c r="I581" s="91"/>
+      <c r="I581" s="92"/>
       <c r="J581" s="3"/>
       <c r="K581" s="35"/>
       <c r="L581" s="3"/>
@@ -28431,7 +28438,7 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
-      <c r="I582" s="91"/>
+      <c r="I582" s="92"/>
       <c r="J582" s="3"/>
       <c r="K582" s="35"/>
       <c r="L582" s="3"/>
@@ -28446,7 +28453,7 @@
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
-      <c r="I583" s="91"/>
+      <c r="I583" s="92"/>
       <c r="J583" s="3"/>
       <c r="K583" s="35"/>
       <c r="L583" s="3"/>
@@ -28461,7 +28468,7 @@
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
-      <c r="I584" s="91"/>
+      <c r="I584" s="92"/>
       <c r="J584" s="3"/>
       <c r="K584" s="35"/>
       <c r="L584" s="3"/>
@@ -28476,7 +28483,7 @@
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
-      <c r="I585" s="91"/>
+      <c r="I585" s="92"/>
       <c r="J585" s="3"/>
       <c r="K585" s="35"/>
       <c r="L585" s="3"/>
@@ -28491,7 +28498,7 @@
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
-      <c r="I586" s="91"/>
+      <c r="I586" s="92"/>
       <c r="J586" s="3"/>
       <c r="K586" s="35"/>
       <c r="L586" s="3"/>
@@ -28506,7 +28513,7 @@
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
-      <c r="I587" s="91"/>
+      <c r="I587" s="92"/>
       <c r="J587" s="3"/>
       <c r="K587" s="35"/>
       <c r="L587" s="3"/>
@@ -28521,7 +28528,7 @@
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
-      <c r="I588" s="91"/>
+      <c r="I588" s="92"/>
       <c r="J588" s="3"/>
       <c r="K588" s="35"/>
       <c r="L588" s="3"/>
@@ -28536,7 +28543,7 @@
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
-      <c r="I589" s="91"/>
+      <c r="I589" s="92"/>
       <c r="J589" s="3"/>
       <c r="K589" s="35"/>
       <c r="L589" s="3"/>
@@ -28551,7 +28558,7 @@
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
-      <c r="I590" s="91"/>
+      <c r="I590" s="92"/>
       <c r="J590" s="3"/>
       <c r="K590" s="35"/>
       <c r="L590" s="3"/>
@@ -28566,7 +28573,7 @@
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
-      <c r="I591" s="91"/>
+      <c r="I591" s="92"/>
       <c r="J591" s="3"/>
       <c r="K591" s="35"/>
       <c r="L591" s="3"/>
@@ -28581,7 +28588,7 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
-      <c r="I592" s="91"/>
+      <c r="I592" s="92"/>
       <c r="J592" s="3"/>
       <c r="K592" s="35"/>
       <c r="L592" s="3"/>
@@ -28596,7 +28603,7 @@
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
-      <c r="I593" s="91"/>
+      <c r="I593" s="92"/>
       <c r="J593" s="3"/>
       <c r="K593" s="35"/>
       <c r="L593" s="3"/>
@@ -28611,7 +28618,7 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
-      <c r="I594" s="91"/>
+      <c r="I594" s="92"/>
       <c r="J594" s="3"/>
       <c r="K594" s="35"/>
       <c r="L594" s="3"/>
@@ -28626,7 +28633,7 @@
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
-      <c r="I595" s="91"/>
+      <c r="I595" s="92"/>
       <c r="J595" s="3"/>
       <c r="K595" s="35"/>
       <c r="L595" s="3"/>
@@ -28641,7 +28648,7 @@
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
-      <c r="I596" s="91"/>
+      <c r="I596" s="92"/>
       <c r="J596" s="3"/>
       <c r="K596" s="35"/>
       <c r="L596" s="3"/>
@@ -28656,7 +28663,7 @@
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
-      <c r="I597" s="91"/>
+      <c r="I597" s="92"/>
       <c r="J597" s="3"/>
       <c r="K597" s="35"/>
       <c r="L597" s="3"/>
@@ -28671,7 +28678,7 @@
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
-      <c r="I598" s="91"/>
+      <c r="I598" s="92"/>
       <c r="J598" s="3"/>
       <c r="K598" s="35"/>
       <c r="L598" s="3"/>
@@ -28686,7 +28693,7 @@
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
-      <c r="I599" s="91"/>
+      <c r="I599" s="92"/>
       <c r="J599" s="3"/>
       <c r="K599" s="35"/>
       <c r="L599" s="3"/>
@@ -28701,7 +28708,7 @@
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
-      <c r="I600" s="91"/>
+      <c r="I600" s="92"/>
       <c r="J600" s="3"/>
       <c r="K600" s="35"/>
       <c r="L600" s="3"/>
@@ -28716,7 +28723,7 @@
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
-      <c r="I601" s="91"/>
+      <c r="I601" s="92"/>
       <c r="J601" s="3"/>
       <c r="K601" s="35"/>
       <c r="L601" s="3"/>
@@ -28731,7 +28738,7 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
-      <c r="I602" s="91"/>
+      <c r="I602" s="92"/>
       <c r="J602" s="3"/>
       <c r="K602" s="35"/>
       <c r="L602" s="3"/>
@@ -28746,7 +28753,7 @@
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
-      <c r="I603" s="91"/>
+      <c r="I603" s="92"/>
       <c r="J603" s="3"/>
       <c r="K603" s="35"/>
       <c r="L603" s="3"/>
@@ -28761,7 +28768,7 @@
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
-      <c r="I604" s="91"/>
+      <c r="I604" s="92"/>
       <c r="J604" s="3"/>
       <c r="K604" s="35"/>
       <c r="L604" s="3"/>
@@ -28776,7 +28783,7 @@
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
-      <c r="I605" s="91"/>
+      <c r="I605" s="92"/>
       <c r="J605" s="3"/>
       <c r="K605" s="35"/>
       <c r="L605" s="3"/>
@@ -28791,7 +28798,7 @@
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
-      <c r="I606" s="91"/>
+      <c r="I606" s="92"/>
       <c r="J606" s="3"/>
       <c r="K606" s="35"/>
       <c r="L606" s="3"/>
@@ -28806,7 +28813,7 @@
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
-      <c r="I607" s="91"/>
+      <c r="I607" s="92"/>
       <c r="J607" s="3"/>
       <c r="K607" s="35"/>
       <c r="L607" s="3"/>
@@ -28821,7 +28828,7 @@
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
-      <c r="I608" s="91"/>
+      <c r="I608" s="92"/>
       <c r="J608" s="3"/>
       <c r="K608" s="35"/>
       <c r="L608" s="3"/>
@@ -28836,7 +28843,7 @@
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
-      <c r="I609" s="91"/>
+      <c r="I609" s="92"/>
       <c r="J609" s="3"/>
       <c r="K609" s="35"/>
       <c r="L609" s="3"/>
@@ -28851,7 +28858,7 @@
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
-      <c r="I610" s="91"/>
+      <c r="I610" s="92"/>
       <c r="J610" s="3"/>
       <c r="K610" s="35"/>
       <c r="L610" s="3"/>
@@ -28866,7 +28873,7 @@
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
-      <c r="I611" s="91"/>
+      <c r="I611" s="92"/>
       <c r="J611" s="3"/>
       <c r="K611" s="35"/>
       <c r="L611" s="3"/>
@@ -28881,7 +28888,7 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
-      <c r="I612" s="91"/>
+      <c r="I612" s="92"/>
       <c r="J612" s="3"/>
       <c r="K612" s="35"/>
       <c r="L612" s="3"/>
@@ -28896,7 +28903,7 @@
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
-      <c r="I613" s="91"/>
+      <c r="I613" s="92"/>
       <c r="J613" s="3"/>
       <c r="K613" s="35"/>
       <c r="L613" s="3"/>
@@ -28911,7 +28918,7 @@
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
-      <c r="I614" s="91"/>
+      <c r="I614" s="92"/>
       <c r="J614" s="3"/>
       <c r="K614" s="35"/>
       <c r="L614" s="3"/>
@@ -28926,7 +28933,7 @@
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
-      <c r="I615" s="91"/>
+      <c r="I615" s="92"/>
       <c r="J615" s="3"/>
       <c r="K615" s="35"/>
       <c r="L615" s="3"/>
@@ -28941,7 +28948,7 @@
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
-      <c r="I616" s="91"/>
+      <c r="I616" s="92"/>
       <c r="J616" s="3"/>
       <c r="K616" s="35"/>
       <c r="L616" s="3"/>
@@ -28956,7 +28963,7 @@
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
-      <c r="I617" s="91"/>
+      <c r="I617" s="92"/>
       <c r="J617" s="3"/>
       <c r="K617" s="35"/>
       <c r="L617" s="3"/>
@@ -28971,7 +28978,7 @@
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
-      <c r="I618" s="91"/>
+      <c r="I618" s="92"/>
       <c r="J618" s="3"/>
       <c r="K618" s="35"/>
       <c r="L618" s="3"/>
@@ -28986,7 +28993,7 @@
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
-      <c r="I619" s="91"/>
+      <c r="I619" s="92"/>
       <c r="J619" s="3"/>
       <c r="K619" s="35"/>
       <c r="L619" s="3"/>
@@ -29001,7 +29008,7 @@
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
-      <c r="I620" s="91"/>
+      <c r="I620" s="92"/>
       <c r="J620" s="3"/>
       <c r="K620" s="35"/>
       <c r="L620" s="3"/>
@@ -29016,7 +29023,7 @@
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
-      <c r="I621" s="91"/>
+      <c r="I621" s="92"/>
       <c r="J621" s="3"/>
       <c r="K621" s="35"/>
       <c r="L621" s="3"/>
@@ -29031,7 +29038,7 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
-      <c r="I622" s="91"/>
+      <c r="I622" s="92"/>
       <c r="J622" s="3"/>
       <c r="K622" s="35"/>
       <c r="L622" s="3"/>
@@ -29046,7 +29053,7 @@
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
-      <c r="I623" s="91"/>
+      <c r="I623" s="92"/>
       <c r="J623" s="3"/>
       <c r="K623" s="35"/>
       <c r="L623" s="3"/>
@@ -29061,7 +29068,7 @@
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
-      <c r="I624" s="91"/>
+      <c r="I624" s="92"/>
       <c r="J624" s="3"/>
       <c r="K624" s="35"/>
       <c r="L624" s="3"/>
@@ -29076,7 +29083,7 @@
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
-      <c r="I625" s="91"/>
+      <c r="I625" s="92"/>
       <c r="J625" s="3"/>
       <c r="K625" s="35"/>
       <c r="L625" s="3"/>
@@ -29091,7 +29098,7 @@
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
-      <c r="I626" s="91"/>
+      <c r="I626" s="92"/>
       <c r="J626" s="3"/>
       <c r="K626" s="35"/>
       <c r="L626" s="3"/>
@@ -29106,7 +29113,7 @@
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
-      <c r="I627" s="91"/>
+      <c r="I627" s="92"/>
       <c r="J627" s="3"/>
       <c r="K627" s="35"/>
       <c r="L627" s="3"/>
@@ -29121,7 +29128,7 @@
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
-      <c r="I628" s="91"/>
+      <c r="I628" s="92"/>
       <c r="J628" s="3"/>
       <c r="K628" s="35"/>
       <c r="L628" s="3"/>
@@ -29136,7 +29143,7 @@
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
-      <c r="I629" s="91"/>
+      <c r="I629" s="92"/>
       <c r="J629" s="3"/>
       <c r="K629" s="35"/>
       <c r="L629" s="3"/>
@@ -29151,7 +29158,7 @@
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
-      <c r="I630" s="91"/>
+      <c r="I630" s="92"/>
       <c r="J630" s="3"/>
       <c r="K630" s="35"/>
       <c r="L630" s="3"/>
@@ -29166,7 +29173,7 @@
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
-      <c r="I631" s="91"/>
+      <c r="I631" s="92"/>
       <c r="J631" s="3"/>
       <c r="K631" s="35"/>
       <c r="L631" s="3"/>
@@ -29181,7 +29188,7 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
-      <c r="I632" s="91"/>
+      <c r="I632" s="92"/>
       <c r="J632" s="3"/>
       <c r="K632" s="35"/>
       <c r="L632" s="3"/>
@@ -29196,7 +29203,7 @@
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
-      <c r="I633" s="91"/>
+      <c r="I633" s="92"/>
       <c r="J633" s="3"/>
       <c r="K633" s="35"/>
       <c r="L633" s="3"/>
@@ -29211,7 +29218,7 @@
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
-      <c r="I634" s="91"/>
+      <c r="I634" s="92"/>
       <c r="J634" s="3"/>
       <c r="K634" s="35"/>
       <c r="L634" s="3"/>
@@ -29226,7 +29233,7 @@
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
-      <c r="I635" s="91"/>
+      <c r="I635" s="92"/>
       <c r="J635" s="3"/>
       <c r="K635" s="35"/>
       <c r="L635" s="3"/>
@@ -29241,7 +29248,7 @@
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
-      <c r="I636" s="91"/>
+      <c r="I636" s="92"/>
       <c r="J636" s="3"/>
       <c r="K636" s="35"/>
       <c r="L636" s="3"/>
@@ -29256,7 +29263,7 @@
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
-      <c r="I637" s="91"/>
+      <c r="I637" s="92"/>
       <c r="J637" s="3"/>
       <c r="K637" s="35"/>
       <c r="L637" s="3"/>
@@ -29271,7 +29278,7 @@
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
-      <c r="I638" s="91"/>
+      <c r="I638" s="92"/>
       <c r="J638" s="3"/>
       <c r="K638" s="35"/>
       <c r="L638" s="3"/>
@@ -29286,7 +29293,7 @@
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
-      <c r="I639" s="91"/>
+      <c r="I639" s="92"/>
       <c r="J639" s="3"/>
       <c r="K639" s="35"/>
       <c r="L639" s="3"/>
@@ -29301,7 +29308,7 @@
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
-      <c r="I640" s="91"/>
+      <c r="I640" s="92"/>
       <c r="J640" s="3"/>
       <c r="K640" s="35"/>
       <c r="L640" s="3"/>
@@ -29316,7 +29323,7 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
-      <c r="I641" s="91"/>
+      <c r="I641" s="92"/>
       <c r="J641" s="3"/>
       <c r="K641" s="35"/>
       <c r="L641" s="3"/>
@@ -29331,7 +29338,7 @@
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
-      <c r="I642" s="91"/>
+      <c r="I642" s="92"/>
       <c r="J642" s="3"/>
       <c r="K642" s="35"/>
       <c r="L642" s="3"/>
@@ -29346,7 +29353,7 @@
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
-      <c r="I643" s="91"/>
+      <c r="I643" s="92"/>
       <c r="J643" s="3"/>
       <c r="K643" s="35"/>
       <c r="L643" s="3"/>
@@ -29361,7 +29368,7 @@
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
-      <c r="I644" s="91"/>
+      <c r="I644" s="92"/>
       <c r="J644" s="3"/>
       <c r="K644" s="35"/>
       <c r="L644" s="3"/>
@@ -29376,7 +29383,7 @@
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
-      <c r="I645" s="91"/>
+      <c r="I645" s="92"/>
       <c r="J645" s="3"/>
       <c r="K645" s="35"/>
       <c r="L645" s="3"/>
@@ -29391,7 +29398,7 @@
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
-      <c r="I646" s="91"/>
+      <c r="I646" s="92"/>
       <c r="J646" s="3"/>
       <c r="K646" s="35"/>
       <c r="L646" s="3"/>
@@ -29406,7 +29413,7 @@
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
-      <c r="I647" s="91"/>
+      <c r="I647" s="92"/>
       <c r="J647" s="3"/>
       <c r="K647" s="35"/>
       <c r="L647" s="3"/>
@@ -29421,7 +29428,7 @@
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
-      <c r="I648" s="91"/>
+      <c r="I648" s="92"/>
       <c r="J648" s="3"/>
       <c r="K648" s="35"/>
       <c r="L648" s="3"/>
@@ -29436,7 +29443,7 @@
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
-      <c r="I649" s="91"/>
+      <c r="I649" s="92"/>
       <c r="J649" s="3"/>
       <c r="K649" s="35"/>
       <c r="L649" s="3"/>
@@ -29451,7 +29458,7 @@
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
-      <c r="I650" s="91"/>
+      <c r="I650" s="92"/>
       <c r="J650" s="3"/>
       <c r="K650" s="35"/>
       <c r="L650" s="3"/>
@@ -29466,7 +29473,7 @@
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
-      <c r="I651" s="91"/>
+      <c r="I651" s="92"/>
       <c r="J651" s="3"/>
       <c r="K651" s="35"/>
       <c r="L651" s="3"/>
@@ -29481,7 +29488,7 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
-      <c r="I652" s="91"/>
+      <c r="I652" s="92"/>
       <c r="J652" s="3"/>
       <c r="K652" s="35"/>
       <c r="L652" s="3"/>
@@ -29496,7 +29503,7 @@
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
-      <c r="I653" s="91"/>
+      <c r="I653" s="92"/>
       <c r="J653" s="3"/>
       <c r="K653" s="35"/>
       <c r="L653" s="3"/>
@@ -29511,7 +29518,7 @@
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
-      <c r="I654" s="91"/>
+      <c r="I654" s="92"/>
       <c r="J654" s="3"/>
       <c r="K654" s="35"/>
       <c r="L654" s="3"/>
@@ -29526,7 +29533,7 @@
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
-      <c r="I655" s="91"/>
+      <c r="I655" s="92"/>
       <c r="J655" s="3"/>
       <c r="K655" s="35"/>
       <c r="L655" s="3"/>
@@ -29541,7 +29548,7 @@
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
-      <c r="I656" s="91"/>
+      <c r="I656" s="92"/>
       <c r="J656" s="3"/>
       <c r="K656" s="35"/>
       <c r="L656" s="3"/>
@@ -29556,7 +29563,7 @@
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
-      <c r="I657" s="91"/>
+      <c r="I657" s="92"/>
       <c r="J657" s="3"/>
       <c r="K657" s="35"/>
       <c r="L657" s="3"/>
@@ -29571,7 +29578,7 @@
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
-      <c r="I658" s="91"/>
+      <c r="I658" s="92"/>
       <c r="J658" s="3"/>
       <c r="K658" s="35"/>
       <c r="L658" s="3"/>
@@ -29586,7 +29593,7 @@
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
-      <c r="I659" s="91"/>
+      <c r="I659" s="92"/>
       <c r="J659" s="3"/>
       <c r="K659" s="35"/>
       <c r="L659" s="3"/>
@@ -29601,7 +29608,7 @@
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
-      <c r="I660" s="91"/>
+      <c r="I660" s="92"/>
       <c r="J660" s="3"/>
       <c r="K660" s="35"/>
       <c r="L660" s="3"/>
@@ -29616,7 +29623,7 @@
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
-      <c r="I661" s="91"/>
+      <c r="I661" s="92"/>
       <c r="J661" s="3"/>
       <c r="K661" s="35"/>
       <c r="L661" s="3"/>
@@ -29631,7 +29638,7 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
-      <c r="I662" s="91"/>
+      <c r="I662" s="92"/>
       <c r="J662" s="3"/>
       <c r="K662" s="35"/>
       <c r="L662" s="3"/>
@@ -29646,7 +29653,7 @@
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
-      <c r="I663" s="91"/>
+      <c r="I663" s="92"/>
       <c r="J663" s="3"/>
       <c r="K663" s="35"/>
       <c r="L663" s="3"/>
@@ -29661,7 +29668,7 @@
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
-      <c r="I664" s="91"/>
+      <c r="I664" s="92"/>
       <c r="J664" s="3"/>
       <c r="K664" s="35"/>
       <c r="L664" s="3"/>
@@ -29676,7 +29683,7 @@
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
-      <c r="I665" s="91"/>
+      <c r="I665" s="92"/>
       <c r="J665" s="3"/>
       <c r="K665" s="35"/>
       <c r="L665" s="3"/>
@@ -29691,7 +29698,7 @@
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
-      <c r="I666" s="91"/>
+      <c r="I666" s="92"/>
       <c r="J666" s="3"/>
       <c r="K666" s="35"/>
       <c r="L666" s="3"/>
@@ -29706,7 +29713,7 @@
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
-      <c r="I667" s="91"/>
+      <c r="I667" s="92"/>
       <c r="J667" s="3"/>
       <c r="K667" s="35"/>
       <c r="L667" s="3"/>
@@ -29721,7 +29728,7 @@
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
-      <c r="I668" s="91"/>
+      <c r="I668" s="92"/>
       <c r="J668" s="3"/>
       <c r="K668" s="35"/>
       <c r="L668" s="3"/>
@@ -29736,7 +29743,7 @@
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
-      <c r="I669" s="91"/>
+      <c r="I669" s="92"/>
       <c r="J669" s="3"/>
       <c r="K669" s="35"/>
       <c r="L669" s="3"/>
@@ -29751,7 +29758,7 @@
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
-      <c r="I670" s="91"/>
+      <c r="I670" s="92"/>
       <c r="J670" s="3"/>
       <c r="K670" s="35"/>
       <c r="L670" s="3"/>
@@ -29766,7 +29773,7 @@
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
-      <c r="I671" s="91"/>
+      <c r="I671" s="92"/>
       <c r="J671" s="3"/>
       <c r="K671" s="35"/>
       <c r="L671" s="3"/>
@@ -29781,7 +29788,7 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
-      <c r="I672" s="91"/>
+      <c r="I672" s="92"/>
       <c r="J672" s="3"/>
       <c r="K672" s="35"/>
       <c r="L672" s="3"/>
@@ -29796,7 +29803,7 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
-      <c r="I673" s="91"/>
+      <c r="I673" s="92"/>
       <c r="J673" s="3"/>
       <c r="K673" s="35"/>
       <c r="L673" s="3"/>
@@ -29811,7 +29818,7 @@
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
-      <c r="I674" s="91"/>
+      <c r="I674" s="92"/>
       <c r="J674" s="3"/>
       <c r="K674" s="35"/>
       <c r="L674" s="3"/>
@@ -29826,7 +29833,7 @@
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
-      <c r="I675" s="91"/>
+      <c r="I675" s="92"/>
       <c r="J675" s="3"/>
       <c r="K675" s="35"/>
       <c r="L675" s="3"/>
@@ -29841,7 +29848,7 @@
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
-      <c r="I676" s="91"/>
+      <c r="I676" s="92"/>
       <c r="J676" s="3"/>
       <c r="K676" s="35"/>
       <c r="L676" s="3"/>
@@ -29856,7 +29863,7 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
-      <c r="I677" s="91"/>
+      <c r="I677" s="92"/>
       <c r="J677" s="3"/>
       <c r="K677" s="35"/>
       <c r="L677" s="3"/>
@@ -29871,7 +29878,7 @@
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
-      <c r="I678" s="91"/>
+      <c r="I678" s="92"/>
       <c r="J678" s="3"/>
       <c r="K678" s="35"/>
       <c r="L678" s="3"/>
@@ -29886,7 +29893,7 @@
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
-      <c r="I679" s="91"/>
+      <c r="I679" s="92"/>
       <c r="J679" s="3"/>
       <c r="K679" s="35"/>
       <c r="L679" s="3"/>
@@ -29901,7 +29908,7 @@
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
-      <c r="I680" s="91"/>
+      <c r="I680" s="92"/>
       <c r="J680" s="3"/>
       <c r="K680" s="35"/>
       <c r="L680" s="3"/>
@@ -29916,7 +29923,7 @@
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
-      <c r="I681" s="91"/>
+      <c r="I681" s="92"/>
       <c r="J681" s="3"/>
       <c r="K681" s="35"/>
       <c r="L681" s="3"/>
@@ -29931,7 +29938,7 @@
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
-      <c r="I682" s="91"/>
+      <c r="I682" s="92"/>
       <c r="J682" s="3"/>
       <c r="K682" s="35"/>
       <c r="L682" s="3"/>
@@ -29946,7 +29953,7 @@
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
-      <c r="I683" s="91"/>
+      <c r="I683" s="92"/>
       <c r="J683" s="3"/>
       <c r="K683" s="35"/>
       <c r="L683" s="3"/>
@@ -29961,7 +29968,7 @@
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
-      <c r="I684" s="91"/>
+      <c r="I684" s="92"/>
       <c r="J684" s="3"/>
       <c r="K684" s="35"/>
       <c r="L684" s="3"/>
@@ -29976,7 +29983,7 @@
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
-      <c r="I685" s="91"/>
+      <c r="I685" s="92"/>
       <c r="J685" s="3"/>
       <c r="K685" s="35"/>
       <c r="L685" s="3"/>
@@ -29991,7 +29998,7 @@
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
-      <c r="I686" s="91"/>
+      <c r="I686" s="92"/>
       <c r="J686" s="3"/>
       <c r="K686" s="35"/>
       <c r="L686" s="3"/>
@@ -30006,7 +30013,7 @@
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
-      <c r="I687" s="91"/>
+      <c r="I687" s="92"/>
       <c r="J687" s="3"/>
       <c r="K687" s="35"/>
       <c r="L687" s="3"/>
@@ -30021,7 +30028,7 @@
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
-      <c r="I688" s="91"/>
+      <c r="I688" s="92"/>
       <c r="J688" s="3"/>
       <c r="K688" s="35"/>
       <c r="L688" s="3"/>
@@ -30036,7 +30043,7 @@
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
-      <c r="I689" s="91"/>
+      <c r="I689" s="92"/>
       <c r="J689" s="3"/>
       <c r="K689" s="35"/>
       <c r="L689" s="3"/>
@@ -30051,7 +30058,7 @@
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
-      <c r="I690" s="91"/>
+      <c r="I690" s="92"/>
       <c r="J690" s="3"/>
       <c r="K690" s="35"/>
       <c r="L690" s="3"/>
@@ -30066,7 +30073,7 @@
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
-      <c r="I691" s="91"/>
+      <c r="I691" s="92"/>
       <c r="J691" s="3"/>
       <c r="K691" s="35"/>
       <c r="L691" s="3"/>
@@ -30081,7 +30088,7 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
-      <c r="I692" s="91"/>
+      <c r="I692" s="92"/>
       <c r="J692" s="3"/>
       <c r="K692" s="35"/>
       <c r="L692" s="3"/>
@@ -30096,7 +30103,7 @@
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
-      <c r="I693" s="91"/>
+      <c r="I693" s="92"/>
       <c r="J693" s="3"/>
       <c r="K693" s="35"/>
       <c r="L693" s="3"/>
@@ -30111,7 +30118,7 @@
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
-      <c r="I694" s="91"/>
+      <c r="I694" s="92"/>
       <c r="J694" s="3"/>
       <c r="K694" s="35"/>
       <c r="L694" s="3"/>
@@ -30126,7 +30133,7 @@
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
-      <c r="I695" s="91"/>
+      <c r="I695" s="92"/>
       <c r="J695" s="3"/>
       <c r="K695" s="35"/>
       <c r="L695" s="3"/>
@@ -30141,7 +30148,7 @@
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
-      <c r="I696" s="91"/>
+      <c r="I696" s="92"/>
       <c r="J696" s="3"/>
       <c r="K696" s="35"/>
       <c r="L696" s="3"/>
@@ -30156,7 +30163,7 @@
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
-      <c r="I697" s="91"/>
+      <c r="I697" s="92"/>
       <c r="J697" s="3"/>
       <c r="K697" s="35"/>
       <c r="L697" s="3"/>
@@ -30171,7 +30178,7 @@
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
-      <c r="I698" s="91"/>
+      <c r="I698" s="92"/>
       <c r="J698" s="3"/>
       <c r="K698" s="35"/>
       <c r="L698" s="3"/>
@@ -30186,7 +30193,7 @@
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
-      <c r="I699" s="91"/>
+      <c r="I699" s="92"/>
       <c r="J699" s="3"/>
       <c r="K699" s="35"/>
       <c r="L699" s="3"/>
@@ -30201,7 +30208,7 @@
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
-      <c r="I700" s="91"/>
+      <c r="I700" s="92"/>
       <c r="J700" s="3"/>
       <c r="K700" s="35"/>
       <c r="L700" s="3"/>
@@ -30216,7 +30223,7 @@
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
-      <c r="I701" s="91"/>
+      <c r="I701" s="92"/>
       <c r="J701" s="3"/>
       <c r="K701" s="35"/>
       <c r="L701" s="3"/>
@@ -30231,7 +30238,7 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
-      <c r="I702" s="91"/>
+      <c r="I702" s="92"/>
       <c r="J702" s="3"/>
       <c r="K702" s="35"/>
       <c r="L702" s="3"/>
@@ -30246,7 +30253,7 @@
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
-      <c r="I703" s="91"/>
+      <c r="I703" s="92"/>
       <c r="J703" s="3"/>
       <c r="K703" s="35"/>
       <c r="L703" s="3"/>
@@ -30261,7 +30268,7 @@
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
-      <c r="I704" s="91"/>
+      <c r="I704" s="92"/>
       <c r="J704" s="3"/>
       <c r="K704" s="35"/>
       <c r="L704" s="3"/>
@@ -30276,7 +30283,7 @@
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
-      <c r="I705" s="91"/>
+      <c r="I705" s="92"/>
       <c r="J705" s="3"/>
       <c r="K705" s="35"/>
       <c r="L705" s="3"/>
@@ -30291,7 +30298,7 @@
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
-      <c r="I706" s="91"/>
+      <c r="I706" s="92"/>
       <c r="J706" s="3"/>
       <c r="K706" s="35"/>
       <c r="L706" s="3"/>
@@ -30306,7 +30313,7 @@
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
-      <c r="I707" s="91"/>
+      <c r="I707" s="92"/>
       <c r="J707" s="3"/>
       <c r="K707" s="35"/>
       <c r="L707" s="3"/>
@@ -30321,7 +30328,7 @@
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
-      <c r="I708" s="91"/>
+      <c r="I708" s="92"/>
       <c r="J708" s="3"/>
       <c r="K708" s="35"/>
       <c r="L708" s="3"/>
@@ -30336,7 +30343,7 @@
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
-      <c r="I709" s="91"/>
+      <c r="I709" s="92"/>
       <c r="J709" s="3"/>
       <c r="K709" s="35"/>
       <c r="L709" s="3"/>
@@ -30351,7 +30358,7 @@
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
-      <c r="I710" s="91"/>
+      <c r="I710" s="92"/>
       <c r="J710" s="3"/>
       <c r="K710" s="35"/>
       <c r="L710" s="3"/>
@@ -30366,7 +30373,7 @@
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
-      <c r="I711" s="91"/>
+      <c r="I711" s="92"/>
       <c r="J711" s="3"/>
       <c r="K711" s="35"/>
       <c r="L711" s="3"/>
@@ -30381,7 +30388,7 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
-      <c r="I712" s="91"/>
+      <c r="I712" s="92"/>
       <c r="J712" s="3"/>
       <c r="K712" s="35"/>
       <c r="L712" s="3"/>
@@ -30396,7 +30403,7 @@
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
-      <c r="I713" s="91"/>
+      <c r="I713" s="92"/>
       <c r="J713" s="3"/>
       <c r="K713" s="35"/>
       <c r="L713" s="3"/>
@@ -30411,7 +30418,7 @@
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
       <c r="H714" s="4"/>
-      <c r="I714" s="91"/>
+      <c r="I714" s="92"/>
       <c r="J714" s="3"/>
       <c r="K714" s="35"/>
       <c r="L714" s="3"/>
@@ -30426,7 +30433,7 @@
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
-      <c r="I715" s="91"/>
+      <c r="I715" s="92"/>
       <c r="J715" s="3"/>
       <c r="K715" s="35"/>
       <c r="L715" s="3"/>
@@ -30441,7 +30448,7 @@
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
       <c r="H716" s="4"/>
-      <c r="I716" s="91"/>
+      <c r="I716" s="92"/>
       <c r="J716" s="3"/>
       <c r="K716" s="35"/>
       <c r="L716" s="3"/>
@@ -30456,7 +30463,7 @@
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
-      <c r="I717" s="91"/>
+      <c r="I717" s="92"/>
       <c r="J717" s="3"/>
       <c r="K717" s="35"/>
       <c r="L717" s="3"/>
@@ -30471,7 +30478,7 @@
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
-      <c r="I718" s="91"/>
+      <c r="I718" s="92"/>
       <c r="J718" s="3"/>
       <c r="K718" s="35"/>
       <c r="L718" s="3"/>
@@ -30486,7 +30493,7 @@
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
-      <c r="I719" s="91"/>
+      <c r="I719" s="92"/>
       <c r="J719" s="3"/>
       <c r="K719" s="35"/>
       <c r="L719" s="3"/>
@@ -30501,7 +30508,7 @@
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
-      <c r="I720" s="91"/>
+      <c r="I720" s="92"/>
       <c r="J720" s="3"/>
       <c r="K720" s="35"/>
       <c r="L720" s="3"/>
@@ -30516,7 +30523,7 @@
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
-      <c r="I721" s="91"/>
+      <c r="I721" s="92"/>
       <c r="J721" s="3"/>
       <c r="K721" s="35"/>
       <c r="L721" s="3"/>
@@ -30531,7 +30538,7 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
-      <c r="I722" s="91"/>
+      <c r="I722" s="92"/>
       <c r="J722" s="3"/>
       <c r="K722" s="35"/>
       <c r="L722" s="3"/>
@@ -30546,7 +30553,7 @@
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
-      <c r="I723" s="91"/>
+      <c r="I723" s="92"/>
       <c r="J723" s="3"/>
       <c r="K723" s="35"/>
       <c r="L723" s="3"/>
@@ -30561,7 +30568,7 @@
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
-      <c r="I724" s="91"/>
+      <c r="I724" s="92"/>
       <c r="J724" s="3"/>
       <c r="K724" s="35"/>
       <c r="L724" s="3"/>
@@ -30576,7 +30583,7 @@
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
-      <c r="I725" s="91"/>
+      <c r="I725" s="92"/>
       <c r="J725" s="3"/>
       <c r="K725" s="35"/>
       <c r="L725" s="3"/>
@@ -30591,7 +30598,7 @@
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
       <c r="H726" s="4"/>
-      <c r="I726" s="91"/>
+      <c r="I726" s="92"/>
       <c r="J726" s="3"/>
       <c r="K726" s="35"/>
       <c r="L726" s="3"/>
@@ -30606,7 +30613,7 @@
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
       <c r="H727" s="4"/>
-      <c r="I727" s="91"/>
+      <c r="I727" s="92"/>
       <c r="J727" s="3"/>
       <c r="K727" s="35"/>
       <c r="L727" s="3"/>
@@ -30621,7 +30628,7 @@
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
-      <c r="I728" s="91"/>
+      <c r="I728" s="92"/>
       <c r="J728" s="3"/>
       <c r="K728" s="35"/>
       <c r="L728" s="3"/>
@@ -30636,7 +30643,7 @@
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
-      <c r="I729" s="91"/>
+      <c r="I729" s="92"/>
       <c r="J729" s="3"/>
       <c r="K729" s="35"/>
       <c r="L729" s="3"/>
@@ -30651,7 +30658,7 @@
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
-      <c r="I730" s="91"/>
+      <c r="I730" s="92"/>
       <c r="J730" s="3"/>
       <c r="K730" s="35"/>
       <c r="L730" s="3"/>
@@ -30666,7 +30673,7 @@
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
       <c r="H731" s="4"/>
-      <c r="I731" s="91"/>
+      <c r="I731" s="92"/>
       <c r="J731" s="3"/>
       <c r="K731" s="35"/>
       <c r="L731" s="3"/>
@@ -30681,7 +30688,7 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
-      <c r="I732" s="91"/>
+      <c r="I732" s="92"/>
       <c r="J732" s="3"/>
       <c r="K732" s="35"/>
       <c r="L732" s="3"/>
@@ -30696,7 +30703,7 @@
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
-      <c r="I733" s="91"/>
+      <c r="I733" s="92"/>
       <c r="J733" s="3"/>
       <c r="K733" s="35"/>
       <c r="L733" s="3"/>
@@ -30711,7 +30718,7 @@
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
-      <c r="I734" s="91"/>
+      <c r="I734" s="92"/>
       <c r="J734" s="3"/>
       <c r="K734" s="35"/>
       <c r="L734" s="3"/>
@@ -30726,7 +30733,7 @@
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
       <c r="H735" s="4"/>
-      <c r="I735" s="91"/>
+      <c r="I735" s="92"/>
       <c r="J735" s="3"/>
       <c r="K735" s="35"/>
       <c r="L735" s="3"/>
@@ -30741,7 +30748,7 @@
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
       <c r="H736" s="4"/>
-      <c r="I736" s="91"/>
+      <c r="I736" s="92"/>
       <c r="J736" s="3"/>
       <c r="K736" s="35"/>
       <c r="L736" s="3"/>
@@ -30756,7 +30763,7 @@
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
       <c r="H737" s="4"/>
-      <c r="I737" s="91"/>
+      <c r="I737" s="92"/>
       <c r="J737" s="3"/>
       <c r="K737" s="35"/>
       <c r="L737" s="3"/>
@@ -30771,7 +30778,7 @@
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
-      <c r="I738" s="91"/>
+      <c r="I738" s="92"/>
       <c r="J738" s="3"/>
       <c r="K738" s="35"/>
       <c r="L738" s="3"/>
@@ -30786,7 +30793,7 @@
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
-      <c r="I739" s="91"/>
+      <c r="I739" s="92"/>
       <c r="J739" s="3"/>
       <c r="K739" s="35"/>
       <c r="L739" s="3"/>
@@ -30801,7 +30808,7 @@
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
       <c r="H740" s="4"/>
-      <c r="I740" s="91"/>
+      <c r="I740" s="92"/>
       <c r="J740" s="3"/>
       <c r="K740" s="35"/>
       <c r="L740" s="3"/>
@@ -30816,7 +30823,7 @@
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
-      <c r="I741" s="91"/>
+      <c r="I741" s="92"/>
       <c r="J741" s="3"/>
       <c r="K741" s="35"/>
       <c r="L741" s="3"/>
@@ -30831,7 +30838,7 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
-      <c r="I742" s="91"/>
+      <c r="I742" s="92"/>
       <c r="J742" s="3"/>
       <c r="K742" s="35"/>
       <c r="L742" s="3"/>
@@ -30846,7 +30853,7 @@
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
-      <c r="I743" s="91"/>
+      <c r="I743" s="92"/>
       <c r="J743" s="3"/>
       <c r="K743" s="35"/>
       <c r="L743" s="3"/>
@@ -30861,7 +30868,7 @@
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
-      <c r="I744" s="91"/>
+      <c r="I744" s="92"/>
       <c r="J744" s="3"/>
       <c r="K744" s="35"/>
       <c r="L744" s="3"/>
@@ -30876,7 +30883,7 @@
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
-      <c r="I745" s="91"/>
+      <c r="I745" s="92"/>
       <c r="J745" s="3"/>
       <c r="K745" s="35"/>
       <c r="L745" s="3"/>
@@ -30891,7 +30898,7 @@
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
-      <c r="I746" s="91"/>
+      <c r="I746" s="92"/>
       <c r="J746" s="3"/>
       <c r="K746" s="35"/>
       <c r="L746" s="3"/>
@@ -30906,7 +30913,7 @@
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
-      <c r="I747" s="91"/>
+      <c r="I747" s="92"/>
       <c r="J747" s="3"/>
       <c r="K747" s="35"/>
       <c r="L747" s="3"/>
@@ -30921,7 +30928,7 @@
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
-      <c r="I748" s="91"/>
+      <c r="I748" s="92"/>
       <c r="J748" s="3"/>
       <c r="K748" s="35"/>
       <c r="L748" s="3"/>
@@ -30936,7 +30943,7 @@
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
-      <c r="I749" s="91"/>
+      <c r="I749" s="92"/>
       <c r="J749" s="3"/>
       <c r="K749" s="35"/>
       <c r="L749" s="3"/>
@@ -30951,7 +30958,7 @@
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
-      <c r="I750" s="91"/>
+      <c r="I750" s="92"/>
       <c r="J750" s="3"/>
       <c r="K750" s="35"/>
       <c r="L750" s="3"/>
@@ -30966,7 +30973,7 @@
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
-      <c r="I751" s="91"/>
+      <c r="I751" s="92"/>
       <c r="J751" s="3"/>
       <c r="K751" s="35"/>
       <c r="L751" s="3"/>
@@ -30981,7 +30988,7 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
-      <c r="I752" s="91"/>
+      <c r="I752" s="92"/>
       <c r="J752" s="3"/>
       <c r="K752" s="35"/>
       <c r="L752" s="3"/>
@@ -30996,7 +31003,7 @@
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
-      <c r="I753" s="91"/>
+      <c r="I753" s="92"/>
       <c r="J753" s="3"/>
       <c r="K753" s="35"/>
       <c r="L753" s="3"/>
@@ -31011,7 +31018,7 @@
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
-      <c r="I754" s="91"/>
+      <c r="I754" s="92"/>
       <c r="J754" s="3"/>
       <c r="K754" s="35"/>
       <c r="L754" s="3"/>
@@ -31026,7 +31033,7 @@
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
-      <c r="I755" s="91"/>
+      <c r="I755" s="92"/>
       <c r="J755" s="3"/>
       <c r="K755" s="35"/>
       <c r="L755" s="3"/>
@@ -31041,7 +31048,7 @@
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
-      <c r="I756" s="91"/>
+      <c r="I756" s="92"/>
       <c r="J756" s="3"/>
       <c r="K756" s="35"/>
       <c r="L756" s="3"/>
@@ -31056,7 +31063,7 @@
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
-      <c r="I757" s="91"/>
+      <c r="I757" s="92"/>
       <c r="J757" s="3"/>
       <c r="K757" s="35"/>
       <c r="L757" s="3"/>
@@ -31071,7 +31078,7 @@
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
-      <c r="I758" s="91"/>
+      <c r="I758" s="92"/>
       <c r="J758" s="3"/>
       <c r="K758" s="35"/>
       <c r="L758" s="3"/>
@@ -31086,7 +31093,7 @@
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
-      <c r="I759" s="91"/>
+      <c r="I759" s="92"/>
       <c r="J759" s="3"/>
       <c r="K759" s="35"/>
       <c r="L759" s="3"/>
@@ -31101,7 +31108,7 @@
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
-      <c r="I760" s="91"/>
+      <c r="I760" s="92"/>
       <c r="J760" s="3"/>
       <c r="K760" s="35"/>
       <c r="L760" s="3"/>
@@ -31116,7 +31123,7 @@
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
-      <c r="I761" s="91"/>
+      <c r="I761" s="92"/>
       <c r="J761" s="3"/>
       <c r="K761" s="35"/>
       <c r="L761" s="3"/>
@@ -31131,7 +31138,7 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
-      <c r="I762" s="91"/>
+      <c r="I762" s="92"/>
       <c r="J762" s="3"/>
       <c r="K762" s="35"/>
       <c r="L762" s="3"/>
@@ -31146,7 +31153,7 @@
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
-      <c r="I763" s="91"/>
+      <c r="I763" s="92"/>
       <c r="J763" s="3"/>
       <c r="K763" s="35"/>
       <c r="L763" s="3"/>
@@ -31161,7 +31168,7 @@
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
-      <c r="I764" s="91"/>
+      <c r="I764" s="92"/>
       <c r="J764" s="3"/>
       <c r="K764" s="35"/>
       <c r="L764" s="3"/>
@@ -31176,7 +31183,7 @@
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
       <c r="H765" s="4"/>
-      <c r="I765" s="91"/>
+      <c r="I765" s="92"/>
       <c r="J765" s="3"/>
       <c r="K765" s="35"/>
       <c r="L765" s="3"/>
@@ -31191,7 +31198,7 @@
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
       <c r="H766" s="4"/>
-      <c r="I766" s="91"/>
+      <c r="I766" s="92"/>
       <c r="J766" s="3"/>
       <c r="K766" s="35"/>
       <c r="L766" s="3"/>
@@ -31206,7 +31213,7 @@
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
       <c r="H767" s="4"/>
-      <c r="I767" s="91"/>
+      <c r="I767" s="92"/>
       <c r="J767" s="3"/>
       <c r="K767" s="35"/>
       <c r="L767" s="3"/>
@@ -31221,7 +31228,7 @@
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
-      <c r="I768" s="91"/>
+      <c r="I768" s="92"/>
       <c r="J768" s="3"/>
       <c r="K768" s="35"/>
       <c r="L768" s="3"/>
@@ -31236,7 +31243,7 @@
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
-      <c r="I769" s="91"/>
+      <c r="I769" s="92"/>
       <c r="J769" s="3"/>
       <c r="K769" s="35"/>
       <c r="L769" s="3"/>
@@ -31251,7 +31258,7 @@
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
-      <c r="I770" s="91"/>
+      <c r="I770" s="92"/>
       <c r="J770" s="3"/>
       <c r="K770" s="35"/>
       <c r="L770" s="3"/>
@@ -31266,7 +31273,7 @@
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
-      <c r="I771" s="91"/>
+      <c r="I771" s="92"/>
       <c r="J771" s="3"/>
       <c r="K771" s="35"/>
       <c r="L771" s="3"/>
@@ -31281,7 +31288,7 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
-      <c r="I772" s="91"/>
+      <c r="I772" s="92"/>
       <c r="J772" s="3"/>
       <c r="K772" s="35"/>
       <c r="L772" s="3"/>
@@ -31296,7 +31303,7 @@
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
-      <c r="I773" s="91"/>
+      <c r="I773" s="92"/>
       <c r="J773" s="3"/>
       <c r="K773" s="35"/>
       <c r="L773" s="3"/>
@@ -31311,7 +31318,7 @@
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
       <c r="H774" s="4"/>
-      <c r="I774" s="91"/>
+      <c r="I774" s="92"/>
       <c r="J774" s="3"/>
       <c r="K774" s="35"/>
       <c r="L774" s="3"/>
@@ -31326,7 +31333,7 @@
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
-      <c r="I775" s="91"/>
+      <c r="I775" s="92"/>
       <c r="J775" s="3"/>
       <c r="K775" s="35"/>
       <c r="L775" s="3"/>
@@ -31341,7 +31348,7 @@
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
-      <c r="I776" s="91"/>
+      <c r="I776" s="92"/>
       <c r="J776" s="3"/>
       <c r="K776" s="35"/>
       <c r="L776" s="3"/>
@@ -31356,7 +31363,7 @@
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
-      <c r="I777" s="91"/>
+      <c r="I777" s="92"/>
       <c r="J777" s="3"/>
       <c r="K777" s="35"/>
       <c r="L777" s="3"/>
@@ -31371,7 +31378,7 @@
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
-      <c r="I778" s="91"/>
+      <c r="I778" s="92"/>
       <c r="J778" s="3"/>
       <c r="K778" s="35"/>
       <c r="L778" s="3"/>
@@ -31386,7 +31393,7 @@
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
-      <c r="I779" s="91"/>
+      <c r="I779" s="92"/>
       <c r="J779" s="3"/>
       <c r="K779" s="35"/>
       <c r="L779" s="3"/>
@@ -31401,7 +31408,7 @@
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
-      <c r="I780" s="91"/>
+      <c r="I780" s="92"/>
       <c r="J780" s="3"/>
       <c r="K780" s="35"/>
       <c r="L780" s="3"/>
@@ -31416,7 +31423,7 @@
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
-      <c r="I781" s="91"/>
+      <c r="I781" s="92"/>
       <c r="J781" s="3"/>
       <c r="K781" s="35"/>
       <c r="L781" s="3"/>
@@ -31431,7 +31438,7 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
-      <c r="I782" s="91"/>
+      <c r="I782" s="92"/>
       <c r="J782" s="3"/>
       <c r="K782" s="35"/>
       <c r="L782" s="3"/>
@@ -31446,7 +31453,7 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
-      <c r="I783" s="91"/>
+      <c r="I783" s="92"/>
       <c r="J783" s="3"/>
       <c r="K783" s="35"/>
       <c r="L783" s="3"/>
@@ -31461,7 +31468,7 @@
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
-      <c r="I784" s="91"/>
+      <c r="I784" s="92"/>
       <c r="J784" s="3"/>
       <c r="K784" s="35"/>
       <c r="L784" s="3"/>
@@ -31476,7 +31483,7 @@
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
-      <c r="I785" s="91"/>
+      <c r="I785" s="92"/>
       <c r="J785" s="3"/>
       <c r="K785" s="35"/>
       <c r="L785" s="3"/>
@@ -31491,7 +31498,7 @@
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
-      <c r="I786" s="91"/>
+      <c r="I786" s="92"/>
       <c r="J786" s="3"/>
       <c r="K786" s="35"/>
       <c r="L786" s="3"/>
@@ -31506,7 +31513,7 @@
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
       <c r="H787" s="4"/>
-      <c r="I787" s="91"/>
+      <c r="I787" s="92"/>
       <c r="J787" s="3"/>
       <c r="K787" s="35"/>
       <c r="L787" s="3"/>
@@ -31521,7 +31528,7 @@
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
-      <c r="I788" s="91"/>
+      <c r="I788" s="92"/>
       <c r="J788" s="3"/>
       <c r="K788" s="35"/>
       <c r="L788" s="3"/>
@@ -31536,7 +31543,7 @@
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
       <c r="H789" s="4"/>
-      <c r="I789" s="91"/>
+      <c r="I789" s="92"/>
       <c r="J789" s="3"/>
       <c r="K789" s="35"/>
       <c r="L789" s="3"/>
@@ -31551,7 +31558,7 @@
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
       <c r="H790" s="4"/>
-      <c r="I790" s="91"/>
+      <c r="I790" s="92"/>
       <c r="J790" s="3"/>
       <c r="K790" s="35"/>
       <c r="L790" s="3"/>
@@ -31566,7 +31573,7 @@
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
       <c r="H791" s="4"/>
-      <c r="I791" s="91"/>
+      <c r="I791" s="92"/>
       <c r="J791" s="3"/>
       <c r="K791" s="35"/>
       <c r="L791" s="3"/>
@@ -31581,7 +31588,7 @@
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
-      <c r="I792" s="91"/>
+      <c r="I792" s="92"/>
       <c r="J792" s="3"/>
       <c r="K792" s="35"/>
       <c r="L792" s="3"/>
@@ -31596,7 +31603,7 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
-      <c r="I793" s="91"/>
+      <c r="I793" s="92"/>
       <c r="J793" s="3"/>
       <c r="K793" s="35"/>
       <c r="L793" s="3"/>
@@ -31611,7 +31618,7 @@
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
       <c r="H794" s="4"/>
-      <c r="I794" s="91"/>
+      <c r="I794" s="92"/>
       <c r="J794" s="3"/>
       <c r="K794" s="35"/>
       <c r="L794" s="3"/>
@@ -31626,7 +31633,7 @@
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
-      <c r="I795" s="91"/>
+      <c r="I795" s="92"/>
       <c r="J795" s="3"/>
       <c r="K795" s="35"/>
       <c r="L795" s="3"/>
@@ -31641,7 +31648,7 @@
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
-      <c r="I796" s="91"/>
+      <c r="I796" s="92"/>
       <c r="J796" s="3"/>
       <c r="K796" s="35"/>
       <c r="L796" s="3"/>
@@ -31656,7 +31663,7 @@
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
-      <c r="I797" s="91"/>
+      <c r="I797" s="92"/>
       <c r="J797" s="3"/>
       <c r="K797" s="35"/>
       <c r="L797" s="3"/>
@@ -31671,7 +31678,7 @@
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
-      <c r="I798" s="91"/>
+      <c r="I798" s="92"/>
       <c r="J798" s="3"/>
       <c r="K798" s="35"/>
       <c r="L798" s="3"/>
@@ -31686,7 +31693,7 @@
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
-      <c r="I799" s="91"/>
+      <c r="I799" s="92"/>
       <c r="J799" s="3"/>
       <c r="K799" s="35"/>
       <c r="L799" s="3"/>
@@ -31701,7 +31708,7 @@
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
-      <c r="I800" s="91"/>
+      <c r="I800" s="92"/>
       <c r="J800" s="3"/>
       <c r="K800" s="35"/>
       <c r="L800" s="3"/>
@@ -31716,7 +31723,7 @@
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
       <c r="H801" s="4"/>
-      <c r="I801" s="91"/>
+      <c r="I801" s="92"/>
       <c r="J801" s="3"/>
       <c r="K801" s="35"/>
       <c r="L801" s="3"/>
@@ -31731,7 +31738,7 @@
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
       <c r="H802" s="4"/>
-      <c r="I802" s="91"/>
+      <c r="I802" s="92"/>
       <c r="J802" s="3"/>
       <c r="K802" s="35"/>
       <c r="L802" s="3"/>
@@ -31746,7 +31753,7 @@
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
-      <c r="I803" s="91"/>
+      <c r="I803" s="92"/>
       <c r="J803" s="3"/>
       <c r="K803" s="35"/>
       <c r="L803" s="3"/>
@@ -31761,7 +31768,7 @@
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
       <c r="H804" s="4"/>
-      <c r="I804" s="91"/>
+      <c r="I804" s="92"/>
       <c r="J804" s="3"/>
       <c r="K804" s="35"/>
       <c r="L804" s="3"/>
@@ -31776,7 +31783,7 @@
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
       <c r="H805" s="4"/>
-      <c r="I805" s="91"/>
+      <c r="I805" s="92"/>
       <c r="J805" s="3"/>
       <c r="K805" s="35"/>
       <c r="L805" s="3"/>
@@ -31791,7 +31798,7 @@
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
-      <c r="I806" s="91"/>
+      <c r="I806" s="92"/>
       <c r="J806" s="3"/>
       <c r="K806" s="35"/>
       <c r="L806" s="3"/>
@@ -31806,7 +31813,7 @@
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
       <c r="H807" s="4"/>
-      <c r="I807" s="91"/>
+      <c r="I807" s="92"/>
       <c r="J807" s="3"/>
       <c r="K807" s="35"/>
       <c r="L807" s="3"/>
@@ -31821,7 +31828,7 @@
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
       <c r="H808" s="4"/>
-      <c r="I808" s="91"/>
+      <c r="I808" s="92"/>
       <c r="J808" s="3"/>
       <c r="K808" s="35"/>
       <c r="L808" s="3"/>
@@ -31836,7 +31843,7 @@
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
       <c r="H809" s="4"/>
-      <c r="I809" s="91"/>
+      <c r="I809" s="92"/>
       <c r="J809" s="3"/>
       <c r="K809" s="35"/>
       <c r="L809" s="3"/>
@@ -31851,7 +31858,7 @@
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
-      <c r="I810" s="91"/>
+      <c r="I810" s="92"/>
       <c r="J810" s="3"/>
       <c r="K810" s="35"/>
       <c r="L810" s="3"/>
@@ -31866,7 +31873,7 @@
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
-      <c r="I811" s="91"/>
+      <c r="I811" s="92"/>
       <c r="J811" s="3"/>
       <c r="K811" s="35"/>
       <c r="L811" s="3"/>
@@ -31881,7 +31888,7 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
-      <c r="I812" s="91"/>
+      <c r="I812" s="92"/>
       <c r="J812" s="3"/>
       <c r="K812" s="35"/>
       <c r="L812" s="3"/>
@@ -31896,7 +31903,7 @@
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
       <c r="H813" s="4"/>
-      <c r="I813" s="91"/>
+      <c r="I813" s="92"/>
       <c r="J813" s="3"/>
       <c r="K813" s="35"/>
       <c r="L813" s="3"/>
@@ -31911,7 +31918,7 @@
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
-      <c r="I814" s="91"/>
+      <c r="I814" s="92"/>
       <c r="J814" s="3"/>
       <c r="K814" s="35"/>
       <c r="L814" s="3"/>
@@ -31926,7 +31933,7 @@
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
-      <c r="I815" s="91"/>
+      <c r="I815" s="92"/>
       <c r="J815" s="3"/>
       <c r="K815" s="35"/>
       <c r="L815" s="3"/>
@@ -31941,7 +31948,7 @@
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
       <c r="H816" s="4"/>
-      <c r="I816" s="91"/>
+      <c r="I816" s="92"/>
       <c r="J816" s="3"/>
       <c r="K816" s="35"/>
       <c r="L816" s="3"/>
@@ -31956,7 +31963,7 @@
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
       <c r="H817" s="4"/>
-      <c r="I817" s="91"/>
+      <c r="I817" s="92"/>
       <c r="J817" s="3"/>
       <c r="K817" s="35"/>
       <c r="L817" s="3"/>
@@ -31971,7 +31978,7 @@
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
       <c r="H818" s="4"/>
-      <c r="I818" s="91"/>
+      <c r="I818" s="92"/>
       <c r="J818" s="3"/>
       <c r="K818" s="35"/>
       <c r="L818" s="3"/>
@@ -31986,7 +31993,7 @@
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
       <c r="H819" s="4"/>
-      <c r="I819" s="91"/>
+      <c r="I819" s="92"/>
       <c r="J819" s="3"/>
       <c r="K819" s="35"/>
       <c r="L819" s="3"/>
@@ -32001,7 +32008,7 @@
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
-      <c r="I820" s="91"/>
+      <c r="I820" s="92"/>
       <c r="J820" s="3"/>
       <c r="K820" s="35"/>
       <c r="L820" s="3"/>
@@ -32016,7 +32023,7 @@
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
-      <c r="I821" s="91"/>
+      <c r="I821" s="92"/>
       <c r="J821" s="3"/>
       <c r="K821" s="35"/>
       <c r="L821" s="3"/>
@@ -32031,7 +32038,7 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
-      <c r="I822" s="91"/>
+      <c r="I822" s="92"/>
       <c r="J822" s="3"/>
       <c r="K822" s="35"/>
       <c r="L822" s="3"/>
@@ -32046,7 +32053,7 @@
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
-      <c r="I823" s="91"/>
+      <c r="I823" s="92"/>
       <c r="J823" s="3"/>
       <c r="K823" s="35"/>
       <c r="L823" s="3"/>
@@ -32061,7 +32068,7 @@
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
-      <c r="I824" s="91"/>
+      <c r="I824" s="92"/>
       <c r="J824" s="3"/>
       <c r="K824" s="35"/>
       <c r="L824" s="3"/>
@@ -32076,7 +32083,7 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
       <c r="H825" s="4"/>
-      <c r="I825" s="91"/>
+      <c r="I825" s="92"/>
       <c r="J825" s="3"/>
       <c r="K825" s="35"/>
       <c r="L825" s="3"/>
@@ -32091,7 +32098,7 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
-      <c r="I826" s="91"/>
+      <c r="I826" s="92"/>
       <c r="J826" s="3"/>
       <c r="K826" s="35"/>
       <c r="L826" s="3"/>
@@ -32106,7 +32113,7 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
-      <c r="I827" s="91"/>
+      <c r="I827" s="92"/>
       <c r="J827" s="3"/>
       <c r="K827" s="35"/>
       <c r="L827" s="3"/>
@@ -32121,7 +32128,7 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
       <c r="H828" s="4"/>
-      <c r="I828" s="91"/>
+      <c r="I828" s="92"/>
       <c r="J828" s="3"/>
       <c r="K828" s="35"/>
       <c r="L828" s="3"/>
@@ -32136,7 +32143,7 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
       <c r="H829" s="4"/>
-      <c r="I829" s="91"/>
+      <c r="I829" s="92"/>
       <c r="J829" s="3"/>
       <c r="K829" s="35"/>
       <c r="L829" s="3"/>
@@ -32151,7 +32158,7 @@
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
       <c r="H830" s="4"/>
-      <c r="I830" s="91"/>
+      <c r="I830" s="92"/>
       <c r="J830" s="3"/>
       <c r="K830" s="35"/>
       <c r="L830" s="3"/>
@@ -32166,7 +32173,7 @@
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
-      <c r="I831" s="91"/>
+      <c r="I831" s="92"/>
       <c r="J831" s="3"/>
       <c r="K831" s="35"/>
       <c r="L831" s="3"/>
@@ -32181,7 +32188,7 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
-      <c r="I832" s="91"/>
+      <c r="I832" s="92"/>
       <c r="J832" s="3"/>
       <c r="K832" s="35"/>
       <c r="L832" s="3"/>
@@ -32196,7 +32203,7 @@
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
       <c r="H833" s="4"/>
-      <c r="I833" s="91"/>
+      <c r="I833" s="92"/>
       <c r="J833" s="3"/>
       <c r="K833" s="35"/>
       <c r="L833" s="3"/>
@@ -32211,7 +32218,7 @@
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
       <c r="H834" s="4"/>
-      <c r="I834" s="91"/>
+      <c r="I834" s="92"/>
       <c r="J834" s="3"/>
       <c r="K834" s="35"/>
       <c r="L834" s="3"/>
@@ -32226,7 +32233,7 @@
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
-      <c r="I835" s="91"/>
+      <c r="I835" s="92"/>
       <c r="J835" s="3"/>
       <c r="K835" s="35"/>
       <c r="L835" s="3"/>
@@ -32241,7 +32248,7 @@
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
-      <c r="I836" s="91"/>
+      <c r="I836" s="92"/>
       <c r="J836" s="3"/>
       <c r="K836" s="35"/>
       <c r="L836" s="3"/>
@@ -32256,7 +32263,7 @@
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
-      <c r="I837" s="91"/>
+      <c r="I837" s="92"/>
       <c r="J837" s="3"/>
       <c r="K837" s="35"/>
       <c r="L837" s="3"/>
@@ -32271,7 +32278,7 @@
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
-      <c r="I838" s="91"/>
+      <c r="I838" s="92"/>
       <c r="J838" s="3"/>
       <c r="K838" s="35"/>
       <c r="L838" s="3"/>
@@ -32286,7 +32293,7 @@
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
-      <c r="I839" s="91"/>
+      <c r="I839" s="92"/>
       <c r="J839" s="3"/>
       <c r="K839" s="35"/>
       <c r="L839" s="3"/>
@@ -32301,7 +32308,7 @@
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
-      <c r="I840" s="91"/>
+      <c r="I840" s="92"/>
       <c r="J840" s="3"/>
       <c r="K840" s="35"/>
       <c r="L840" s="3"/>
@@ -32316,7 +32323,7 @@
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
       <c r="H841" s="4"/>
-      <c r="I841" s="91"/>
+      <c r="I841" s="92"/>
       <c r="J841" s="3"/>
       <c r="K841" s="35"/>
       <c r="L841" s="3"/>
@@ -32331,7 +32338,7 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
-      <c r="I842" s="91"/>
+      <c r="I842" s="92"/>
       <c r="J842" s="3"/>
       <c r="K842" s="35"/>
       <c r="L842" s="3"/>
@@ -32346,7 +32353,7 @@
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
       <c r="H843" s="4"/>
-      <c r="I843" s="91"/>
+      <c r="I843" s="92"/>
       <c r="J843" s="3"/>
       <c r="K843" s="35"/>
       <c r="L843" s="3"/>
@@ -32361,7 +32368,7 @@
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
       <c r="H844" s="4"/>
-      <c r="I844" s="91"/>
+      <c r="I844" s="92"/>
       <c r="J844" s="3"/>
       <c r="K844" s="35"/>
       <c r="L844" s="3"/>
@@ -32376,7 +32383,7 @@
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
       <c r="H845" s="4"/>
-      <c r="I845" s="91"/>
+      <c r="I845" s="92"/>
       <c r="J845" s="3"/>
       <c r="K845" s="35"/>
       <c r="L845" s="3"/>
@@ -32391,7 +32398,7 @@
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
       <c r="H846" s="4"/>
-      <c r="I846" s="91"/>
+      <c r="I846" s="92"/>
       <c r="J846" s="3"/>
       <c r="K846" s="35"/>
       <c r="L846" s="3"/>
@@ -32406,7 +32413,7 @@
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
-      <c r="I847" s="91"/>
+      <c r="I847" s="92"/>
       <c r="J847" s="3"/>
       <c r="K847" s="35"/>
       <c r="L847" s="3"/>
@@ -32421,7 +32428,7 @@
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
-      <c r="I848" s="91"/>
+      <c r="I848" s="92"/>
       <c r="J848" s="3"/>
       <c r="K848" s="35"/>
       <c r="L848" s="3"/>
@@ -32436,7 +32443,7 @@
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
       <c r="H849" s="4"/>
-      <c r="I849" s="91"/>
+      <c r="I849" s="92"/>
       <c r="J849" s="3"/>
       <c r="K849" s="35"/>
       <c r="L849" s="3"/>
@@ -32451,7 +32458,7 @@
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
       <c r="H850" s="4"/>
-      <c r="I850" s="91"/>
+      <c r="I850" s="92"/>
       <c r="J850" s="3"/>
       <c r="K850" s="35"/>
       <c r="L850" s="3"/>
@@ -32466,7 +32473,7 @@
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
       <c r="H851" s="4"/>
-      <c r="I851" s="91"/>
+      <c r="I851" s="92"/>
       <c r="J851" s="3"/>
       <c r="K851" s="35"/>
       <c r="L851" s="3"/>
@@ -32481,7 +32488,7 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
-      <c r="I852" s="91"/>
+      <c r="I852" s="92"/>
       <c r="J852" s="3"/>
       <c r="K852" s="35"/>
       <c r="L852" s="3"/>
@@ -32496,7 +32503,7 @@
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
       <c r="H853" s="4"/>
-      <c r="I853" s="91"/>
+      <c r="I853" s="92"/>
       <c r="J853" s="3"/>
       <c r="K853" s="35"/>
       <c r="L853" s="3"/>
@@ -32511,7 +32518,7 @@
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
       <c r="H854" s="4"/>
-      <c r="I854" s="91"/>
+      <c r="I854" s="92"/>
       <c r="J854" s="3"/>
       <c r="K854" s="35"/>
       <c r="L854" s="3"/>
@@ -32526,7 +32533,7 @@
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
       <c r="H855" s="4"/>
-      <c r="I855" s="91"/>
+      <c r="I855" s="92"/>
       <c r="J855" s="3"/>
       <c r="K855" s="35"/>
       <c r="L855" s="3"/>
@@ -32541,7 +32548,7 @@
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
       <c r="H856" s="4"/>
-      <c r="I856" s="91"/>
+      <c r="I856" s="92"/>
       <c r="J856" s="3"/>
       <c r="K856" s="35"/>
       <c r="L856" s="3"/>
@@ -32556,7 +32563,7 @@
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
       <c r="H857" s="4"/>
-      <c r="I857" s="91"/>
+      <c r="I857" s="92"/>
       <c r="J857" s="3"/>
       <c r="K857" s="35"/>
       <c r="L857" s="3"/>
@@ -32571,7 +32578,7 @@
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
       <c r="H858" s="4"/>
-      <c r="I858" s="91"/>
+      <c r="I858" s="92"/>
       <c r="J858" s="3"/>
       <c r="K858" s="35"/>
       <c r="L858" s="3"/>
@@ -32586,7 +32593,7 @@
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
       <c r="H859" s="4"/>
-      <c r="I859" s="91"/>
+      <c r="I859" s="92"/>
       <c r="J859" s="3"/>
       <c r="K859" s="35"/>
       <c r="L859" s="3"/>
@@ -32601,7 +32608,7 @@
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
       <c r="H860" s="4"/>
-      <c r="I860" s="91"/>
+      <c r="I860" s="92"/>
       <c r="J860" s="3"/>
       <c r="K860" s="35"/>
       <c r="L860" s="3"/>
@@ -32616,7 +32623,7 @@
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
-      <c r="I861" s="91"/>
+      <c r="I861" s="92"/>
       <c r="J861" s="3"/>
       <c r="K861" s="35"/>
       <c r="L861" s="3"/>
@@ -32631,7 +32638,7 @@
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
       <c r="H862" s="4"/>
-      <c r="I862" s="91"/>
+      <c r="I862" s="92"/>
       <c r="J862" s="3"/>
       <c r="K862" s="35"/>
       <c r="L862" s="3"/>
@@ -32646,7 +32653,7 @@
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
       <c r="H863" s="4"/>
-      <c r="I863" s="91"/>
+      <c r="I863" s="92"/>
       <c r="J863" s="3"/>
       <c r="K863" s="35"/>
       <c r="L863" s="3"/>
@@ -32661,7 +32668,7 @@
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
       <c r="H864" s="4"/>
-      <c r="I864" s="91"/>
+      <c r="I864" s="92"/>
       <c r="J864" s="3"/>
       <c r="K864" s="35"/>
       <c r="L864" s="3"/>
@@ -32676,7 +32683,7 @@
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
       <c r="H865" s="4"/>
-      <c r="I865" s="91"/>
+      <c r="I865" s="92"/>
       <c r="J865" s="3"/>
       <c r="K865" s="35"/>
       <c r="L865" s="3"/>
@@ -32691,7 +32698,7 @@
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
       <c r="H866" s="4"/>
-      <c r="I866" s="91"/>
+      <c r="I866" s="92"/>
       <c r="J866" s="3"/>
       <c r="K866" s="35"/>
       <c r="L866" s="3"/>
@@ -32706,7 +32713,7 @@
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
       <c r="H867" s="4"/>
-      <c r="I867" s="91"/>
+      <c r="I867" s="92"/>
       <c r="J867" s="3"/>
       <c r="K867" s="35"/>
       <c r="L867" s="3"/>
@@ -32721,7 +32728,7 @@
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
       <c r="H868" s="4"/>
-      <c r="I868" s="91"/>
+      <c r="I868" s="92"/>
       <c r="J868" s="3"/>
       <c r="K868" s="35"/>
       <c r="L868" s="3"/>
@@ -32736,7 +32743,7 @@
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
       <c r="H869" s="4"/>
-      <c r="I869" s="91"/>
+      <c r="I869" s="92"/>
       <c r="J869" s="3"/>
       <c r="K869" s="35"/>
       <c r="L869" s="3"/>
@@ -32751,7 +32758,7 @@
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
-      <c r="I870" s="91"/>
+      <c r="I870" s="92"/>
       <c r="J870" s="3"/>
       <c r="K870" s="35"/>
       <c r="L870" s="3"/>
@@ -32766,7 +32773,7 @@
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
       <c r="H871" s="4"/>
-      <c r="I871" s="91"/>
+      <c r="I871" s="92"/>
       <c r="J871" s="3"/>
       <c r="K871" s="35"/>
       <c r="L871" s="3"/>
@@ -32781,7 +32788,7 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
-      <c r="I872" s="91"/>
+      <c r="I872" s="92"/>
       <c r="J872" s="3"/>
       <c r="K872" s="35"/>
       <c r="L872" s="3"/>
@@ -32796,7 +32803,7 @@
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
       <c r="H873" s="4"/>
-      <c r="I873" s="91"/>
+      <c r="I873" s="92"/>
       <c r="J873" s="3"/>
       <c r="K873" s="35"/>
       <c r="L873" s="3"/>
@@ -32811,7 +32818,7 @@
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
       <c r="H874" s="4"/>
-      <c r="I874" s="91"/>
+      <c r="I874" s="92"/>
       <c r="J874" s="3"/>
       <c r="K874" s="35"/>
       <c r="L874" s="3"/>
@@ -32826,7 +32833,7 @@
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
       <c r="H875" s="4"/>
-      <c r="I875" s="91"/>
+      <c r="I875" s="92"/>
       <c r="J875" s="3"/>
       <c r="K875" s="35"/>
       <c r="L875" s="3"/>
@@ -32841,7 +32848,7 @@
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
       <c r="H876" s="4"/>
-      <c r="I876" s="91"/>
+      <c r="I876" s="92"/>
       <c r="J876" s="3"/>
       <c r="K876" s="35"/>
       <c r="L876" s="3"/>
@@ -32856,7 +32863,7 @@
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
       <c r="H877" s="4"/>
-      <c r="I877" s="91"/>
+      <c r="I877" s="92"/>
       <c r="J877" s="3"/>
       <c r="K877" s="35"/>
       <c r="L877" s="3"/>
@@ -32871,7 +32878,7 @@
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
       <c r="H878" s="4"/>
-      <c r="I878" s="91"/>
+      <c r="I878" s="92"/>
       <c r="J878" s="3"/>
       <c r="K878" s="35"/>
       <c r="L878" s="3"/>
@@ -32886,7 +32893,7 @@
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
       <c r="H879" s="4"/>
-      <c r="I879" s="91"/>
+      <c r="I879" s="92"/>
       <c r="J879" s="3"/>
       <c r="K879" s="35"/>
       <c r="L879" s="3"/>
@@ -32901,7 +32908,7 @@
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
       <c r="H880" s="4"/>
-      <c r="I880" s="91"/>
+      <c r="I880" s="92"/>
       <c r="J880" s="3"/>
       <c r="K880" s="35"/>
       <c r="L880" s="3"/>
@@ -32916,7 +32923,7 @@
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
       <c r="H881" s="4"/>
-      <c r="I881" s="91"/>
+      <c r="I881" s="92"/>
       <c r="J881" s="3"/>
       <c r="K881" s="35"/>
       <c r="L881" s="3"/>
@@ -32931,7 +32938,7 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
-      <c r="I882" s="91"/>
+      <c r="I882" s="92"/>
       <c r="J882" s="3"/>
       <c r="K882" s="35"/>
       <c r="L882" s="3"/>
@@ -32946,7 +32953,7 @@
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
       <c r="H883" s="4"/>
-      <c r="I883" s="91"/>
+      <c r="I883" s="92"/>
       <c r="J883" s="3"/>
       <c r="K883" s="35"/>
       <c r="L883" s="3"/>
@@ -32961,7 +32968,7 @@
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
       <c r="H884" s="4"/>
-      <c r="I884" s="91"/>
+      <c r="I884" s="92"/>
       <c r="J884" s="3"/>
       <c r="K884" s="35"/>
       <c r="L884" s="3"/>
@@ -32976,7 +32983,7 @@
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
       <c r="H885" s="4"/>
-      <c r="I885" s="91"/>
+      <c r="I885" s="92"/>
       <c r="J885" s="3"/>
       <c r="K885" s="35"/>
       <c r="L885" s="3"/>
@@ -32991,7 +32998,7 @@
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
       <c r="H886" s="4"/>
-      <c r="I886" s="91"/>
+      <c r="I886" s="92"/>
       <c r="J886" s="3"/>
       <c r="K886" s="35"/>
       <c r="L886" s="3"/>
@@ -33006,7 +33013,7 @@
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
       <c r="H887" s="4"/>
-      <c r="I887" s="91"/>
+      <c r="I887" s="92"/>
       <c r="J887" s="3"/>
       <c r="K887" s="35"/>
       <c r="L887" s="3"/>
@@ -33021,7 +33028,7 @@
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
       <c r="H888" s="4"/>
-      <c r="I888" s="91"/>
+      <c r="I888" s="92"/>
       <c r="J888" s="3"/>
       <c r="K888" s="35"/>
       <c r="L888" s="3"/>
@@ -33036,7 +33043,7 @@
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
       <c r="H889" s="4"/>
-      <c r="I889" s="91"/>
+      <c r="I889" s="92"/>
       <c r="J889" s="3"/>
       <c r="K889" s="35"/>
       <c r="L889" s="3"/>
@@ -33051,7 +33058,7 @@
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
       <c r="H890" s="4"/>
-      <c r="I890" s="91"/>
+      <c r="I890" s="92"/>
       <c r="J890" s="3"/>
       <c r="K890" s="35"/>
       <c r="L890" s="3"/>
@@ -33066,7 +33073,7 @@
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
       <c r="H891" s="4"/>
-      <c r="I891" s="91"/>
+      <c r="I891" s="92"/>
       <c r="J891" s="3"/>
       <c r="K891" s="35"/>
       <c r="L891" s="3"/>
@@ -33081,7 +33088,7 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
-      <c r="I892" s="91"/>
+      <c r="I892" s="92"/>
       <c r="J892" s="3"/>
       <c r="K892" s="35"/>
       <c r="L892" s="3"/>
@@ -33096,7 +33103,7 @@
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
       <c r="H893" s="4"/>
-      <c r="I893" s="91"/>
+      <c r="I893" s="92"/>
       <c r="J893" s="3"/>
       <c r="K893" s="35"/>
       <c r="L893" s="3"/>
@@ -33111,7 +33118,7 @@
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
       <c r="H894" s="4"/>
-      <c r="I894" s="91"/>
+      <c r="I894" s="92"/>
       <c r="J894" s="3"/>
       <c r="K894" s="35"/>
       <c r="L894" s="3"/>
@@ -33126,7 +33133,7 @@
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
       <c r="H895" s="4"/>
-      <c r="I895" s="91"/>
+      <c r="I895" s="92"/>
       <c r="J895" s="3"/>
       <c r="K895" s="35"/>
       <c r="L895" s="3"/>
@@ -33141,7 +33148,7 @@
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
       <c r="H896" s="4"/>
-      <c r="I896" s="91"/>
+      <c r="I896" s="92"/>
       <c r="J896" s="3"/>
       <c r="K896" s="35"/>
       <c r="L896" s="3"/>
@@ -33156,7 +33163,7 @@
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
       <c r="H897" s="4"/>
-      <c r="I897" s="91"/>
+      <c r="I897" s="92"/>
       <c r="J897" s="3"/>
       <c r="K897" s="35"/>
       <c r="L897" s="3"/>
@@ -33171,7 +33178,7 @@
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
       <c r="H898" s="4"/>
-      <c r="I898" s="91"/>
+      <c r="I898" s="92"/>
       <c r="J898" s="3"/>
       <c r="K898" s="35"/>
       <c r="L898" s="3"/>
@@ -33186,7 +33193,7 @@
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
       <c r="H899" s="4"/>
-      <c r="I899" s="91"/>
+      <c r="I899" s="92"/>
       <c r="J899" s="3"/>
       <c r="K899" s="35"/>
       <c r="L899" s="3"/>
@@ -33201,7 +33208,7 @@
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
       <c r="H900" s="4"/>
-      <c r="I900" s="91"/>
+      <c r="I900" s="92"/>
       <c r="J900" s="3"/>
       <c r="K900" s="35"/>
       <c r="L900" s="3"/>
@@ -33216,7 +33223,7 @@
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
       <c r="H901" s="4"/>
-      <c r="I901" s="91"/>
+      <c r="I901" s="92"/>
       <c r="J901" s="3"/>
       <c r="K901" s="35"/>
       <c r="L901" s="3"/>
@@ -33231,7 +33238,7 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
-      <c r="I902" s="91"/>
+      <c r="I902" s="92"/>
       <c r="J902" s="3"/>
       <c r="K902" s="35"/>
       <c r="L902" s="3"/>
@@ -33246,7 +33253,7 @@
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
       <c r="H903" s="4"/>
-      <c r="I903" s="91"/>
+      <c r="I903" s="92"/>
       <c r="J903" s="3"/>
       <c r="K903" s="35"/>
       <c r="L903" s="3"/>
@@ -33261,7 +33268,7 @@
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
       <c r="H904" s="4"/>
-      <c r="I904" s="91"/>
+      <c r="I904" s="92"/>
       <c r="J904" s="3"/>
       <c r="K904" s="35"/>
       <c r="L904" s="3"/>
@@ -33276,7 +33283,7 @@
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
       <c r="H905" s="4"/>
-      <c r="I905" s="91"/>
+      <c r="I905" s="92"/>
       <c r="J905" s="3"/>
       <c r="K905" s="35"/>
       <c r="L905" s="3"/>
@@ -33291,7 +33298,7 @@
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
       <c r="H906" s="4"/>
-      <c r="I906" s="91"/>
+      <c r="I906" s="92"/>
       <c r="J906" s="3"/>
       <c r="K906" s="35"/>
       <c r="L906" s="3"/>
@@ -33306,7 +33313,7 @@
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
       <c r="H907" s="4"/>
-      <c r="I907" s="91"/>
+      <c r="I907" s="92"/>
       <c r="J907" s="3"/>
       <c r="K907" s="35"/>
       <c r="L907" s="3"/>
@@ -33321,7 +33328,7 @@
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
       <c r="H908" s="4"/>
-      <c r="I908" s="91"/>
+      <c r="I908" s="92"/>
       <c r="J908" s="3"/>
       <c r="K908" s="35"/>
       <c r="L908" s="3"/>
@@ -33336,7 +33343,7 @@
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
       <c r="H909" s="4"/>
-      <c r="I909" s="91"/>
+      <c r="I909" s="92"/>
       <c r="J909" s="3"/>
       <c r="K909" s="35"/>
       <c r="L909" s="3"/>
@@ -33351,7 +33358,7 @@
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
       <c r="H910" s="4"/>
-      <c r="I910" s="91"/>
+      <c r="I910" s="92"/>
       <c r="J910" s="3"/>
       <c r="K910" s="35"/>
       <c r="L910" s="3"/>
@@ -33366,7 +33373,7 @@
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
       <c r="H911" s="4"/>
-      <c r="I911" s="91"/>
+      <c r="I911" s="92"/>
       <c r="J911" s="3"/>
       <c r="K911" s="35"/>
       <c r="L911" s="3"/>
@@ -33381,7 +33388,7 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
-      <c r="I912" s="91"/>
+      <c r="I912" s="92"/>
       <c r="J912" s="3"/>
       <c r="K912" s="35"/>
       <c r="L912" s="3"/>
@@ -33396,7 +33403,7 @@
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
       <c r="H913" s="4"/>
-      <c r="I913" s="91"/>
+      <c r="I913" s="92"/>
       <c r="J913" s="3"/>
       <c r="K913" s="35"/>
       <c r="L913" s="3"/>
@@ -33411,7 +33418,7 @@
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
       <c r="H914" s="4"/>
-      <c r="I914" s="91"/>
+      <c r="I914" s="92"/>
       <c r="J914" s="3"/>
       <c r="K914" s="35"/>
       <c r="L914" s="3"/>
@@ -33426,7 +33433,7 @@
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
       <c r="H915" s="4"/>
-      <c r="I915" s="91"/>
+      <c r="I915" s="92"/>
       <c r="J915" s="3"/>
       <c r="K915" s="35"/>
       <c r="L915" s="3"/>
@@ -33441,7 +33448,7 @@
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
       <c r="H916" s="4"/>
-      <c r="I916" s="91"/>
+      <c r="I916" s="92"/>
       <c r="J916" s="3"/>
       <c r="K916" s="35"/>
       <c r="L916" s="3"/>
@@ -33456,7 +33463,7 @@
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
       <c r="H917" s="4"/>
-      <c r="I917" s="91"/>
+      <c r="I917" s="92"/>
       <c r="J917" s="3"/>
       <c r="K917" s="35"/>
       <c r="L917" s="3"/>
@@ -33471,7 +33478,7 @@
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
       <c r="H918" s="4"/>
-      <c r="I918" s="91"/>
+      <c r="I918" s="92"/>
       <c r="J918" s="3"/>
       <c r="K918" s="35"/>
       <c r="L918" s="3"/>
@@ -33486,7 +33493,7 @@
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
       <c r="H919" s="4"/>
-      <c r="I919" s="91"/>
+      <c r="I919" s="92"/>
       <c r="J919" s="3"/>
       <c r="K919" s="35"/>
       <c r="L919" s="3"/>
@@ -33501,7 +33508,7 @@
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
       <c r="H920" s="4"/>
-      <c r="I920" s="91"/>
+      <c r="I920" s="92"/>
       <c r="J920" s="3"/>
       <c r="K920" s="35"/>
       <c r="L920" s="3"/>
@@ -33516,7 +33523,7 @@
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
       <c r="H921" s="4"/>
-      <c r="I921" s="91"/>
+      <c r="I921" s="92"/>
       <c r="J921" s="3"/>
       <c r="K921" s="35"/>
       <c r="L921" s="3"/>
@@ -33531,7 +33538,7 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
-      <c r="I922" s="91"/>
+      <c r="I922" s="92"/>
       <c r="J922" s="3"/>
       <c r="K922" s="35"/>
       <c r="L922" s="3"/>
@@ -33546,7 +33553,7 @@
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
       <c r="H923" s="4"/>
-      <c r="I923" s="91"/>
+      <c r="I923" s="92"/>
       <c r="J923" s="3"/>
       <c r="K923" s="35"/>
       <c r="L923" s="3"/>
@@ -33561,7 +33568,7 @@
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
       <c r="H924" s="4"/>
-      <c r="I924" s="91"/>
+      <c r="I924" s="92"/>
       <c r="J924" s="3"/>
       <c r="K924" s="35"/>
       <c r="L924" s="3"/>
@@ -33576,7 +33583,7 @@
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
       <c r="H925" s="4"/>
-      <c r="I925" s="91"/>
+      <c r="I925" s="92"/>
       <c r="J925" s="3"/>
       <c r="K925" s="35"/>
       <c r="L925" s="3"/>
@@ -33591,7 +33598,7 @@
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
       <c r="H926" s="4"/>
-      <c r="I926" s="91"/>
+      <c r="I926" s="92"/>
       <c r="J926" s="3"/>
       <c r="K926" s="35"/>
       <c r="L926" s="3"/>
@@ -33606,7 +33613,7 @@
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
       <c r="H927" s="4"/>
-      <c r="I927" s="91"/>
+      <c r="I927" s="92"/>
       <c r="J927" s="3"/>
       <c r="K927" s="35"/>
       <c r="L927" s="3"/>
@@ -33621,7 +33628,7 @@
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
       <c r="H928" s="4"/>
-      <c r="I928" s="91"/>
+      <c r="I928" s="92"/>
       <c r="J928" s="3"/>
       <c r="K928" s="35"/>
       <c r="L928" s="3"/>
@@ -33636,7 +33643,7 @@
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
       <c r="H929" s="4"/>
-      <c r="I929" s="91"/>
+      <c r="I929" s="92"/>
       <c r="J929" s="3"/>
       <c r="K929" s="35"/>
       <c r="L929" s="3"/>
@@ -33651,7 +33658,7 @@
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
       <c r="H930" s="4"/>
-      <c r="I930" s="91"/>
+      <c r="I930" s="92"/>
       <c r="J930" s="3"/>
       <c r="K930" s="35"/>
       <c r="L930" s="3"/>
@@ -33666,7 +33673,7 @@
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
       <c r="H931" s="4"/>
-      <c r="I931" s="91"/>
+      <c r="I931" s="92"/>
       <c r="J931" s="3"/>
       <c r="K931" s="35"/>
       <c r="L931" s="3"/>
@@ -33681,7 +33688,7 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
-      <c r="I932" s="91"/>
+      <c r="I932" s="92"/>
       <c r="J932" s="3"/>
       <c r="K932" s="35"/>
       <c r="L932" s="3"/>
@@ -33696,7 +33703,7 @@
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
       <c r="H933" s="4"/>
-      <c r="I933" s="91"/>
+      <c r="I933" s="92"/>
       <c r="J933" s="3"/>
       <c r="K933" s="35"/>
       <c r="L933" s="3"/>
@@ -33711,7 +33718,7 @@
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
       <c r="H934" s="4"/>
-      <c r="I934" s="91"/>
+      <c r="I934" s="92"/>
       <c r="J934" s="3"/>
       <c r="K934" s="35"/>
       <c r="L934" s="3"/>
@@ -33726,7 +33733,7 @@
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
       <c r="H935" s="4"/>
-      <c r="I935" s="91"/>
+      <c r="I935" s="92"/>
       <c r="J935" s="3"/>
       <c r="K935" s="35"/>
       <c r="L935" s="3"/>
@@ -33741,7 +33748,7 @@
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
       <c r="H936" s="4"/>
-      <c r="I936" s="91"/>
+      <c r="I936" s="92"/>
       <c r="J936" s="3"/>
       <c r="K936" s="35"/>
       <c r="L936" s="3"/>
@@ -33756,7 +33763,7 @@
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
       <c r="H937" s="4"/>
-      <c r="I937" s="91"/>
+      <c r="I937" s="92"/>
       <c r="J937" s="3"/>
       <c r="K937" s="35"/>
       <c r="L937" s="3"/>
@@ -33771,7 +33778,7 @@
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
       <c r="H938" s="4"/>
-      <c r="I938" s="91"/>
+      <c r="I938" s="92"/>
       <c r="J938" s="3"/>
       <c r="K938" s="35"/>
       <c r="L938" s="3"/>
@@ -33786,7 +33793,7 @@
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
       <c r="H939" s="4"/>
-      <c r="I939" s="91"/>
+      <c r="I939" s="92"/>
       <c r="J939" s="3"/>
       <c r="K939" s="35"/>
       <c r="L939" s="3"/>
@@ -33801,7 +33808,7 @@
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
       <c r="H940" s="4"/>
-      <c r="I940" s="91"/>
+      <c r="I940" s="92"/>
       <c r="J940" s="3"/>
       <c r="K940" s="35"/>
       <c r="L940" s="3"/>
@@ -33816,7 +33823,7 @@
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
       <c r="H941" s="4"/>
-      <c r="I941" s="91"/>
+      <c r="I941" s="92"/>
       <c r="J941" s="3"/>
       <c r="K941" s="35"/>
       <c r="L941" s="3"/>
@@ -33831,7 +33838,7 @@
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
       <c r="H942" s="4"/>
-      <c r="I942" s="91"/>
+      <c r="I942" s="92"/>
       <c r="J942" s="3"/>
       <c r="K942" s="35"/>
       <c r="L942" s="3"/>
@@ -33846,7 +33853,7 @@
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
       <c r="H943" s="4"/>
-      <c r="I943" s="91"/>
+      <c r="I943" s="92"/>
       <c r="J943" s="3"/>
       <c r="K943" s="35"/>
       <c r="L943" s="3"/>
@@ -33861,7 +33868,7 @@
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
       <c r="H944" s="4"/>
-      <c r="I944" s="91"/>
+      <c r="I944" s="92"/>
       <c r="J944" s="3"/>
       <c r="K944" s="35"/>
       <c r="L944" s="3"/>
@@ -33876,7 +33883,7 @@
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
       <c r="H945" s="4"/>
-      <c r="I945" s="91"/>
+      <c r="I945" s="92"/>
       <c r="J945" s="3"/>
       <c r="K945" s="35"/>
       <c r="L945" s="3"/>
@@ -33891,7 +33898,7 @@
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
       <c r="H946" s="4"/>
-      <c r="I946" s="91"/>
+      <c r="I946" s="92"/>
       <c r="J946" s="3"/>
       <c r="K946" s="35"/>
       <c r="L946" s="3"/>
@@ -33906,7 +33913,7 @@
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
       <c r="H947" s="4"/>
-      <c r="I947" s="91"/>
+      <c r="I947" s="92"/>
       <c r="J947" s="3"/>
       <c r="K947" s="35"/>
       <c r="L947" s="3"/>
@@ -33921,7 +33928,7 @@
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
       <c r="H948" s="4"/>
-      <c r="I948" s="91"/>
+      <c r="I948" s="92"/>
       <c r="J948" s="3"/>
       <c r="K948" s="35"/>
       <c r="L948" s="3"/>
@@ -33936,7 +33943,7 @@
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
       <c r="H949" s="4"/>
-      <c r="I949" s="91"/>
+      <c r="I949" s="92"/>
       <c r="J949" s="3"/>
       <c r="K949" s="35"/>
       <c r="L949" s="3"/>
@@ -33951,7 +33958,7 @@
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
       <c r="H950" s="4"/>
-      <c r="I950" s="91"/>
+      <c r="I950" s="92"/>
       <c r="J950" s="3"/>
       <c r="K950" s="35"/>
       <c r="L950" s="3"/>
@@ -33966,7 +33973,7 @@
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
       <c r="H951" s="4"/>
-      <c r="I951" s="91"/>
+      <c r="I951" s="92"/>
       <c r="J951" s="3"/>
       <c r="K951" s="35"/>
       <c r="L951" s="3"/>
@@ -33981,7 +33988,7 @@
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
       <c r="H952" s="4"/>
-      <c r="I952" s="91"/>
+      <c r="I952" s="92"/>
       <c r="J952" s="3"/>
       <c r="K952" s="35"/>
       <c r="L952" s="3"/>
@@ -33996,7 +34003,7 @@
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
       <c r="H953" s="4"/>
-      <c r="I953" s="91"/>
+      <c r="I953" s="92"/>
       <c r="J953" s="3"/>
       <c r="K953" s="35"/>
       <c r="L953" s="3"/>
@@ -34011,7 +34018,7 @@
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
       <c r="H954" s="4"/>
-      <c r="I954" s="91"/>
+      <c r="I954" s="92"/>
       <c r="J954" s="3"/>
       <c r="K954" s="35"/>
       <c r="L954" s="3"/>
@@ -34026,7 +34033,7 @@
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
       <c r="H955" s="4"/>
-      <c r="I955" s="91"/>
+      <c r="I955" s="92"/>
       <c r="J955" s="3"/>
       <c r="K955" s="35"/>
       <c r="L955" s="3"/>
@@ -34041,7 +34048,7 @@
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
       <c r="H956" s="4"/>
-      <c r="I956" s="91"/>
+      <c r="I956" s="92"/>
       <c r="J956" s="3"/>
       <c r="K956" s="35"/>
       <c r="L956" s="3"/>
@@ -34056,7 +34063,7 @@
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
       <c r="H957" s="4"/>
-      <c r="I957" s="91"/>
+      <c r="I957" s="92"/>
       <c r="J957" s="3"/>
       <c r="K957" s="35"/>
       <c r="L957" s="3"/>
@@ -34071,7 +34078,7 @@
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
       <c r="H958" s="4"/>
-      <c r="I958" s="91"/>
+      <c r="I958" s="92"/>
       <c r="J958" s="3"/>
       <c r="K958" s="35"/>
       <c r="L958" s="3"/>
@@ -34086,7 +34093,7 @@
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
       <c r="H959" s="4"/>
-      <c r="I959" s="91"/>
+      <c r="I959" s="92"/>
       <c r="J959" s="3"/>
       <c r="K959" s="35"/>
       <c r="L959" s="3"/>
@@ -34101,7 +34108,7 @@
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
       <c r="H960" s="4"/>
-      <c r="I960" s="91"/>
+      <c r="I960" s="92"/>
       <c r="J960" s="3"/>
       <c r="K960" s="35"/>
       <c r="L960" s="3"/>
@@ -34116,7 +34123,7 @@
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
       <c r="H961" s="4"/>
-      <c r="I961" s="91"/>
+      <c r="I961" s="92"/>
       <c r="J961" s="3"/>
       <c r="K961" s="35"/>
       <c r="L961" s="3"/>
@@ -34131,7 +34138,7 @@
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
       <c r="H962" s="4"/>
-      <c r="I962" s="91"/>
+      <c r="I962" s="92"/>
       <c r="J962" s="3"/>
       <c r="K962" s="35"/>
       <c r="L962" s="3"/>
@@ -34146,7 +34153,7 @@
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
       <c r="H963" s="4"/>
-      <c r="I963" s="91"/>
+      <c r="I963" s="92"/>
       <c r="J963" s="3"/>
       <c r="K963" s="35"/>
       <c r="L963" s="3"/>
@@ -34161,7 +34168,7 @@
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
       <c r="H964" s="4"/>
-      <c r="I964" s="91"/>
+      <c r="I964" s="92"/>
       <c r="J964" s="3"/>
       <c r="K964" s="35"/>
       <c r="L964" s="3"/>
@@ -34176,7 +34183,7 @@
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
       <c r="H965" s="4"/>
-      <c r="I965" s="91"/>
+      <c r="I965" s="92"/>
       <c r="J965" s="3"/>
       <c r="K965" s="35"/>
       <c r="L965" s="3"/>
@@ -34191,7 +34198,7 @@
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
       <c r="H966" s="4"/>
-      <c r="I966" s="91"/>
+      <c r="I966" s="92"/>
       <c r="J966" s="3"/>
       <c r="K966" s="35"/>
       <c r="L966" s="3"/>
@@ -34206,7 +34213,7 @@
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
       <c r="H967" s="4"/>
-      <c r="I967" s="91"/>
+      <c r="I967" s="92"/>
       <c r="J967" s="3"/>
       <c r="K967" s="35"/>
       <c r="L967" s="3"/>
@@ -34221,7 +34228,7 @@
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
       <c r="H968" s="4"/>
-      <c r="I968" s="91"/>
+      <c r="I968" s="92"/>
       <c r="J968" s="3"/>
       <c r="K968" s="35"/>
       <c r="L968" s="3"/>
@@ -34236,7 +34243,7 @@
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
       <c r="H969" s="4"/>
-      <c r="I969" s="91"/>
+      <c r="I969" s="92"/>
       <c r="J969" s="3"/>
       <c r="K969" s="35"/>
       <c r="L969" s="3"/>
@@ -34251,7 +34258,7 @@
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
       <c r="H970" s="4"/>
-      <c r="I970" s="91"/>
+      <c r="I970" s="92"/>
       <c r="J970" s="3"/>
       <c r="K970" s="35"/>
       <c r="L970" s="3"/>
@@ -34266,7 +34273,7 @@
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
       <c r="H971" s="4"/>
-      <c r="I971" s="91"/>
+      <c r="I971" s="92"/>
       <c r="J971" s="3"/>
       <c r="K971" s="35"/>
       <c r="L971" s="3"/>
@@ -34281,7 +34288,7 @@
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
       <c r="H972" s="4"/>
-      <c r="I972" s="91"/>
+      <c r="I972" s="92"/>
       <c r="J972" s="3"/>
       <c r="K972" s="35"/>
       <c r="L972" s="3"/>
@@ -34296,7 +34303,7 @@
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
       <c r="H973" s="4"/>
-      <c r="I973" s="91"/>
+      <c r="I973" s="92"/>
       <c r="J973" s="3"/>
       <c r="K973" s="35"/>
       <c r="L973" s="3"/>
@@ -34311,7 +34318,7 @@
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
       <c r="H974" s="4"/>
-      <c r="I974" s="91"/>
+      <c r="I974" s="92"/>
       <c r="J974" s="3"/>
       <c r="K974" s="35"/>
       <c r="L974" s="3"/>
@@ -34326,7 +34333,7 @@
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
       <c r="H975" s="4"/>
-      <c r="I975" s="91"/>
+      <c r="I975" s="92"/>
       <c r="J975" s="3"/>
       <c r="K975" s="35"/>
       <c r="L975" s="3"/>
@@ -34341,7 +34348,7 @@
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
       <c r="H976" s="4"/>
-      <c r="I976" s="91"/>
+      <c r="I976" s="92"/>
       <c r="J976" s="3"/>
       <c r="K976" s="35"/>
       <c r="L976" s="3"/>
@@ -34356,7 +34363,7 @@
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
       <c r="H977" s="4"/>
-      <c r="I977" s="91"/>
+      <c r="I977" s="92"/>
       <c r="J977" s="3"/>
       <c r="K977" s="35"/>
       <c r="L977" s="3"/>
@@ -34371,7 +34378,7 @@
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
       <c r="H978" s="4"/>
-      <c r="I978" s="91"/>
+      <c r="I978" s="92"/>
       <c r="J978" s="3"/>
       <c r="K978" s="35"/>
       <c r="L978" s="3"/>
@@ -34386,7 +34393,7 @@
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
       <c r="H979" s="4"/>
-      <c r="I979" s="91"/>
+      <c r="I979" s="92"/>
       <c r="J979" s="3"/>
       <c r="K979" s="35"/>
       <c r="L979" s="3"/>
@@ -34401,7 +34408,7 @@
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
       <c r="H980" s="4"/>
-      <c r="I980" s="91"/>
+      <c r="I980" s="92"/>
       <c r="J980" s="3"/>
       <c r="K980" s="35"/>
       <c r="L980" s="3"/>
@@ -34416,7 +34423,7 @@
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
       <c r="H981" s="4"/>
-      <c r="I981" s="91"/>
+      <c r="I981" s="92"/>
       <c r="J981" s="3"/>
       <c r="K981" s="35"/>
       <c r="L981" s="3"/>
@@ -34431,7 +34438,7 @@
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
       <c r="H982" s="4"/>
-      <c r="I982" s="91"/>
+      <c r="I982" s="92"/>
       <c r="J982" s="3"/>
       <c r="K982" s="35"/>
       <c r="L982" s="3"/>
@@ -34446,7 +34453,7 @@
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
       <c r="H983" s="4"/>
-      <c r="I983" s="91"/>
+      <c r="I983" s="92"/>
       <c r="J983" s="3"/>
       <c r="K983" s="35"/>
       <c r="L983" s="3"/>
@@ -34461,7 +34468,7 @@
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
       <c r="H984" s="4"/>
-      <c r="I984" s="91"/>
+      <c r="I984" s="92"/>
       <c r="J984" s="3"/>
       <c r="K984" s="35"/>
       <c r="L984" s="3"/>
@@ -34476,7 +34483,7 @@
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
       <c r="H985" s="4"/>
-      <c r="I985" s="91"/>
+      <c r="I985" s="92"/>
       <c r="J985" s="3"/>
       <c r="K985" s="35"/>
       <c r="L985" s="3"/>
@@ -34491,7 +34498,7 @@
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
       <c r="H986" s="4"/>
-      <c r="I986" s="91"/>
+      <c r="I986" s="92"/>
       <c r="J986" s="3"/>
       <c r="K986" s="35"/>
       <c r="L986" s="3"/>
@@ -34506,7 +34513,7 @@
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
       <c r="H987" s="4"/>
-      <c r="I987" s="91"/>
+      <c r="I987" s="92"/>
       <c r="J987" s="3"/>
       <c r="K987" s="35"/>
       <c r="L987" s="3"/>
@@ -34521,7 +34528,7 @@
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
       <c r="H988" s="4"/>
-      <c r="I988" s="91"/>
+      <c r="I988" s="92"/>
       <c r="J988" s="3"/>
       <c r="K988" s="35"/>
       <c r="L988" s="3"/>
@@ -34536,7 +34543,7 @@
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
-      <c r="I989" s="91"/>
+      <c r="I989" s="92"/>
       <c r="J989" s="3"/>
       <c r="K989" s="35"/>
       <c r="L989" s="3"/>
@@ -34551,7 +34558,7 @@
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
       <c r="H990" s="4"/>
-      <c r="I990" s="91"/>
+      <c r="I990" s="92"/>
       <c r="J990" s="3"/>
       <c r="K990" s="35"/>
       <c r="L990" s="3"/>
@@ -34566,7 +34573,7 @@
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
-      <c r="I991" s="91"/>
+      <c r="I991" s="92"/>
       <c r="J991" s="3"/>
       <c r="K991" s="35"/>
       <c r="L991" s="3"/>
@@ -34581,7 +34588,7 @@
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
       <c r="H992" s="4"/>
-      <c r="I992" s="91"/>
+      <c r="I992" s="92"/>
       <c r="J992" s="3"/>
       <c r="K992" s="35"/>
       <c r="L992" s="3"/>
@@ -34596,7 +34603,7 @@
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
       <c r="H993" s="4"/>
-      <c r="I993" s="91"/>
+      <c r="I993" s="92"/>
       <c r="J993" s="3"/>
       <c r="K993" s="35"/>
       <c r="L993" s="3"/>
@@ -34611,7 +34618,7 @@
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
       <c r="H994" s="4"/>
-      <c r="I994" s="91"/>
+      <c r="I994" s="92"/>
       <c r="J994" s="3"/>
       <c r="K994" s="35"/>
       <c r="L994" s="3"/>
@@ -34626,7 +34633,7 @@
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
       <c r="H995" s="4"/>
-      <c r="I995" s="91"/>
+      <c r="I995" s="92"/>
       <c r="J995" s="3"/>
       <c r="K995" s="35"/>
       <c r="L995" s="3"/>
@@ -34641,7 +34648,7 @@
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
       <c r="H996" s="4"/>
-      <c r="I996" s="91"/>
+      <c r="I996" s="92"/>
       <c r="J996" s="3"/>
       <c r="K996" s="35"/>
       <c r="L996" s="3"/>
@@ -34656,7 +34663,7 @@
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
       <c r="H997" s="4"/>
-      <c r="I997" s="91"/>
+      <c r="I997" s="92"/>
       <c r="J997" s="3"/>
       <c r="K997" s="35"/>
       <c r="L997" s="3"/>
@@ -34671,7 +34678,7 @@
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
       <c r="H998" s="4"/>
-      <c r="I998" s="91"/>
+      <c r="I998" s="92"/>
       <c r="J998" s="3"/>
       <c r="K998" s="35"/>
       <c r="L998" s="3"/>
@@ -34686,7 +34693,7 @@
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
       <c r="H999" s="4"/>
-      <c r="I999" s="91"/>
+      <c r="I999" s="92"/>
       <c r="J999" s="3"/>
       <c r="K999" s="35"/>
       <c r="L999" s="3"/>
@@ -34701,7 +34708,7 @@
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
       <c r="H1000" s="4"/>
-      <c r="I1000" s="91"/>
+      <c r="I1000" s="92"/>
       <c r="J1000" s="3"/>
       <c r="K1000" s="35"/>
       <c r="L1000" s="3"/>
@@ -34716,7 +34723,7 @@
       <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
       <c r="H1001" s="4"/>
-      <c r="I1001" s="91"/>
+      <c r="I1001" s="92"/>
       <c r="J1001" s="3"/>
       <c r="K1001" s="35"/>
       <c r="L1001" s="3"/>
